--- a/code/count-distributions/manual_vs_automatic_fct_arc.xlsx
+++ b/code/count-distributions/manual_vs_automatic_fct_arc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\code\count-distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DB482E-40EF-412B-A903-4F843EDA393A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CFE52C-3B51-4452-B846-C44609F41E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="72">
   <si>
     <t>pullback</t>
   </si>
@@ -243,13 +243,19 @@
   </si>
   <si>
     <t>Detects sidebranch as lipid</t>
+  </si>
+  <si>
+    <t>FCT automatic v2</t>
+  </si>
+  <si>
+    <t>Lipid arc automatic v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +269,12 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -320,11 +332,20 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -385,23 +406,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{627F69A6-40FB-4B8F-B019-968DD6D0195F}" name="Table1" displayName="Table1" ref="A1:I163" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:I163" xr:uid="{627F69A6-40FB-4B8F-B019-968DD6D0195F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{627F69A6-40FB-4B8F-B019-968DD6D0195F}" name="Table1" displayName="Table1" ref="A1:K163" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:K163" xr:uid="{627F69A6-40FB-4B8F-B019-968DD6D0195F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D163">
     <sortCondition ref="A2:A163"/>
     <sortCondition ref="B2:B163"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="11">
     <tableColumn id="2" xr3:uid="{2C0E160C-6798-4885-8731-C625EA9FCD7D}" name="pullback"/>
     <tableColumn id="3" xr3:uid="{44E5B83C-AD90-4B86-865E-DC4CCE862E5A}" name="frame"/>
-    <tableColumn id="19" xr3:uid="{CDBCD10C-1914-442A-AFDB-FBA699E3241E}" name="FCT automatic" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{9B2DB0AB-023A-4433-BF62-11ED202DA0F6}" name="Lipid arc automatic" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{647ED19A-12EE-48BA-B5F2-0DA0D312A6EB}" name="FCT manual" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{35F9E1BF-544E-4C84-A267-F8C76EA6A296}" name="Lipid arc manual" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{6C89EED6-A37E-43E0-9D05-325F0FF5B398}" name="Difference FCT" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{CDBCD10C-1914-442A-AFDB-FBA699E3241E}" name="FCT automatic" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{9B2DB0AB-023A-4433-BF62-11ED202DA0F6}" name="Lipid arc automatic" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{95535434-BD5F-421C-AE0B-1B40C5FD1944}" name="FCT automatic v2" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{D55069E1-AA5A-4AF5-82C8-0FC59C6B41A1}" name="Lipid arc automatic v2" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{647ED19A-12EE-48BA-B5F2-0DA0D312A6EB}" name="FCT manual" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{35F9E1BF-544E-4C84-A267-F8C76EA6A296}" name="Lipid arc manual" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{6C89EED6-A37E-43E0-9D05-325F0FF5B398}" name="Difference FCT" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{C4605D00-0ECB-41CD-B40C-285B95EF7363}" name="Difference lipid arc" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{C4605D00-0ECB-41CD-B40C-285B95EF7363}" name="Difference lipid arc" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{85CE63A1-F429-4A32-B0D4-E639FF525C40}" name="Observation"/>
@@ -695,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,14 +729,14 @@
     <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
-    <col min="9" max="9" width="30.88671875" customWidth="1"/>
-    <col min="11" max="11" width="30.77734375" customWidth="1"/>
+    <col min="4" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" customWidth="1"/>
+    <col min="13" max="13" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,23 +749,29 @@
       <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -755,22 +784,28 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H2" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -783,22 +818,28 @@
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -811,22 +852,28 @@
       <c r="D4" s="3">
         <v>94</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <v>94</v>
+      </c>
+      <c r="G4" s="3">
         <v>50</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
         <v>92</v>
       </c>
-      <c r="G4" s="3">
+      <c r="I4" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>11</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -839,22 +886,28 @@
       <c r="D5" s="3">
         <v>86</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
+        <v>110</v>
+      </c>
+      <c r="F5">
+        <v>82</v>
+      </c>
+      <c r="G5" s="3">
         <v>60</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>99</v>
       </c>
-      <c r="G5" s="3">
+      <c r="I5" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>50</v>
       </c>
-      <c r="H5" s="3">
+      <c r="J5" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -867,22 +920,28 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -895,22 +954,28 @@
       <c r="D7" s="3">
         <v>256</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
+        <v>132</v>
+      </c>
+      <c r="F7">
+        <v>250</v>
+      </c>
+      <c r="G7" s="3">
         <v>110</v>
       </c>
-      <c r="F7" s="3">
+      <c r="H7" s="3">
         <v>249</v>
       </c>
-      <c r="G7" s="3">
+      <c r="I7" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>22</v>
       </c>
-      <c r="H7" s="3">
+      <c r="J7" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -923,22 +988,28 @@
       <c r="D8" s="3">
         <v>114</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
+        <v>255</v>
+      </c>
+      <c r="F8">
+        <v>114</v>
+      </c>
+      <c r="G8" s="3">
         <v>290</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>59</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-35</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -951,22 +1022,28 @@
       <c r="D9" s="3">
         <v>144</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
+        <v>240</v>
+      </c>
+      <c r="F9">
+        <v>144</v>
+      </c>
+      <c r="G9" s="3">
         <v>340</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>143</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -979,22 +1056,28 @@
       <c r="D10" s="3">
         <v>226</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
+        <v>144</v>
+      </c>
+      <c r="F10">
+        <v>222</v>
+      </c>
+      <c r="G10" s="3">
         <v>170</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>165</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-26</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1007,22 +1090,28 @@
       <c r="D11" s="3">
         <v>228</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
+        <v>102</v>
+      </c>
+      <c r="F11">
+        <v>226</v>
+      </c>
+      <c r="G11" s="3">
         <v>60</v>
       </c>
-      <c r="F11" s="3">
+      <c r="H11" s="3">
         <v>236</v>
       </c>
-      <c r="G11" s="3">
+      <c r="I11" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>42</v>
       </c>
-      <c r="H11" s="3">
+      <c r="J11" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1035,22 +1124,28 @@
       <c r="D12" s="3">
         <v>130</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
+        <v>134</v>
+      </c>
+      <c r="F12">
+        <v>130</v>
+      </c>
+      <c r="G12" s="3">
         <v>70</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>119</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>64</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1063,22 +1158,28 @@
       <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1091,22 +1192,28 @@
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1119,22 +1226,28 @@
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1147,22 +1260,28 @@
       <c r="D16" s="3">
         <v>74</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
+        <v>199</v>
+      </c>
+      <c r="F16">
+        <v>74</v>
+      </c>
+      <c r="G16" s="3">
         <v>150</v>
       </c>
-      <c r="F16" s="3">
+      <c r="H16" s="3">
         <v>54</v>
       </c>
-      <c r="G16" s="3">
+      <c r="I16" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>49</v>
       </c>
-      <c r="H16" s="3">
+      <c r="J16" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1175,22 +1294,28 @@
       <c r="D17" s="3">
         <v>48</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
+        <v>281</v>
+      </c>
+      <c r="F17">
+        <v>46</v>
+      </c>
+      <c r="G17" s="3">
         <v>170</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>33</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>111</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1203,22 +1328,28 @@
       <c r="D18" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1231,22 +1362,28 @@
       <c r="D19" s="3">
         <v>0</v>
       </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1259,22 +1396,28 @@
       <c r="D20" s="3">
         <v>150</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
+        <v>45</v>
+      </c>
+      <c r="F20">
+        <v>148</v>
+      </c>
+      <c r="G20" s="3">
         <v>60</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>143</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-15</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1287,22 +1430,28 @@
       <c r="D21" s="3">
         <v>122</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
+        <v>67</v>
+      </c>
+      <c r="F21">
+        <v>122</v>
+      </c>
+      <c r="G21" s="3">
         <v>70</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>120</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1315,22 +1464,28 @@
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1343,25 +1498,31 @@
       <c r="D23" s="3">
         <v>164</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
+        <v>536</v>
+      </c>
+      <c r="F23">
+        <v>158</v>
+      </c>
+      <c r="G23" s="3">
         <v>720</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>62</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-184</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>102</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1374,22 +1535,28 @@
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1402,22 +1569,28 @@
       <c r="D25" s="3">
         <v>0</v>
       </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H25" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1430,22 +1603,28 @@
       <c r="D26" s="3">
         <v>0</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1458,22 +1637,28 @@
       <c r="D27" s="3">
         <v>0</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1486,22 +1671,28 @@
       <c r="D28" s="3">
         <v>110</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
+        <v>197</v>
+      </c>
+      <c r="F28">
+        <v>106</v>
+      </c>
+      <c r="G28" s="3">
         <v>280</v>
       </c>
-      <c r="F28" s="3">
+      <c r="H28" s="3">
         <v>93</v>
       </c>
-      <c r="G28" s="3">
+      <c r="I28" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-83</v>
       </c>
-      <c r="H28" s="3">
+      <c r="J28" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1514,22 +1705,28 @@
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1542,22 +1739,28 @@
       <c r="D30" s="3">
         <v>208</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
+        <v>64</v>
+      </c>
+      <c r="F30">
+        <v>204</v>
+      </c>
+      <c r="G30" s="3">
         <v>50</v>
       </c>
-      <c r="F30" s="3">
+      <c r="H30" s="3">
         <v>213</v>
       </c>
-      <c r="G30" s="3">
+      <c r="I30" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>14</v>
       </c>
-      <c r="H30" s="3">
+      <c r="J30" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1570,22 +1773,28 @@
       <c r="D31" s="3">
         <v>190</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31">
+        <v>60</v>
+      </c>
+      <c r="F31">
+        <v>190</v>
+      </c>
+      <c r="G31" s="3">
         <v>50</v>
       </c>
-      <c r="F31" s="3">
+      <c r="H31" s="3">
         <v>197</v>
       </c>
-      <c r="G31" s="3">
+      <c r="I31" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>10</v>
       </c>
-      <c r="H31" s="3">
+      <c r="J31" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1598,22 +1807,28 @@
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1626,23 +1841,29 @@
       <c r="D33" s="3">
         <v>168</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33">
+        <v>180</v>
+      </c>
+      <c r="F33">
+        <v>166</v>
+      </c>
+      <c r="G33" s="3">
         <v>230</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <f>114.5+49.1</f>
         <v>163.6</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-50</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>4.4000000000000057</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1655,22 +1876,28 @@
       <c r="D34" s="3">
         <v>0</v>
       </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1683,22 +1910,28 @@
       <c r="D35" s="3">
         <v>0</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1711,22 +1944,28 @@
       <c r="D36" s="3">
         <v>0</v>
       </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H36" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1739,22 +1978,28 @@
       <c r="D37" s="3">
         <v>0</v>
       </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H37" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1767,22 +2012,28 @@
       <c r="D38" s="3">
         <v>0</v>
       </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H38" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1795,22 +2046,28 @@
       <c r="D39" s="3">
         <v>68</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39">
+        <v>547</v>
+      </c>
+      <c r="F39">
+        <v>64</v>
+      </c>
+      <c r="G39" s="3">
         <v>570</v>
       </c>
-      <c r="F39" s="3">
+      <c r="H39" s="3">
         <v>68</v>
       </c>
-      <c r="G39" s="3">
+      <c r="I39" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-31</v>
       </c>
-      <c r="H39" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J39" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1823,22 +2080,28 @@
       <c r="D40" s="3">
         <v>120</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40">
+        <v>340</v>
+      </c>
+      <c r="F40">
+        <v>118</v>
+      </c>
+      <c r="G40" s="3">
         <v>200</v>
       </c>
-      <c r="F40" s="3">
+      <c r="H40" s="3">
         <v>119</v>
       </c>
-      <c r="G40" s="3">
+      <c r="I40" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>140</v>
       </c>
-      <c r="H40" s="3">
+      <c r="J40" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -1851,22 +2114,28 @@
       <c r="D41" s="3">
         <v>148</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41">
+        <v>375</v>
+      </c>
+      <c r="F41">
+        <v>146</v>
+      </c>
+      <c r="G41" s="3">
         <v>320</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>162</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>55</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1879,23 +2148,29 @@
       <c r="D42" s="3">
         <v>118</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42">
+        <v>410</v>
+      </c>
+      <c r="F42">
+        <v>116</v>
+      </c>
+      <c r="G42" s="3">
         <v>330</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <f>53.8+86.8</f>
         <v>140.6</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>80</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-22.599999999999994</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1908,23 +2183,29 @@
       <c r="D43" s="3">
         <v>152</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43">
+        <v>205</v>
+      </c>
+      <c r="F43">
+        <v>148</v>
+      </c>
+      <c r="G43" s="3">
         <v>210</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <f>74.5+66.2</f>
         <v>140.69999999999999</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-5</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>11.300000000000011</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -1937,23 +2218,29 @@
       <c r="D44" s="3">
         <v>126</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44">
+        <v>198</v>
+      </c>
+      <c r="F44">
+        <v>124</v>
+      </c>
+      <c r="G44" s="3">
         <v>150</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <f>51.3+71.7</f>
         <v>123</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>48</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1966,22 +2253,28 @@
       <c r="D45" s="3">
         <v>156</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45">
+        <v>345</v>
+      </c>
+      <c r="F45">
+        <v>154</v>
+      </c>
+      <c r="G45" s="3">
         <v>290</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>161</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>55</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1994,22 +2287,28 @@
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -2022,22 +2321,28 @@
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -2050,22 +2355,28 @@
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -2078,22 +2389,28 @@
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -2106,22 +2423,28 @@
       <c r="D50" s="3">
         <v>110</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50">
+        <v>67</v>
+      </c>
+      <c r="F50">
+        <v>104</v>
+      </c>
+      <c r="G50" s="3">
         <v>80</v>
       </c>
-      <c r="F50" s="3">
+      <c r="H50" s="3">
         <v>92</v>
       </c>
-      <c r="G50" s="3">
+      <c r="I50" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-13</v>
       </c>
-      <c r="H50" s="3">
+      <c r="J50" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -2134,22 +2457,28 @@
       <c r="D51" s="3">
         <v>126</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51">
         <v>30</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51">
+        <v>122</v>
+      </c>
+      <c r="G51" s="3">
+        <v>30</v>
+      </c>
+      <c r="H51" s="3">
         <v>128</v>
       </c>
-      <c r="G51" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
+      <c r="I51" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -2162,22 +2491,28 @@
       <c r="D52" s="3">
         <v>104</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52">
+        <v>70</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>60</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>101</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>10</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -2190,22 +2525,28 @@
       <c r="D53" s="3">
         <v>96</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53">
+        <v>192</v>
+      </c>
+      <c r="F53">
+        <v>92</v>
+      </c>
+      <c r="G53" s="3">
         <v>300</v>
       </c>
-      <c r="F53" s="3">
+      <c r="H53" s="3">
         <v>91</v>
       </c>
-      <c r="G53" s="3">
+      <c r="I53" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-108</v>
       </c>
-      <c r="H53" s="3">
+      <c r="J53" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -2218,22 +2559,28 @@
       <c r="D54" s="3">
         <v>78</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54">
+        <v>443</v>
+      </c>
+      <c r="F54">
+        <v>74</v>
+      </c>
+      <c r="G54" s="3">
         <v>370</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>54</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>73</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -2246,22 +2593,28 @@
       <c r="D55" s="3">
         <v>104</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55">
+        <v>158</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="G55" s="3">
         <v>170</v>
       </c>
-      <c r="F55" s="3">
+      <c r="H55" s="3">
         <v>106</v>
       </c>
-      <c r="G55" s="3">
+      <c r="I55" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-12</v>
       </c>
-      <c r="H55" s="3">
+      <c r="J55" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -2274,22 +2627,28 @@
       <c r="D56" s="3">
         <v>98</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>96</v>
+      </c>
+      <c r="G56" s="3">
         <v>60</v>
       </c>
-      <c r="F56" s="3">
+      <c r="H56" s="3">
         <v>88</v>
       </c>
-      <c r="G56" s="3">
+      <c r="I56" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-50</v>
       </c>
-      <c r="H56" s="3">
+      <c r="J56" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2302,22 +2661,28 @@
       <c r="D57" s="3">
         <v>76</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57">
+        <v>189</v>
+      </c>
+      <c r="F57">
+        <v>74</v>
+      </c>
+      <c r="G57" s="3">
         <v>110</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>75</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>79</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2330,22 +2695,28 @@
       <c r="D58" s="3">
         <v>76</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58">
+        <v>337</v>
+      </c>
+      <c r="F58">
+        <v>76</v>
+      </c>
+      <c r="G58" s="3">
         <v>90</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>122</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>247</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-46</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -2358,22 +2729,28 @@
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2386,22 +2763,28 @@
       <c r="D60" s="3">
         <v>118</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60">
+        <v>477</v>
+      </c>
+      <c r="F60">
+        <v>114</v>
+      </c>
+      <c r="G60" s="3">
         <v>370</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>120</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>107</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -2414,22 +2797,28 @@
       <c r="D61" s="3">
         <v>128</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61">
+        <v>376</v>
+      </c>
+      <c r="F61">
+        <v>126</v>
+      </c>
+      <c r="G61" s="3">
         <v>370</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>124</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>6</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -2442,22 +2831,28 @@
       <c r="D62" s="3">
         <v>114</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62">
+        <v>262</v>
+      </c>
+      <c r="F62">
+        <v>110</v>
+      </c>
+      <c r="G62" s="3">
         <v>350</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>122</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-88</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2470,22 +2865,28 @@
       <c r="D63" s="3">
         <v>0</v>
       </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H63" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -2498,22 +2899,28 @@
       <c r="D64" s="3">
         <v>0</v>
       </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H64" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -2526,22 +2933,28 @@
       <c r="D65" s="3">
         <v>0</v>
       </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H65" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -2554,22 +2967,28 @@
       <c r="D66" s="3">
         <v>0</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -2582,22 +3001,28 @@
       <c r="D67" s="3">
         <v>0</v>
       </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H67" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -2610,22 +3035,28 @@
       <c r="D68" s="3">
         <v>0</v>
       </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
         <v>0</v>
       </c>
       <c r="G68" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H68" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -2638,22 +3069,28 @@
       <c r="D69" s="3">
         <v>0</v>
       </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
         <v>0</v>
       </c>
       <c r="G69" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H69" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -2666,22 +3103,28 @@
       <c r="D70" s="3">
         <v>0</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -2694,22 +3137,28 @@
       <c r="D71" s="3">
         <v>0</v>
       </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
         <v>0</v>
       </c>
       <c r="G71" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H71" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -2722,22 +3171,28 @@
       <c r="D72" s="3">
         <v>86</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72">
+        <v>149</v>
+      </c>
+      <c r="F72">
+        <v>86</v>
+      </c>
+      <c r="G72" s="3">
         <v>160</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>83</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-11</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -2750,22 +3205,28 @@
       <c r="D73" s="3">
         <v>104</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73">
+        <v>98</v>
+      </c>
+      <c r="F73">
+        <v>102</v>
+      </c>
+      <c r="G73" s="3">
         <v>130</v>
       </c>
-      <c r="F73" s="3">
+      <c r="H73" s="3">
         <v>99</v>
       </c>
-      <c r="G73" s="3">
+      <c r="I73" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-32</v>
       </c>
-      <c r="H73" s="3">
+      <c r="J73" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -2778,22 +3239,28 @@
       <c r="D74" s="3">
         <v>116</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74">
+        <v>160</v>
+      </c>
+      <c r="F74">
+        <v>116</v>
+      </c>
+      <c r="G74" s="3">
         <v>150</v>
       </c>
-      <c r="F74" s="3">
+      <c r="H74" s="3">
         <v>121</v>
       </c>
-      <c r="G74" s="3">
+      <c r="I74" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>10</v>
       </c>
-      <c r="H74" s="3">
+      <c r="J74" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-5</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -2806,22 +3273,28 @@
       <c r="D75" s="3">
         <v>172</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75">
+        <v>89</v>
+      </c>
+      <c r="F75">
+        <v>168</v>
+      </c>
+      <c r="G75" s="3">
         <v>120</v>
       </c>
-      <c r="F75" s="3">
+      <c r="H75" s="3">
         <v>205</v>
       </c>
-      <c r="G75" s="3">
+      <c r="I75" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-31</v>
       </c>
-      <c r="H75" s="3">
+      <c r="J75" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-33</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -2834,22 +3307,28 @@
       <c r="D76" s="3">
         <v>0</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -2862,22 +3341,28 @@
       <c r="D77" s="3">
         <v>0</v>
       </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
         <v>0</v>
       </c>
       <c r="G77" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H77" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -2890,22 +3375,28 @@
       <c r="D78" s="3">
         <v>98</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78">
+        <v>122</v>
+      </c>
+      <c r="F78">
+        <v>94</v>
+      </c>
+      <c r="G78" s="3">
         <v>150</v>
       </c>
-      <c r="F78" s="3">
+      <c r="H78" s="3">
         <v>98</v>
       </c>
-      <c r="G78" s="3">
+      <c r="I78" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-28</v>
       </c>
-      <c r="H78" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J78" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -2918,22 +3409,28 @@
       <c r="D79" s="3">
         <v>0</v>
       </c>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
         <v>0</v>
       </c>
       <c r="G79" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H79" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>41</v>
       </c>
@@ -2946,22 +3443,28 @@
       <c r="D80" s="3">
         <v>0</v>
       </c>
-      <c r="E80" s="3">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3">
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
         <v>0</v>
       </c>
       <c r="G80" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H80" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -2974,22 +3477,28 @@
       <c r="D81" s="3">
         <v>0</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -3002,22 +3511,28 @@
       <c r="D82" s="3">
         <v>0</v>
       </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>0</v>
       </c>
       <c r="G82" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H82" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -3030,22 +3545,28 @@
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -3058,22 +3579,28 @@
       <c r="D84" s="3">
         <v>166</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84">
+        <v>354</v>
+      </c>
+      <c r="F84">
+        <v>164</v>
+      </c>
+      <c r="G84" s="3">
         <v>140</v>
       </c>
-      <c r="F84" s="3">
+      <c r="H84" s="3">
         <v>199</v>
       </c>
-      <c r="G84" s="3">
+      <c r="I84" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>23</v>
       </c>
-      <c r="H84" s="3">
+      <c r="J84" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-33</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>44</v>
       </c>
@@ -3086,22 +3613,28 @@
       <c r="D85" s="3">
         <v>0</v>
       </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H85" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>44</v>
       </c>
@@ -3114,22 +3647,28 @@
       <c r="D86" s="3">
         <v>0</v>
       </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
         <v>0</v>
       </c>
       <c r="G86" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H86" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -3142,22 +3681,28 @@
       <c r="D87" s="3">
         <v>0</v>
       </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H87" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -3170,22 +3715,28 @@
       <c r="D88" s="3">
         <v>0</v>
       </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3">
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H88" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -3198,22 +3749,28 @@
       <c r="D89" s="3">
         <v>0</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>44</v>
       </c>
@@ -3226,22 +3783,28 @@
       <c r="D90" s="3">
         <v>0</v>
       </c>
-      <c r="E90" s="3">
-        <v>0</v>
-      </c>
-      <c r="F90" s="3">
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
         <v>0</v>
       </c>
       <c r="G90" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H90" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -3254,22 +3817,28 @@
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>44</v>
       </c>
@@ -3282,22 +3851,28 @@
       <c r="D92" s="3">
         <v>0</v>
       </c>
-      <c r="E92" s="3">
-        <v>0</v>
-      </c>
-      <c r="F92" s="3">
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
         <v>0</v>
       </c>
       <c r="G92" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H92" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>44</v>
       </c>
@@ -3310,22 +3885,28 @@
       <c r="D93" s="3">
         <v>186</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93">
+        <v>218</v>
+      </c>
+      <c r="F93">
+        <v>186</v>
+      </c>
+      <c r="G93" s="3">
         <v>200</v>
       </c>
-      <c r="F93" s="3">
+      <c r="H93" s="3">
         <v>210</v>
       </c>
-      <c r="G93" s="3">
+      <c r="I93" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>18</v>
       </c>
-      <c r="H93" s="3">
+      <c r="J93" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-24</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>44</v>
       </c>
@@ -3338,22 +3919,28 @@
       <c r="D94" s="3">
         <v>204</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94">
+        <v>134</v>
+      </c>
+      <c r="F94">
+        <v>202</v>
+      </c>
+      <c r="G94" s="3">
         <v>110</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>195</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>24</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>44</v>
       </c>
@@ -3366,22 +3953,28 @@
       <c r="D95" s="3">
         <v>188</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95">
+        <v>172</v>
+      </c>
+      <c r="F95">
+        <v>184</v>
+      </c>
+      <c r="G95" s="3">
         <v>160</v>
       </c>
-      <c r="F95" s="3">
+      <c r="H95" s="3">
         <v>195</v>
       </c>
-      <c r="G95" s="3">
+      <c r="I95" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>12</v>
       </c>
-      <c r="H95" s="3">
+      <c r="J95" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-7</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>44</v>
       </c>
@@ -3394,22 +3987,28 @@
       <c r="D96" s="3">
         <v>202</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96">
+        <v>156</v>
+      </c>
+      <c r="F96">
+        <v>200</v>
+      </c>
+      <c r="G96" s="3">
         <v>160</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>203</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-4</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>44</v>
       </c>
@@ -3422,22 +4021,28 @@
       <c r="D97" s="3">
         <v>128</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97">
+        <v>250</v>
+      </c>
+      <c r="F97">
+        <v>126</v>
+      </c>
+      <c r="G97" s="3">
         <v>210</v>
       </c>
-      <c r="F97" s="3">
+      <c r="H97" s="3">
         <v>123</v>
       </c>
-      <c r="G97" s="3">
+      <c r="I97" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>40</v>
       </c>
-      <c r="H97" s="3">
+      <c r="J97" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -3450,22 +4055,28 @@
       <c r="D98" s="3">
         <v>0</v>
       </c>
-      <c r="E98" s="3">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3">
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
         <v>0</v>
       </c>
       <c r="G98" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H98" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I98" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>46</v>
       </c>
@@ -3478,22 +4089,28 @@
       <c r="D99" s="3">
         <v>0</v>
       </c>
-      <c r="E99" s="3">
-        <v>0</v>
-      </c>
-      <c r="F99" s="3">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
         <v>0</v>
       </c>
       <c r="G99" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H99" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I99" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>46</v>
       </c>
@@ -3506,22 +4123,28 @@
       <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>46</v>
       </c>
@@ -3534,22 +4157,28 @@
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>46</v>
       </c>
@@ -3562,22 +4191,28 @@
       <c r="D102" s="3">
         <v>0</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>48</v>
       </c>
@@ -3590,22 +4225,28 @@
       <c r="D103" s="3">
         <v>0</v>
       </c>
-      <c r="E103" s="3">
-        <v>0</v>
-      </c>
-      <c r="F103" s="3">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
         <v>0</v>
       </c>
       <c r="G103" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H103" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I103" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -3618,22 +4259,28 @@
       <c r="D104" s="3">
         <v>88</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104">
+        <v>108</v>
+      </c>
+      <c r="F104">
+        <v>86</v>
+      </c>
+      <c r="G104" s="3">
         <v>160</v>
       </c>
-      <c r="F104" s="3">
+      <c r="H104" s="3">
         <v>103</v>
       </c>
-      <c r="G104" s="3">
+      <c r="I104" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-52</v>
       </c>
-      <c r="H104" s="3">
+      <c r="J104" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-15</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>48</v>
       </c>
@@ -3646,22 +4293,28 @@
       <c r="D105" s="3">
         <v>0</v>
       </c>
-      <c r="E105" s="3">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3">
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
         <v>0</v>
       </c>
       <c r="G105" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H105" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I105" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>48</v>
       </c>
@@ -3674,22 +4327,28 @@
       <c r="D106" s="3">
         <v>92</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106">
+        <v>189</v>
+      </c>
+      <c r="F106">
+        <v>90</v>
+      </c>
+      <c r="G106" s="3">
         <v>140</v>
       </c>
-      <c r="F106" s="3">
+      <c r="H106" s="3">
         <v>98</v>
       </c>
-      <c r="G106" s="3">
+      <c r="I106" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>49</v>
       </c>
-      <c r="H106" s="3">
+      <c r="J106" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-6</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>48</v>
       </c>
@@ -3702,22 +4361,28 @@
       <c r="D107" s="3">
         <v>186</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107">
+        <v>202</v>
+      </c>
+      <c r="F107">
+        <v>184</v>
+      </c>
+      <c r="G107" s="3">
         <v>150</v>
       </c>
-      <c r="F107" s="3">
+      <c r="H107" s="3">
         <v>147</v>
       </c>
-      <c r="G107" s="3">
+      <c r="I107" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>52</v>
       </c>
-      <c r="H107" s="3">
+      <c r="J107" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -3730,22 +4395,28 @@
       <c r="D108" s="3">
         <v>164</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108">
+        <v>112</v>
+      </c>
+      <c r="F108">
+        <v>162</v>
+      </c>
+      <c r="G108" s="3">
         <v>110</v>
       </c>
-      <c r="F108" s="3">
+      <c r="H108" s="3">
         <v>83</v>
       </c>
-      <c r="G108" s="3">
+      <c r="I108" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>2</v>
       </c>
-      <c r="H108" s="3">
+      <c r="J108" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>48</v>
       </c>
@@ -3758,22 +4429,28 @@
       <c r="D109" s="3">
         <v>148</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109">
+        <v>168</v>
+      </c>
+      <c r="F109">
+        <v>144</v>
+      </c>
+      <c r="G109" s="3">
         <v>200</v>
       </c>
-      <c r="F109" s="3">
+      <c r="H109" s="3">
         <v>149</v>
       </c>
-      <c r="G109" s="3">
+      <c r="I109" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-32</v>
       </c>
-      <c r="H109" s="3">
+      <c r="J109" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>48</v>
       </c>
@@ -3786,22 +4463,28 @@
       <c r="D110" s="3">
         <v>214</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110">
+        <v>121</v>
+      </c>
+      <c r="F110">
+        <v>212</v>
+      </c>
+      <c r="G110" s="3">
         <v>60</v>
       </c>
-      <c r="F110" s="3">
+      <c r="H110" s="3">
         <v>230</v>
       </c>
-      <c r="G110" s="3">
+      <c r="I110" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>61</v>
       </c>
-      <c r="H110" s="3">
+      <c r="J110" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-16</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>48</v>
       </c>
@@ -3814,22 +4497,28 @@
       <c r="D111" s="3">
         <v>0</v>
       </c>
-      <c r="E111" s="3">
-        <v>0</v>
-      </c>
-      <c r="F111" s="3">
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
         <v>0</v>
       </c>
       <c r="G111" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H111" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I111" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>48</v>
       </c>
@@ -3842,22 +4531,28 @@
       <c r="D112" s="3">
         <v>34</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112">
+        <v>124</v>
+      </c>
+      <c r="F112">
+        <v>32</v>
+      </c>
+      <c r="G112" s="3">
         <v>680</v>
       </c>
-      <c r="F112" s="3">
+      <c r="H112" s="3">
         <v>30</v>
       </c>
-      <c r="G112" s="3">
+      <c r="I112" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-556</v>
       </c>
-      <c r="H112" s="3">
+      <c r="J112" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>48</v>
       </c>
@@ -3870,22 +4565,28 @@
       <c r="D113" s="3">
         <v>0</v>
       </c>
-      <c r="E113" s="3">
-        <v>0</v>
-      </c>
-      <c r="F113" s="3">
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
         <v>0</v>
       </c>
       <c r="G113" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H113" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>48</v>
       </c>
@@ -3898,22 +4599,28 @@
       <c r="D114" s="3">
         <v>122</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114">
+        <v>279</v>
+      </c>
+      <c r="F114">
+        <v>116</v>
+      </c>
+      <c r="G114" s="3">
         <v>180</v>
       </c>
-      <c r="F114" s="3">
+      <c r="H114" s="3">
         <v>128</v>
       </c>
-      <c r="G114" s="3">
+      <c r="I114" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>99</v>
       </c>
-      <c r="H114" s="3">
+      <c r="J114" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-6</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>51</v>
       </c>
@@ -3926,22 +4633,28 @@
       <c r="D115" s="3">
         <v>0</v>
       </c>
-      <c r="E115" s="3">
-        <v>0</v>
-      </c>
-      <c r="F115" s="3">
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
         <v>0</v>
       </c>
       <c r="G115" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H115" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I115" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>51</v>
       </c>
@@ -3954,22 +4667,28 @@
       <c r="D116" s="3">
         <v>0</v>
       </c>
-      <c r="E116" s="3">
-        <v>0</v>
-      </c>
-      <c r="F116" s="3">
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
         <v>0</v>
       </c>
       <c r="G116" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H116" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I116" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>51</v>
       </c>
@@ -3982,22 +4701,28 @@
       <c r="D117" s="3">
         <v>0</v>
       </c>
-      <c r="E117" s="3">
-        <v>0</v>
-      </c>
-      <c r="F117" s="3">
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
         <v>0</v>
       </c>
       <c r="G117" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H117" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I117" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>51</v>
       </c>
@@ -4010,22 +4735,28 @@
       <c r="D118" s="3">
         <v>0</v>
       </c>
-      <c r="E118" s="3">
-        <v>0</v>
-      </c>
-      <c r="F118" s="3">
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
         <v>0</v>
       </c>
       <c r="G118" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H118" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I118" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>51</v>
       </c>
@@ -4038,22 +4769,28 @@
       <c r="D119" s="3">
         <v>0</v>
       </c>
-      <c r="E119" s="3">
-        <v>0</v>
-      </c>
-      <c r="F119" s="3">
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
         <v>0</v>
       </c>
       <c r="G119" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H119" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I119" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J119" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>51</v>
       </c>
@@ -4066,22 +4803,28 @@
       <c r="D120" s="3">
         <v>166</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120">
+        <v>126</v>
+      </c>
+      <c r="F120">
+        <v>162</v>
+      </c>
+      <c r="G120" s="3">
         <v>150</v>
       </c>
-      <c r="F120" s="3">
+      <c r="H120" s="3">
         <v>142</v>
       </c>
-      <c r="G120" s="3">
+      <c r="I120" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-24</v>
       </c>
-      <c r="H120" s="3">
+      <c r="J120" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>51</v>
       </c>
@@ -4094,22 +4837,28 @@
       <c r="D121" s="3">
         <v>114</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121">
+        <v>184</v>
+      </c>
+      <c r="F121">
+        <v>110</v>
+      </c>
+      <c r="G121" s="3">
         <v>140</v>
       </c>
-      <c r="F121" s="3">
+      <c r="H121" s="3">
         <v>91</v>
       </c>
-      <c r="G121" s="3">
+      <c r="I121" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>44</v>
       </c>
-      <c r="H121" s="3">
+      <c r="J121" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>51</v>
       </c>
@@ -4122,22 +4871,28 @@
       <c r="D122" s="3">
         <v>68</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122">
+        <v>260</v>
+      </c>
+      <c r="F122">
+        <v>66</v>
+      </c>
+      <c r="G122" s="3">
         <v>180</v>
       </c>
-      <c r="F122" s="3">
+      <c r="H122" s="3">
         <v>72</v>
       </c>
-      <c r="G122" s="3">
+      <c r="I122" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>80</v>
       </c>
-      <c r="H122" s="3">
+      <c r="J122" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-4</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>51</v>
       </c>
@@ -4150,22 +4905,28 @@
       <c r="D123" s="3">
         <v>94</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123">
+        <v>198</v>
+      </c>
+      <c r="F123">
+        <v>90</v>
+      </c>
+      <c r="G123" s="3">
         <v>190</v>
       </c>
-      <c r="F123" s="3">
+      <c r="H123" s="3">
         <v>88</v>
       </c>
-      <c r="G123" s="3">
+      <c r="I123" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>8</v>
       </c>
-      <c r="H123" s="3">
+      <c r="J123" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>51</v>
       </c>
@@ -4178,22 +4939,28 @@
       <c r="D124" s="3">
         <v>118</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124">
+        <v>197</v>
+      </c>
+      <c r="F124">
+        <v>118</v>
+      </c>
+      <c r="G124" s="3">
         <v>180</v>
       </c>
-      <c r="F124" s="3">
+      <c r="H124" s="3">
         <v>71</v>
       </c>
-      <c r="G124" s="3">
+      <c r="I124" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>17</v>
       </c>
-      <c r="H124" s="3">
+      <c r="J124" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>47</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>51</v>
       </c>
@@ -4206,22 +4973,28 @@
       <c r="D125" s="3">
         <v>20</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125">
+        <v>613</v>
+      </c>
+      <c r="F125">
+        <v>18</v>
+      </c>
+      <c r="G125" s="3">
         <v>300</v>
       </c>
-      <c r="F125" s="3">
+      <c r="H125" s="3">
         <v>23</v>
       </c>
-      <c r="G125" s="3">
+      <c r="I125" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>313</v>
       </c>
-      <c r="H125" s="3">
+      <c r="J125" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>51</v>
       </c>
@@ -4234,22 +5007,28 @@
       <c r="D126" s="3">
         <v>0</v>
       </c>
-      <c r="E126" s="3">
-        <v>0</v>
-      </c>
-      <c r="F126" s="3">
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
         <v>0</v>
       </c>
       <c r="G126" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H126" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I126" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J126" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>54</v>
       </c>
@@ -4262,23 +5041,29 @@
       <c r="D127" s="3">
         <v>246</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127">
+        <v>33</v>
+      </c>
+      <c r="F127">
+        <v>240</v>
+      </c>
+      <c r="G127" s="3">
         <v>30</v>
       </c>
-      <c r="F127" s="3">
+      <c r="H127" s="3">
         <f>105.8+115.3</f>
         <v>221.1</v>
       </c>
-      <c r="G127" s="3">
+      <c r="I127" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-8</v>
       </c>
-      <c r="H127" s="3">
+      <c r="J127" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>24.900000000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>54</v>
       </c>
@@ -4291,22 +5076,28 @@
       <c r="D128" s="3">
         <v>0</v>
       </c>
-      <c r="E128" s="3">
-        <v>0</v>
-      </c>
-      <c r="F128" s="3">
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
         <v>0</v>
       </c>
       <c r="G128" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H128" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I128" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J128" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>54</v>
       </c>
@@ -4319,22 +5110,28 @@
       <c r="D129" s="3">
         <v>56</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129">
+        <v>239</v>
+      </c>
+      <c r="F129">
+        <v>56</v>
+      </c>
+      <c r="G129" s="3">
         <v>170</v>
       </c>
-      <c r="F129" s="3">
+      <c r="H129" s="3">
         <v>48</v>
       </c>
-      <c r="G129" s="3">
+      <c r="I129" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-62</v>
       </c>
-      <c r="H129" s="3">
+      <c r="J129" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>54</v>
       </c>
@@ -4347,22 +5144,28 @@
       <c r="D130" s="3">
         <v>190</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130">
+        <v>15</v>
+      </c>
+      <c r="F130">
+        <v>186</v>
+      </c>
+      <c r="G130" s="3">
         <v>60</v>
       </c>
-      <c r="F130" s="3">
+      <c r="H130" s="3">
         <v>218</v>
       </c>
-      <c r="G130" s="3">
+      <c r="I130" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-50</v>
       </c>
-      <c r="H130" s="3">
+      <c r="J130" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-28</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>54</v>
       </c>
@@ -4375,22 +5178,28 @@
       <c r="D131" s="3">
         <v>360</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131">
+        <v>74</v>
+      </c>
+      <c r="F131">
+        <v>360</v>
+      </c>
+      <c r="G131" s="3">
         <v>110</v>
       </c>
-      <c r="F131" s="3">
+      <c r="H131" s="3">
         <v>360</v>
       </c>
-      <c r="G131" s="3">
+      <c r="I131" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-80</v>
       </c>
-      <c r="H131" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J131" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>54</v>
       </c>
@@ -4403,23 +5212,29 @@
       <c r="D132" s="3">
         <v>314</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132">
+        <v>198</v>
+      </c>
+      <c r="F132">
+        <v>310</v>
+      </c>
+      <c r="G132" s="3">
         <v>110</v>
       </c>
-      <c r="F132" s="3">
+      <c r="H132" s="3">
         <f>112.9+120.6</f>
         <v>233.5</v>
       </c>
-      <c r="G132" s="3">
+      <c r="I132" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-24</v>
       </c>
-      <c r="H132" s="3">
+      <c r="J132" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>80.5</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>54</v>
       </c>
@@ -4432,22 +5247,28 @@
       <c r="D133" s="3">
         <v>106</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133">
+        <v>126</v>
+      </c>
+      <c r="F133">
+        <v>106</v>
+      </c>
+      <c r="G133" s="3">
         <v>110</v>
       </c>
-      <c r="F133" s="3">
+      <c r="H133" s="3">
         <v>114</v>
       </c>
-      <c r="G133" s="3">
+      <c r="I133" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-47</v>
       </c>
-      <c r="H133" s="3">
+      <c r="J133" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>54</v>
       </c>
@@ -4460,22 +5281,28 @@
       <c r="D134" s="3">
         <v>136</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134">
+        <v>179</v>
+      </c>
+      <c r="F134">
+        <v>132</v>
+      </c>
+      <c r="G134" s="3">
         <v>80</v>
       </c>
-      <c r="F134" s="3">
+      <c r="H134" s="3">
         <v>139</v>
       </c>
-      <c r="G134" s="3">
+      <c r="I134" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>2</v>
       </c>
-      <c r="H134" s="3">
+      <c r="J134" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>54</v>
       </c>
@@ -4488,22 +5315,28 @@
       <c r="D135" s="3">
         <v>96</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135">
+        <v>250</v>
+      </c>
+      <c r="F135">
+        <v>94</v>
+      </c>
+      <c r="G135" s="3">
         <v>110</v>
       </c>
-      <c r="F135" s="3">
+      <c r="H135" s="3">
         <v>102</v>
       </c>
-      <c r="G135" s="3">
+      <c r="I135" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>10</v>
       </c>
-      <c r="H135" s="3">
+      <c r="J135" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-6</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>54</v>
       </c>
@@ -4516,22 +5349,28 @@
       <c r="D136" s="3">
         <v>212</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136">
+        <v>196</v>
+      </c>
+      <c r="F136">
+        <v>208</v>
+      </c>
+      <c r="G136" s="3">
         <v>80</v>
       </c>
-      <c r="F136" s="3">
+      <c r="H136" s="3">
         <v>200</v>
       </c>
-      <c r="G136" s="3">
+      <c r="I136" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>12</v>
       </c>
-      <c r="H136" s="3">
+      <c r="J136" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>54</v>
       </c>
@@ -4544,22 +5383,28 @@
       <c r="D137" s="3">
         <v>0</v>
       </c>
-      <c r="E137" s="3">
-        <v>0</v>
-      </c>
-      <c r="F137" s="3">
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
         <v>0</v>
       </c>
       <c r="G137" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H137" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I137" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J137" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>54</v>
       </c>
@@ -4572,22 +5417,28 @@
       <c r="D138" s="3">
         <v>84</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138">
+        <v>257</v>
+      </c>
+      <c r="F138">
+        <v>84</v>
+      </c>
+      <c r="G138" s="3">
         <v>150</v>
       </c>
-      <c r="F138" s="3">
+      <c r="H138" s="3">
         <v>89</v>
       </c>
-      <c r="G138" s="3">
+      <c r="I138" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-26</v>
       </c>
-      <c r="H138" s="3">
+      <c r="J138" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-5</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>54</v>
       </c>
@@ -4600,22 +5451,28 @@
       <c r="D139" s="3">
         <v>98</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139">
+        <v>188</v>
+      </c>
+      <c r="F139">
+        <v>96</v>
+      </c>
+      <c r="G139" s="3">
         <v>110</v>
       </c>
-      <c r="F139" s="3">
+      <c r="H139" s="3">
         <v>82</v>
       </c>
-      <c r="G139" s="3">
+      <c r="I139" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-24</v>
       </c>
-      <c r="H139" s="3">
+      <c r="J139" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>54</v>
       </c>
@@ -4628,22 +5485,28 @@
       <c r="D140" s="3">
         <v>58</v>
       </c>
-      <c r="E140" s="3">
-        <v>0</v>
-      </c>
-      <c r="F140" s="3">
-        <v>0</v>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>56</v>
       </c>
       <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="3">
+        <v>0</v>
+      </c>
+      <c r="I140" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>57</v>
       </c>
-      <c r="H140" s="3">
+      <c r="J140" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>56</v>
       </c>
@@ -4656,22 +5519,28 @@
       <c r="D141" s="3">
         <v>0</v>
       </c>
-      <c r="E141" s="3">
-        <v>0</v>
-      </c>
-      <c r="F141" s="3">
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
         <v>0</v>
       </c>
       <c r="G141" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H141" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I141" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J141" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>56</v>
       </c>
@@ -4684,22 +5553,28 @@
       <c r="D142" s="3">
         <v>0</v>
       </c>
-      <c r="E142" s="3">
-        <v>0</v>
-      </c>
-      <c r="F142" s="3">
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
         <v>0</v>
       </c>
       <c r="G142" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H142" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I142" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J142" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>56</v>
       </c>
@@ -4712,22 +5587,28 @@
       <c r="D143" s="3">
         <v>0</v>
       </c>
-      <c r="E143" s="3">
-        <v>0</v>
-      </c>
-      <c r="F143" s="3">
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
         <v>0</v>
       </c>
       <c r="G143" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H143" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I143" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J143" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>56</v>
       </c>
@@ -4740,22 +5621,28 @@
       <c r="D144" s="3">
         <v>0</v>
       </c>
-      <c r="E144" s="3">
-        <v>0</v>
-      </c>
-      <c r="F144" s="3">
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
         <v>0</v>
       </c>
       <c r="G144" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H144" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I144" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J144" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>56</v>
       </c>
@@ -4768,22 +5655,28 @@
       <c r="D145" s="3">
         <v>0</v>
       </c>
-      <c r="E145" s="3">
-        <v>0</v>
-      </c>
-      <c r="F145" s="3">
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
         <v>0</v>
       </c>
       <c r="G145" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H145" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I145" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J145" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>56</v>
       </c>
@@ -4796,22 +5689,28 @@
       <c r="D146" s="3">
         <v>0</v>
       </c>
-      <c r="E146" s="3">
-        <v>0</v>
-      </c>
-      <c r="F146" s="3">
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
         <v>0</v>
       </c>
       <c r="G146" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H146" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I146" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J146" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>56</v>
       </c>
@@ -4824,22 +5723,28 @@
       <c r="D147" s="3">
         <v>0</v>
       </c>
-      <c r="E147" s="3">
-        <v>0</v>
-      </c>
-      <c r="F147" s="3">
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
         <v>0</v>
       </c>
       <c r="G147" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H147" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I147" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J147" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>56</v>
       </c>
@@ -4852,22 +5757,28 @@
       <c r="D148" s="3">
         <v>0</v>
       </c>
-      <c r="E148" s="3">
-        <v>0</v>
-      </c>
-      <c r="F148" s="3">
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
         <v>0</v>
       </c>
       <c r="G148" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H148" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I148" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J148" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>56</v>
       </c>
@@ -4880,22 +5791,28 @@
       <c r="D149" s="3">
         <v>0</v>
       </c>
-      <c r="E149" s="3">
-        <v>0</v>
-      </c>
-      <c r="F149" s="3">
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
         <v>0</v>
       </c>
       <c r="G149" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H149" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I149" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J149" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>56</v>
       </c>
@@ -4908,22 +5825,28 @@
       <c r="D150" s="3">
         <v>0</v>
       </c>
-      <c r="E150" s="3">
-        <v>0</v>
-      </c>
-      <c r="F150" s="3">
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
         <v>0</v>
       </c>
       <c r="G150" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H150" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I150" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J150" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>56</v>
       </c>
@@ -4936,22 +5859,28 @@
       <c r="D151" s="3">
         <v>0</v>
       </c>
-      <c r="E151" s="3">
-        <v>0</v>
-      </c>
-      <c r="F151" s="3">
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
         <v>0</v>
       </c>
       <c r="G151" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H151" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I151" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J151" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>56</v>
       </c>
@@ -4964,22 +5893,28 @@
       <c r="D152" s="3">
         <v>0</v>
       </c>
-      <c r="E152" s="3">
-        <v>0</v>
-      </c>
-      <c r="F152" s="3">
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
         <v>0</v>
       </c>
       <c r="G152" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H152" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I152" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J152" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>56</v>
       </c>
@@ -4992,22 +5927,28 @@
       <c r="D153" s="3">
         <v>0</v>
       </c>
-      <c r="E153" s="3">
-        <v>0</v>
-      </c>
-      <c r="F153" s="3">
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
         <v>0</v>
       </c>
       <c r="G153" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H153" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I153" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J153" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>56</v>
       </c>
@@ -5020,22 +5961,28 @@
       <c r="D154" s="3">
         <v>0</v>
       </c>
-      <c r="E154" s="3">
-        <v>0</v>
-      </c>
-      <c r="F154" s="3">
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
         <v>0</v>
       </c>
       <c r="G154" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H154" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I154" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J154" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>56</v>
       </c>
@@ -5048,22 +5995,28 @@
       <c r="D155" s="3">
         <v>0</v>
       </c>
-      <c r="E155" s="3">
-        <v>0</v>
-      </c>
-      <c r="F155" s="3">
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
         <v>0</v>
       </c>
       <c r="G155" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H155" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I155" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J155" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>56</v>
       </c>
@@ -5076,22 +6029,28 @@
       <c r="D156" s="3">
         <v>96</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156">
+        <v>364</v>
+      </c>
+      <c r="F156">
+        <v>94</v>
+      </c>
+      <c r="G156" s="3">
         <v>120</v>
       </c>
-      <c r="F156" s="3">
+      <c r="H156" s="3">
         <v>105</v>
       </c>
-      <c r="G156" s="3">
+      <c r="I156" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>50</v>
       </c>
-      <c r="H156" s="3">
+      <c r="J156" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-9</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>56</v>
       </c>
@@ -5104,22 +6063,28 @@
       <c r="D157" s="3">
         <v>132</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157">
+        <v>310</v>
+      </c>
+      <c r="F157">
+        <v>128</v>
+      </c>
+      <c r="G157" s="3">
         <v>230</v>
       </c>
-      <c r="F157" s="3">
+      <c r="H157" s="3">
         <v>128</v>
       </c>
-      <c r="G157" s="3">
+      <c r="I157" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-88</v>
       </c>
-      <c r="H157" s="3">
+      <c r="J157" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>56</v>
       </c>
@@ -5132,22 +6097,28 @@
       <c r="D158" s="3">
         <v>140</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158">
+        <v>15</v>
+      </c>
+      <c r="F158">
+        <v>138</v>
+      </c>
+      <c r="G158" s="3">
         <v>140</v>
       </c>
-      <c r="F158" s="3">
+      <c r="H158" s="3">
         <v>123</v>
       </c>
-      <c r="G158" s="3">
+      <c r="I158" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-140</v>
       </c>
-      <c r="H158" s="3">
+      <c r="J158" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>56</v>
       </c>
@@ -5160,22 +6131,28 @@
       <c r="D159" s="3">
         <v>102</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159">
+        <v>500</v>
+      </c>
+      <c r="F159">
+        <v>98</v>
+      </c>
+      <c r="G159" s="3">
         <v>210</v>
       </c>
-      <c r="F159" s="3">
+      <c r="H159" s="3">
         <v>87</v>
       </c>
-      <c r="G159" s="3">
+      <c r="I159" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>17</v>
       </c>
-      <c r="H159" s="3">
+      <c r="J159" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>56</v>
       </c>
@@ -5188,22 +6165,28 @@
       <c r="D160" s="3">
         <v>0</v>
       </c>
-      <c r="E160" s="3">
-        <v>0</v>
-      </c>
-      <c r="F160" s="3">
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
         <v>0</v>
       </c>
       <c r="G160" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H160" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I160" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J160" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>56</v>
       </c>
@@ -5216,22 +6199,28 @@
       <c r="D161" s="3">
         <v>64</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E161">
+        <v>677</v>
+      </c>
+      <c r="F161">
+        <v>64</v>
+      </c>
+      <c r="G161" s="3">
         <v>380</v>
       </c>
-      <c r="F161" s="3">
+      <c r="H161" s="3">
         <v>59</v>
       </c>
-      <c r="G161" s="3">
+      <c r="I161" s="3">
         <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-67</v>
       </c>
-      <c r="H161" s="3">
+      <c r="J161" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>56</v>
       </c>
@@ -5244,22 +6233,28 @@
       <c r="D162" s="3">
         <v>0</v>
       </c>
-      <c r="E162" s="3">
-        <v>0</v>
-      </c>
-      <c r="F162" s="3">
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
         <v>0</v>
       </c>
       <c r="G162" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H162" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I162" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J162" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>56</v>
       </c>
@@ -5272,22 +6267,29 @@
       <c r="D163" s="3">
         <v>0</v>
       </c>
-      <c r="E163" s="3">
-        <v>0</v>
-      </c>
-      <c r="F163" s="3">
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
         <v>0</v>
       </c>
       <c r="G163" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="H163" s="3">
+        <v>0</v>
+      </c>
+      <c r="I163" s="3">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J163" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/code/count-distributions/manual_vs_automatic_fct_arc.xlsx
+++ b/code/count-distributions/manual_vs_automatic_fct_arc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\code\count-distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CFE52C-3B51-4452-B846-C44609F41E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F308CB4-89EA-48F4-A1F3-602917825124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="77">
   <si>
     <t>pullback</t>
   </si>
@@ -221,34 +221,49 @@
     <t>50</t>
   </si>
   <si>
-    <t>Difference lipid arc</t>
-  </si>
-  <si>
     <t>FCT manual</t>
   </si>
   <si>
     <t>Lipid arc manual</t>
   </si>
   <si>
-    <t>FCT automatic</t>
-  </si>
-  <si>
-    <t>Lipid arc automatic</t>
-  </si>
-  <si>
-    <t>Difference FCT</t>
-  </si>
-  <si>
     <t>Observation</t>
-  </si>
-  <si>
-    <t>Detects sidebranch as lipid</t>
   </si>
   <si>
     <t>FCT automatic v2</t>
   </si>
   <si>
     <t>Lipid arc automatic v2</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>FCT model 3 2D v2</t>
+  </si>
+  <si>
+    <t>Lipid arc model 3 2D v2</t>
+  </si>
+  <si>
+    <t>Difference FCT (manual segs)</t>
+  </si>
+  <si>
+    <t>Difference lipid arc (manual segs)</t>
+  </si>
+  <si>
+    <t>Difference FCT (model 3 2D)</t>
+  </si>
+  <si>
+    <t>Difference lipid arc (model 3 2D)</t>
+  </si>
+  <si>
+    <t>False Positive</t>
+  </si>
+  <si>
+    <t>False Negative</t>
+  </si>
+  <si>
+    <t>False Positive (super tiny detected lipid)</t>
   </si>
 </sst>
 </file>
@@ -332,7 +347,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -406,26 +421,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{627F69A6-40FB-4B8F-B019-968DD6D0195F}" name="Table1" displayName="Table1" ref="A1:K163" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:K163" xr:uid="{627F69A6-40FB-4B8F-B019-968DD6D0195F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{627F69A6-40FB-4B8F-B019-968DD6D0195F}" name="Table1" displayName="Table1" ref="A1:M163" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:M163" xr:uid="{627F69A6-40FB-4B8F-B019-968DD6D0195F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B163">
     <sortCondition ref="A2:A163"/>
     <sortCondition ref="B2:B163"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="13">
     <tableColumn id="2" xr3:uid="{2C0E160C-6798-4885-8731-C625EA9FCD7D}" name="pullback"/>
     <tableColumn id="3" xr3:uid="{44E5B83C-AD90-4B86-865E-DC4CCE862E5A}" name="frame"/>
-    <tableColumn id="19" xr3:uid="{CDBCD10C-1914-442A-AFDB-FBA699E3241E}" name="FCT automatic" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{9B2DB0AB-023A-4433-BF62-11ED202DA0F6}" name="Lipid arc automatic" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{95535434-BD5F-421C-AE0B-1B40C5FD1944}" name="FCT automatic v2" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{D55069E1-AA5A-4AF5-82C8-0FC59C6B41A1}" name="Lipid arc automatic v2" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{95535434-BD5F-421C-AE0B-1B40C5FD1944}" name="FCT automatic v2" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{D55069E1-AA5A-4AF5-82C8-0FC59C6B41A1}" name="Lipid arc automatic v2" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{6E88408F-7EAE-4D70-BEEC-B7D3D2E6F5DD}" name="FCT model 3 2D v2"/>
+    <tableColumn id="11" xr3:uid="{D0678634-A08B-452E-B25F-2964F18ADA7D}" name="Lipid arc model 3 2D v2"/>
     <tableColumn id="6" xr3:uid="{647ED19A-12EE-48BA-B5F2-0DA0D312A6EB}" name="FCT manual" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{35F9E1BF-544E-4C84-A267-F8C76EA6A296}" name="Lipid arc manual" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{6C89EED6-A37E-43E0-9D05-325F0FF5B398}" name="Difference FCT" dataDxfId="3">
-      <calculatedColumnFormula>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{6C89EED6-A37E-43E0-9D05-325F0FF5B398}" name="Difference FCT (manual segs)" dataDxfId="3">
+      <calculatedColumnFormula>#REF!-Table1[[#This Row],[FCT manual]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{C4605D00-0ECB-41CD-B40C-285B95EF7363}" name="Difference lipid arc" dataDxfId="2">
-      <calculatedColumnFormula>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{C4605D00-0ECB-41CD-B40C-285B95EF7363}" name="Difference lipid arc (manual segs)" dataDxfId="2">
+      <calculatedColumnFormula>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{1E93C117-3898-4E2F-90C7-E91EA92F3F14}" name="Difference FCT (model 3 2D)" dataDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{A8273017-044D-4278-92CA-38CB7C4F9336}" name="Difference lipid arc (model 3 2D)" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{85CE63A1-F429-4A32-B0D4-E639FF525C40}" name="Observation"/>
   </tableColumns>
@@ -718,70 +739,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K163"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="H17" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="28.33203125" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" customWidth="1"/>
-    <col min="11" max="11" width="30.88671875" customWidth="1"/>
-    <col min="13" max="13" width="30.77734375" customWidth="1"/>
+    <col min="3" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
+    <col min="7" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" customWidth="1"/>
+    <col min="10" max="12" width="32.21875" customWidth="1"/>
+    <col min="13" max="13" width="32.33203125" customWidth="1"/>
+    <col min="15" max="15" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
@@ -797,25 +825,33 @@
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
@@ -831,32 +867,40 @@
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>61</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>94</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G4" s="3">
         <v>50</v>
@@ -865,32 +909,40 @@
         <v>92</v>
       </c>
       <c r="I4" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>11</v>
       </c>
       <c r="J4" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K4" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>110</v>
       </c>
-      <c r="D5" s="3">
-        <v>86</v>
+      <c r="D5">
+        <v>82</v>
       </c>
       <c r="E5">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F5">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G5" s="3">
         <v>60</v>
@@ -899,25 +951,33 @@
         <v>99</v>
       </c>
       <c r="I5" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>50</v>
       </c>
       <c r="J5" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-17</v>
+      </c>
+      <c r="K5" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>74</v>
+      </c>
+      <c r="L5" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
@@ -933,32 +993,40 @@
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>132</v>
       </c>
-      <c r="D7" s="3">
-        <v>256</v>
+      <c r="D7">
+        <v>250</v>
       </c>
       <c r="E7">
         <v>132</v>
       </c>
       <c r="F7">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="G7" s="3">
         <v>110</v>
@@ -967,32 +1035,40 @@
         <v>249</v>
       </c>
       <c r="I7" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>22</v>
       </c>
       <c r="J7" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>22</v>
+      </c>
+      <c r="L7" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>255</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>114</v>
       </c>
       <c r="E8">
-        <v>255</v>
+        <v>514</v>
       </c>
       <c r="F8">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="G8" s="3">
         <v>290</v>
@@ -1001,32 +1077,40 @@
         <v>59</v>
       </c>
       <c r="I8" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-35</v>
       </c>
       <c r="J8" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>224</v>
+      </c>
+      <c r="L8" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>240</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>144</v>
       </c>
       <c r="E9">
-        <v>240</v>
+        <v>403</v>
       </c>
       <c r="F9">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="G9" s="3">
         <v>340</v>
@@ -1035,32 +1119,40 @@
         <v>143</v>
       </c>
       <c r="I9" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-100</v>
       </c>
       <c r="J9" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>63</v>
+      </c>
+      <c r="L9" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>144</v>
       </c>
-      <c r="D10" s="3">
-        <v>226</v>
+      <c r="D10">
+        <v>222</v>
       </c>
       <c r="E10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F10">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="G10" s="3">
         <v>170</v>
@@ -1069,32 +1161,40 @@
         <v>165</v>
       </c>
       <c r="I10" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-26</v>
       </c>
       <c r="J10" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>57</v>
+      </c>
+      <c r="K10" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-18</v>
+      </c>
+      <c r="L10" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>102</v>
       </c>
-      <c r="D11" s="3">
-        <v>228</v>
+      <c r="D11">
+        <v>226</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G11" s="3">
         <v>60</v>
@@ -1103,32 +1203,40 @@
         <v>236</v>
       </c>
       <c r="I11" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>42</v>
       </c>
       <c r="J11" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-10</v>
+      </c>
+      <c r="K11" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>52</v>
+      </c>
+      <c r="L11" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>134</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>130</v>
       </c>
       <c r="E12">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F12">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G12" s="3">
         <v>70</v>
@@ -1137,25 +1245,33 @@
         <v>119</v>
       </c>
       <c r="I12" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>64</v>
       </c>
       <c r="J12" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>72</v>
+      </c>
+      <c r="L12" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
@@ -1171,32 +1287,40 @@
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1205,25 +1329,33 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>273</v>
+      </c>
+      <c r="L14" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
@@ -1239,32 +1371,40 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>199</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>74</v>
       </c>
       <c r="E16">
-        <v>199</v>
+        <v>394</v>
       </c>
       <c r="F16">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3">
         <v>150</v>
@@ -1273,32 +1413,40 @@
         <v>54</v>
       </c>
       <c r="I16" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>49</v>
       </c>
       <c r="J16" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K16" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>244</v>
+      </c>
+      <c r="L16" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>281</v>
       </c>
-      <c r="D17" s="3">
-        <v>48</v>
+      <c r="D17">
+        <v>46</v>
       </c>
       <c r="E17">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>170</v>
@@ -1307,25 +1455,33 @@
         <v>33</v>
       </c>
       <c r="I17" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>111</v>
       </c>
       <c r="J17" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>13</v>
+      </c>
+      <c r="K17" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-170</v>
+      </c>
+      <c r="L17" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
@@ -1341,25 +1497,33 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
@@ -1375,32 +1539,40 @@
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>45</v>
       </c>
-      <c r="D20" s="3">
-        <v>150</v>
+      <c r="D20">
+        <v>148</v>
       </c>
       <c r="E20">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F20">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G20" s="3">
         <v>60</v>
@@ -1409,32 +1581,40 @@
         <v>143</v>
       </c>
       <c r="I20" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-15</v>
       </c>
       <c r="J20" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>26</v>
+      </c>
+      <c r="L20" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>67</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>122</v>
       </c>
       <c r="E21">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F21">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="G21" s="3">
         <v>70</v>
@@ -1443,25 +1623,33 @@
         <v>120</v>
       </c>
       <c r="I21" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-3</v>
       </c>
       <c r="J21" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-6</v>
+      </c>
+      <c r="L21" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
@@ -1477,32 +1665,40 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>536</v>
       </c>
-      <c r="D23" s="3">
-        <v>164</v>
+      <c r="D23">
+        <v>88</v>
       </c>
       <c r="E23">
-        <v>536</v>
+        <v>440</v>
       </c>
       <c r="F23">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="G23" s="3">
         <v>720</v>
@@ -1511,28 +1707,33 @@
         <v>62</v>
       </c>
       <c r="I23" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-184</v>
       </c>
       <c r="J23" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>102</v>
-      </c>
-      <c r="K23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>26</v>
+      </c>
+      <c r="K23" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-280</v>
+      </c>
+      <c r="L23" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
@@ -1548,25 +1749,33 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
@@ -1582,25 +1791,33 @@
         <v>0</v>
       </c>
       <c r="I25" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
@@ -1616,25 +1833,33 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
@@ -1650,32 +1875,40 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>197</v>
       </c>
-      <c r="D28" s="3">
-        <v>110</v>
+      <c r="D28">
+        <v>106</v>
       </c>
       <c r="E28">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="F28">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G28" s="3">
         <v>280</v>
@@ -1684,32 +1917,40 @@
         <v>93</v>
       </c>
       <c r="I28" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-83</v>
       </c>
       <c r="J28" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>13</v>
+      </c>
+      <c r="K28" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>102</v>
+      </c>
+      <c r="L28" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1718,32 +1959,43 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>485</v>
+      </c>
+      <c r="L29" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>48</v>
+      </c>
+      <c r="M29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>64</v>
       </c>
-      <c r="D30" s="3">
-        <v>208</v>
+      <c r="D30">
+        <v>204</v>
       </c>
       <c r="E30">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="F30">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G30" s="3">
         <v>50</v>
@@ -1752,32 +2004,40 @@
         <v>213</v>
       </c>
       <c r="I30" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>14</v>
       </c>
       <c r="J30" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-9</v>
+      </c>
+      <c r="K30" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>42</v>
+      </c>
+      <c r="L30" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>60</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>190</v>
       </c>
       <c r="E31">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="F31">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G31" s="3">
         <v>50</v>
@@ -1786,25 +2046,33 @@
         <v>197</v>
       </c>
       <c r="I31" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>10</v>
       </c>
       <c r="J31" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-7</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>41</v>
+      </c>
+      <c r="L31" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
@@ -1820,32 +2088,40 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>180</v>
       </c>
-      <c r="D33" s="3">
-        <v>168</v>
+      <c r="D33">
+        <v>166</v>
       </c>
       <c r="E33">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="F33">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="G33" s="3">
         <v>230</v>
@@ -1855,25 +2131,33 @@
         <v>163.6</v>
       </c>
       <c r="I33" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-50</v>
       </c>
       <c r="J33" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>4.4000000000000057</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="K33" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-5</v>
+      </c>
+      <c r="L33" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-27.599999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
@@ -1889,25 +2173,33 @@
         <v>0</v>
       </c>
       <c r="I34" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J34" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
@@ -1923,25 +2215,33 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
@@ -1957,25 +2257,33 @@
         <v>0</v>
       </c>
       <c r="I36" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J36" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
@@ -1991,32 +2299,40 @@
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J37" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>28</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -2025,32 +2341,43 @@
         <v>0</v>
       </c>
       <c r="I38" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J38" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>430</v>
+      </c>
+      <c r="L38" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>52</v>
+      </c>
+      <c r="M38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="3">
-        <v>539</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="C39">
+        <v>547</v>
+      </c>
+      <c r="D39">
+        <v>64</v>
+      </c>
+      <c r="E39">
+        <v>608</v>
+      </c>
+      <c r="F39">
         <v>68</v>
-      </c>
-      <c r="E39">
-        <v>547</v>
-      </c>
-      <c r="F39">
-        <v>64</v>
       </c>
       <c r="G39" s="3">
         <v>570</v>
@@ -2059,32 +2386,40 @@
         <v>68</v>
       </c>
       <c r="I39" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-31</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-23</v>
       </c>
       <c r="J39" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-4</v>
+      </c>
+      <c r="K39" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>38</v>
+      </c>
+      <c r="L39" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>28</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>340</v>
       </c>
-      <c r="D40" s="3">
-        <v>120</v>
+      <c r="D40">
+        <v>118</v>
       </c>
       <c r="E40">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="F40">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G40" s="3">
         <v>200</v>
@@ -2093,32 +2428,40 @@
         <v>119</v>
       </c>
       <c r="I40" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>140</v>
       </c>
       <c r="J40" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-1</v>
+      </c>
+      <c r="K40" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>12</v>
+      </c>
+      <c r="L40" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>375</v>
       </c>
-      <c r="D41" s="3">
-        <v>148</v>
+      <c r="D41">
+        <v>146</v>
       </c>
       <c r="E41">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="F41">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G41" s="3">
         <v>320</v>
@@ -2127,32 +2470,40 @@
         <v>162</v>
       </c>
       <c r="I41" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>55</v>
       </c>
       <c r="J41" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-16</v>
+      </c>
+      <c r="K41" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>25</v>
+      </c>
+      <c r="L41" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>410</v>
       </c>
-      <c r="D42" s="3">
-        <v>118</v>
+      <c r="D42">
+        <v>116</v>
       </c>
       <c r="E42">
-        <v>410</v>
+        <v>278</v>
       </c>
       <c r="F42">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G42" s="3">
         <v>330</v>
@@ -2162,32 +2513,40 @@
         <v>140.6</v>
       </c>
       <c r="I42" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>80</v>
       </c>
       <c r="J42" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-22.599999999999994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-24.599999999999994</v>
+      </c>
+      <c r="K42" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-52</v>
+      </c>
+      <c r="L42" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-6.5999999999999943</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
       <c r="B43" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>205</v>
       </c>
-      <c r="D43" s="3">
-        <v>152</v>
+      <c r="D43">
+        <v>148</v>
       </c>
       <c r="E43">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="F43">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G43" s="3">
         <v>210</v>
@@ -2197,32 +2556,40 @@
         <v>140.69999999999999</v>
       </c>
       <c r="I43" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-5</v>
       </c>
       <c r="J43" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>11.300000000000011</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>7.3000000000000114</v>
+      </c>
+      <c r="K43" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>42</v>
+      </c>
+      <c r="L43" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-6.6999999999999886</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>198</v>
       </c>
-      <c r="D44" s="3">
-        <v>126</v>
+      <c r="D44">
+        <v>124</v>
       </c>
       <c r="E44">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F44">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="G44" s="3">
         <v>150</v>
@@ -2232,32 +2599,40 @@
         <v>123</v>
       </c>
       <c r="I44" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>48</v>
       </c>
       <c r="J44" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>1</v>
+      </c>
+      <c r="K44" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>32</v>
+      </c>
+      <c r="L44" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>345</v>
       </c>
-      <c r="D45" s="3">
-        <v>156</v>
+      <c r="D45">
+        <v>154</v>
       </c>
       <c r="E45">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F45">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="G45" s="3">
         <v>290</v>
@@ -2266,25 +2641,33 @@
         <v>161</v>
       </c>
       <c r="I45" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>55</v>
       </c>
       <c r="J45" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-7</v>
+      </c>
+      <c r="K45" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>64</v>
+      </c>
+      <c r="L45" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>33</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
@@ -2300,25 +2683,33 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>33</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
@@ -2334,25 +2725,33 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
@@ -2368,25 +2767,33 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>33</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="3">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
@@ -2402,32 +2809,40 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <v>67</v>
       </c>
-      <c r="D50" s="3">
-        <v>110</v>
+      <c r="D50">
+        <v>104</v>
       </c>
       <c r="E50">
         <v>67</v>
       </c>
       <c r="F50">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="G50" s="3">
         <v>80</v>
@@ -2436,32 +2851,40 @@
         <v>92</v>
       </c>
       <c r="I50" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-13</v>
       </c>
       <c r="J50" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>12</v>
+      </c>
+      <c r="K50" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-13</v>
+      </c>
+      <c r="L50" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>34</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51">
         <v>30</v>
       </c>
-      <c r="D51" s="3">
-        <v>126</v>
+      <c r="D51">
+        <v>122</v>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F51">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G51" s="3">
         <v>30</v>
@@ -2470,29 +2893,37 @@
         <v>128</v>
       </c>
       <c r="I51" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J51" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-6</v>
+      </c>
+      <c r="K51" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>20</v>
+      </c>
+      <c r="L51" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>34</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52">
         <v>70</v>
       </c>
-      <c r="D52" s="3">
-        <v>104</v>
+      <c r="D52">
+        <v>100</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F52">
         <v>100</v>
@@ -2504,32 +2935,40 @@
         <v>101</v>
       </c>
       <c r="I52" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>10</v>
       </c>
       <c r="J52" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-1</v>
+      </c>
+      <c r="K52" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-15</v>
+      </c>
+      <c r="L52" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>34</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53">
         <v>192</v>
       </c>
-      <c r="D53" s="3">
-        <v>96</v>
+      <c r="D53">
+        <v>92</v>
       </c>
       <c r="E53">
-        <v>192</v>
+        <v>415</v>
       </c>
       <c r="F53">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="G53" s="3">
         <v>300</v>
@@ -2538,32 +2977,40 @@
         <v>91</v>
       </c>
       <c r="I53" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-108</v>
       </c>
       <c r="J53" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>1</v>
+      </c>
+      <c r="K53" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>115</v>
+      </c>
+      <c r="L53" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>34</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54">
         <v>443</v>
       </c>
-      <c r="D54" s="3">
-        <v>78</v>
+      <c r="D54">
+        <v>74</v>
       </c>
       <c r="E54">
-        <v>443</v>
+        <v>326</v>
       </c>
       <c r="F54">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G54" s="3">
         <v>370</v>
@@ -2572,32 +3019,40 @@
         <v>54</v>
       </c>
       <c r="I54" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>73</v>
       </c>
       <c r="J54" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>20</v>
+      </c>
+      <c r="K54" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-44</v>
+      </c>
+      <c r="L54" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>34</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55">
         <v>158</v>
       </c>
-      <c r="D55" s="3">
-        <v>104</v>
+      <c r="D55">
+        <v>100</v>
       </c>
       <c r="E55">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="F55">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G55" s="3">
         <v>170</v>
@@ -2606,32 +3061,40 @@
         <v>106</v>
       </c>
       <c r="I55" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-12</v>
       </c>
       <c r="J55" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-6</v>
+      </c>
+      <c r="K55" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>14</v>
+      </c>
+      <c r="L55" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>34</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56">
         <v>10</v>
       </c>
-      <c r="D56" s="3">
-        <v>98</v>
+      <c r="D56">
+        <v>96</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F56">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G56" s="3">
         <v>60</v>
@@ -2640,32 +3103,40 @@
         <v>88</v>
       </c>
       <c r="I56" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-50</v>
       </c>
       <c r="J56" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>8</v>
+      </c>
+      <c r="K56" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>11</v>
+      </c>
+      <c r="L56" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>34</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57">
         <v>189</v>
       </c>
-      <c r="D57" s="3">
-        <v>76</v>
+      <c r="D57">
+        <v>74</v>
       </c>
       <c r="E57">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="F57">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G57" s="3">
         <v>110</v>
@@ -2674,32 +3145,40 @@
         <v>75</v>
       </c>
       <c r="I57" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>79</v>
       </c>
       <c r="J57" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-1</v>
+      </c>
+      <c r="K57" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>53</v>
+      </c>
+      <c r="L57" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58">
         <v>337</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58">
         <v>76</v>
       </c>
       <c r="E58">
-        <v>337</v>
+        <v>140</v>
       </c>
       <c r="F58">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="G58" s="3">
         <v>90</v>
@@ -2708,32 +3187,40 @@
         <v>122</v>
       </c>
       <c r="I58" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>247</v>
       </c>
       <c r="J58" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-46</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>50</v>
+      </c>
+      <c r="L58" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>34</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="3">
-        <v>0</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2742,32 +3229,40 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>310</v>
+      </c>
+      <c r="L59" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>34</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60">
         <v>477</v>
       </c>
-      <c r="D60" s="3">
-        <v>118</v>
+      <c r="D60">
+        <v>114</v>
       </c>
       <c r="E60">
-        <v>477</v>
+        <v>354</v>
       </c>
       <c r="F60">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G60" s="3">
         <v>370</v>
@@ -2776,29 +3271,37 @@
         <v>120</v>
       </c>
       <c r="I60" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>107</v>
       </c>
       <c r="J60" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-6</v>
+      </c>
+      <c r="K60" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-16</v>
+      </c>
+      <c r="L60" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>34</v>
       </c>
       <c r="B61" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61">
         <v>376</v>
       </c>
-      <c r="D61" s="3">
-        <v>128</v>
+      <c r="D61">
+        <v>126</v>
       </c>
       <c r="E61">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="F61">
         <v>126</v>
@@ -2810,32 +3313,40 @@
         <v>124</v>
       </c>
       <c r="I61" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>6</v>
       </c>
       <c r="J61" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>2</v>
+      </c>
+      <c r="K61" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>30</v>
+      </c>
+      <c r="L61" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62">
         <v>262</v>
       </c>
-      <c r="D62" s="3">
-        <v>114</v>
+      <c r="D62">
+        <v>110</v>
       </c>
       <c r="E62">
-        <v>262</v>
+        <v>411</v>
       </c>
       <c r="F62">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G62" s="3">
         <v>350</v>
@@ -2844,25 +3355,33 @@
         <v>122</v>
       </c>
       <c r="I62" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-88</v>
       </c>
       <c r="J62" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-12</v>
+      </c>
+      <c r="K62" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>61</v>
+      </c>
+      <c r="L62" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="3">
-        <v>0</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
@@ -2878,25 +3397,33 @@
         <v>0</v>
       </c>
       <c r="I63" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J63" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>38</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="3">
-        <v>0</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
@@ -2912,25 +3439,33 @@
         <v>0</v>
       </c>
       <c r="I64" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J64" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K64" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>38</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="3">
-        <v>0</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
@@ -2946,25 +3481,33 @@
         <v>0</v>
       </c>
       <c r="I65" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J65" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>38</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="3">
-        <v>0</v>
-      </c>
-      <c r="D66" s="3">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
@@ -2980,25 +3523,33 @@
         <v>0</v>
       </c>
       <c r="I66" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J66" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>38</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="3">
-        <v>0</v>
-      </c>
-      <c r="D67" s="3">
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
@@ -3014,25 +3565,33 @@
         <v>0</v>
       </c>
       <c r="I67" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J67" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="3">
-        <v>0</v>
-      </c>
-      <c r="D68" s="3">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
@@ -3048,25 +3607,33 @@
         <v>0</v>
       </c>
       <c r="I68" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J68" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>38</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="3">
-        <v>0</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
@@ -3082,25 +3649,33 @@
         <v>0</v>
       </c>
       <c r="I69" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J69" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>38</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="3">
-        <v>0</v>
-      </c>
-      <c r="D70" s="3">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
@@ -3116,25 +3691,33 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="3">
-        <v>0</v>
-      </c>
-      <c r="D71" s="3">
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
@@ -3150,32 +3733,40 @@
         <v>0</v>
       </c>
       <c r="I71" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J71" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>38</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72">
         <v>149</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72">
         <v>86</v>
       </c>
       <c r="E72">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="F72">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G72" s="3">
         <v>160</v>
@@ -3184,32 +3775,40 @@
         <v>83</v>
       </c>
       <c r="I72" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-11</v>
       </c>
       <c r="J72" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>40</v>
+      </c>
+      <c r="L72" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>38</v>
       </c>
       <c r="B73" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73">
         <v>98</v>
       </c>
-      <c r="D73" s="3">
-        <v>104</v>
+      <c r="D73">
+        <v>102</v>
       </c>
       <c r="E73">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="F73">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G73" s="3">
         <v>130</v>
@@ -3218,32 +3817,40 @@
         <v>99</v>
       </c>
       <c r="I73" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-32</v>
       </c>
       <c r="J73" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>3</v>
+      </c>
+      <c r="K73" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>57</v>
+      </c>
+      <c r="L73" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>38</v>
       </c>
       <c r="B74" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74">
         <v>160</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74">
         <v>116</v>
       </c>
       <c r="E74">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="F74">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G74" s="3">
         <v>150</v>
@@ -3252,32 +3859,40 @@
         <v>121</v>
       </c>
       <c r="I74" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>10</v>
       </c>
       <c r="J74" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-5</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>40</v>
+      </c>
+      <c r="L74" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>38</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75">
         <v>89</v>
       </c>
-      <c r="D75" s="3">
-        <v>172</v>
+      <c r="D75">
+        <v>168</v>
       </c>
       <c r="E75">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="F75">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G75" s="3">
         <v>120</v>
@@ -3286,25 +3901,33 @@
         <v>205</v>
       </c>
       <c r="I75" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-31</v>
       </c>
       <c r="J75" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-37</v>
+      </c>
+      <c r="K75" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>38</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="3">
-        <v>0</v>
-      </c>
-      <c r="D76" s="3">
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
@@ -3320,25 +3943,33 @@
         <v>0</v>
       </c>
       <c r="I76" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="3">
-        <v>0</v>
-      </c>
-      <c r="D77" s="3">
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
@@ -3354,32 +3985,40 @@
         <v>0</v>
       </c>
       <c r="I77" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J77" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>38</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78">
         <v>122</v>
       </c>
-      <c r="D78" s="3">
-        <v>98</v>
+      <c r="D78">
+        <v>94</v>
       </c>
       <c r="E78">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="F78">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G78" s="3">
         <v>150</v>
@@ -3388,25 +4027,33 @@
         <v>98</v>
       </c>
       <c r="I78" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-28</v>
       </c>
       <c r="J78" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-4</v>
+      </c>
+      <c r="K78" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>7</v>
+      </c>
+      <c r="L78" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>41</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="3">
-        <v>0</v>
-      </c>
-      <c r="D79" s="3">
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
@@ -3422,25 +4069,33 @@
         <v>0</v>
       </c>
       <c r="I79" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J79" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>41</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="3">
-        <v>0</v>
-      </c>
-      <c r="D80" s="3">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
@@ -3456,25 +4111,33 @@
         <v>0</v>
       </c>
       <c r="I80" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J80" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>41</v>
       </c>
       <c r="B81" t="s">
         <v>42</v>
       </c>
-      <c r="C81" s="3">
-        <v>0</v>
-      </c>
-      <c r="D81" s="3">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
@@ -3490,25 +4153,33 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>41</v>
       </c>
       <c r="B82" t="s">
         <v>43</v>
       </c>
-      <c r="C82" s="3">
-        <v>0</v>
-      </c>
-      <c r="D82" s="3">
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
@@ -3524,32 +4195,40 @@
         <v>0</v>
       </c>
       <c r="I82" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J82" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>41</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="3">
-        <v>0</v>
-      </c>
-      <c r="D83" s="3">
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1162</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3558,29 +4237,40 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>1162</v>
+      </c>
+      <c r="L83" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>10</v>
+      </c>
+      <c r="M83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>41</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="3">
-        <v>163</v>
-      </c>
-      <c r="D84" s="3">
-        <v>166</v>
+      <c r="C84">
+        <v>354</v>
+      </c>
+      <c r="D84">
+        <v>164</v>
       </c>
       <c r="E84">
-        <v>354</v>
+        <v>156</v>
       </c>
       <c r="F84">
         <v>164</v>
@@ -3592,25 +4282,33 @@
         <v>199</v>
       </c>
       <c r="I84" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>23</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>214</v>
       </c>
       <c r="J84" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-35</v>
+      </c>
+      <c r="K84" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>16</v>
+      </c>
+      <c r="L84" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>44</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="3">
-        <v>0</v>
-      </c>
-      <c r="D85" s="3">
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
@@ -3626,25 +4324,33 @@
         <v>0</v>
       </c>
       <c r="I85" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J85" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>44</v>
       </c>
       <c r="B86" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="3">
-        <v>0</v>
-      </c>
-      <c r="D86" s="3">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
@@ -3660,25 +4366,33 @@
         <v>0</v>
       </c>
       <c r="I86" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J86" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>44</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="3">
-        <v>0</v>
-      </c>
-      <c r="D87" s="3">
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
@@ -3694,25 +4408,33 @@
         <v>0</v>
       </c>
       <c r="I87" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J87" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K87" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L87" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>44</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="3">
-        <v>0</v>
-      </c>
-      <c r="D88" s="3">
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
@@ -3728,32 +4450,40 @@
         <v>0</v>
       </c>
       <c r="I88" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J88" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K88" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>44</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="3">
-        <v>0</v>
-      </c>
-      <c r="D89" s="3">
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -3762,25 +4492,36 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>275</v>
+      </c>
+      <c r="L89" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>28</v>
+      </c>
+      <c r="M89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>44</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="3">
-        <v>0</v>
-      </c>
-      <c r="D90" s="3">
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
@@ -3796,25 +4537,33 @@
         <v>0</v>
       </c>
       <c r="I90" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J90" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L90" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>44</v>
       </c>
       <c r="B91" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="3">
-        <v>0</v>
-      </c>
-      <c r="D91" s="3">
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
@@ -3830,25 +4579,33 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>44</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="3">
-        <v>0</v>
-      </c>
-      <c r="D92" s="3">
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
@@ -3864,32 +4621,40 @@
         <v>0</v>
       </c>
       <c r="I92" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J92" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L92" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>44</v>
       </c>
       <c r="B93" t="s">
         <v>45</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93">
         <v>218</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93">
         <v>186</v>
       </c>
       <c r="E93">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="F93">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G93" s="3">
         <v>200</v>
@@ -3898,32 +4663,40 @@
         <v>210</v>
       </c>
       <c r="I93" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>18</v>
       </c>
       <c r="J93" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-24</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-16</v>
+      </c>
+      <c r="L93" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>44</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94">
         <v>134</v>
       </c>
-      <c r="D94" s="3">
-        <v>204</v>
+      <c r="D94">
+        <v>202</v>
       </c>
       <c r="E94">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F94">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G94" s="3">
         <v>110</v>
@@ -3932,32 +4705,40 @@
         <v>195</v>
       </c>
       <c r="I94" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>24</v>
       </c>
       <c r="J94" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>7</v>
+      </c>
+      <c r="K94" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>30</v>
+      </c>
+      <c r="L94" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>44</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95">
         <v>172</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95">
+        <v>184</v>
+      </c>
+      <c r="E95">
+        <v>170</v>
+      </c>
+      <c r="F95">
         <v>188</v>
-      </c>
-      <c r="E95">
-        <v>172</v>
-      </c>
-      <c r="F95">
-        <v>184</v>
       </c>
       <c r="G95" s="3">
         <v>160</v>
@@ -3966,32 +4747,40 @@
         <v>195</v>
       </c>
       <c r="I95" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>12</v>
       </c>
       <c r="J95" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-11</v>
+      </c>
+      <c r="K95" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>10</v>
+      </c>
+      <c r="L95" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-7</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>44</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96">
         <v>156</v>
       </c>
-      <c r="D96" s="3">
-        <v>202</v>
+      <c r="D96">
+        <v>200</v>
       </c>
       <c r="E96">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F96">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="G96" s="3">
         <v>160</v>
@@ -4000,32 +4789,40 @@
         <v>203</v>
       </c>
       <c r="I96" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-4</v>
       </c>
       <c r="J96" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-3</v>
+      </c>
+      <c r="K96" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>10</v>
+      </c>
+      <c r="L96" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>44</v>
       </c>
       <c r="B97" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97">
         <v>250</v>
       </c>
-      <c r="D97" s="3">
-        <v>128</v>
+      <c r="D97">
+        <v>126</v>
       </c>
       <c r="E97">
         <v>250</v>
       </c>
       <c r="F97">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G97" s="3">
         <v>210</v>
@@ -4034,25 +4831,33 @@
         <v>123</v>
       </c>
       <c r="I97" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>40</v>
       </c>
       <c r="J97" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>3</v>
+      </c>
+      <c r="K97" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>40</v>
+      </c>
+      <c r="L97" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>46</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="3">
-        <v>0</v>
-      </c>
-      <c r="D98" s="3">
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
@@ -4068,25 +4873,33 @@
         <v>0</v>
       </c>
       <c r="I98" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J98" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>46</v>
       </c>
       <c r="B99" t="s">
         <v>47</v>
       </c>
-      <c r="C99" s="3">
-        <v>0</v>
-      </c>
-      <c r="D99" s="3">
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
@@ -4102,25 +4915,33 @@
         <v>0</v>
       </c>
       <c r="I99" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J99" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K99" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L99" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>46</v>
       </c>
       <c r="B100" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="3">
-        <v>0</v>
-      </c>
-      <c r="D100" s="3">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
@@ -4136,25 +4957,33 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>46</v>
       </c>
       <c r="B101" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="3">
-        <v>0</v>
-      </c>
-      <c r="D101" s="3">
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
@@ -4170,32 +4999,40 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>46</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="3">
-        <v>0</v>
-      </c>
-      <c r="D102" s="3">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -4204,32 +5041,43 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>314</v>
+      </c>
+      <c r="L102" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>56</v>
+      </c>
+      <c r="M102" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>48</v>
       </c>
       <c r="B103" t="s">
         <v>14</v>
       </c>
-      <c r="C103" s="3">
-        <v>0</v>
-      </c>
-      <c r="D103" s="3">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G103" s="3">
         <v>0</v>
@@ -4238,32 +5086,40 @@
         <v>0</v>
       </c>
       <c r="I103" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J103" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>90</v>
+      </c>
+      <c r="L103" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>48</v>
       </c>
       <c r="B104" t="s">
         <v>19</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104">
         <v>108</v>
       </c>
-      <c r="D104" s="3">
-        <v>88</v>
+      <c r="D104">
+        <v>86</v>
       </c>
       <c r="E104">
-        <v>108</v>
+        <v>666</v>
       </c>
       <c r="F104">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="G104" s="3">
         <v>160</v>
@@ -4272,25 +5128,33 @@
         <v>103</v>
       </c>
       <c r="I104" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-52</v>
       </c>
       <c r="J104" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-17</v>
+      </c>
+      <c r="K104" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>506</v>
+      </c>
+      <c r="L104" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>48</v>
       </c>
       <c r="B105" t="s">
         <v>4</v>
       </c>
-      <c r="C105" s="3">
-        <v>0</v>
-      </c>
-      <c r="D105" s="3">
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
@@ -4306,32 +5170,40 @@
         <v>0</v>
       </c>
       <c r="I105" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J105" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K105" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L105" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>48</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106">
         <v>189</v>
       </c>
-      <c r="D106" s="3">
-        <v>92</v>
+      <c r="D106">
+        <v>90</v>
       </c>
       <c r="E106">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="F106">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G106" s="3">
         <v>140</v>
@@ -4340,32 +5212,40 @@
         <v>98</v>
       </c>
       <c r="I106" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>49</v>
       </c>
       <c r="J106" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-8</v>
+      </c>
+      <c r="K106" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>124</v>
+      </c>
+      <c r="L106" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>48</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107">
         <v>202</v>
       </c>
-      <c r="D107" s="3">
-        <v>186</v>
+      <c r="D107">
+        <v>184</v>
       </c>
       <c r="E107">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="F107">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="G107" s="3">
         <v>150</v>
@@ -4374,32 +5254,40 @@
         <v>147</v>
       </c>
       <c r="I107" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>52</v>
       </c>
       <c r="J107" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>37</v>
+      </c>
+      <c r="K107" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>69</v>
+      </c>
+      <c r="L107" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>48</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108">
         <v>112</v>
       </c>
-      <c r="D108" s="3">
-        <v>164</v>
+      <c r="D108">
+        <v>162</v>
       </c>
       <c r="E108">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="F108">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G108" s="3">
         <v>110</v>
@@ -4408,32 +5296,40 @@
         <v>83</v>
       </c>
       <c r="I108" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>2</v>
       </c>
       <c r="J108" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>79</v>
+      </c>
+      <c r="K108" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>48</v>
+      </c>
+      <c r="L108" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>48</v>
       </c>
       <c r="B109" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109">
         <v>168</v>
       </c>
-      <c r="D109" s="3">
-        <v>148</v>
+      <c r="D109">
+        <v>144</v>
       </c>
       <c r="E109">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="F109">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="G109" s="3">
         <v>200</v>
@@ -4442,32 +5338,40 @@
         <v>149</v>
       </c>
       <c r="I109" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-32</v>
       </c>
       <c r="J109" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-5</v>
+      </c>
+      <c r="K109" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>46</v>
+      </c>
+      <c r="L109" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>48</v>
       </c>
       <c r="B110" t="s">
         <v>50</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110">
         <v>121</v>
       </c>
-      <c r="D110" s="3">
-        <v>214</v>
+      <c r="D110">
+        <v>212</v>
       </c>
       <c r="E110">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F110">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="G110" s="3">
         <v>60</v>
@@ -4476,25 +5380,33 @@
         <v>230</v>
       </c>
       <c r="I110" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>61</v>
       </c>
       <c r="J110" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-18</v>
+      </c>
+      <c r="K110" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>75</v>
+      </c>
+      <c r="L110" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>48</v>
       </c>
       <c r="B111" t="s">
         <v>13</v>
       </c>
-      <c r="C111" s="3">
-        <v>0</v>
-      </c>
-      <c r="D111" s="3">
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
@@ -4510,32 +5422,40 @@
         <v>0</v>
       </c>
       <c r="I111" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J111" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>48</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112">
         <v>124</v>
       </c>
-      <c r="D112" s="3">
-        <v>34</v>
-      </c>
-      <c r="E112">
-        <v>124</v>
+      <c r="D112">
+        <v>32</v>
+      </c>
+      <c r="E112" t="s">
+        <v>67</v>
       </c>
       <c r="F112">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G112" s="3">
         <v>680</v>
@@ -4544,25 +5464,33 @@
         <v>30</v>
       </c>
       <c r="I112" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-556</v>
       </c>
       <c r="J112" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>2</v>
+      </c>
+      <c r="K112" s="3" t="e">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L112" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>48</v>
       </c>
       <c r="B113" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="3">
-        <v>0</v>
-      </c>
-      <c r="D113" s="3">
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
@@ -4578,32 +5506,40 @@
         <v>0</v>
       </c>
       <c r="I113" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J113" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K113" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L113" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>48</v>
       </c>
       <c r="B114" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114">
         <v>279</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114">
+        <v>116</v>
+      </c>
+      <c r="E114">
+        <v>278</v>
+      </c>
+      <c r="F114">
         <v>122</v>
-      </c>
-      <c r="E114">
-        <v>279</v>
-      </c>
-      <c r="F114">
-        <v>116</v>
       </c>
       <c r="G114" s="3">
         <v>180</v>
@@ -4612,25 +5548,33 @@
         <v>128</v>
       </c>
       <c r="I114" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>99</v>
       </c>
       <c r="J114" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-12</v>
+      </c>
+      <c r="K114" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>98</v>
+      </c>
+      <c r="L114" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-6</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>51</v>
       </c>
       <c r="B115" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="3">
-        <v>0</v>
-      </c>
-      <c r="D115" s="3">
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
@@ -4646,25 +5590,33 @@
         <v>0</v>
       </c>
       <c r="I115" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J115" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K115" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L115" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>51</v>
       </c>
       <c r="B116" t="s">
         <v>19</v>
       </c>
-      <c r="C116" s="3">
-        <v>0</v>
-      </c>
-      <c r="D116" s="3">
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
@@ -4680,25 +5632,33 @@
         <v>0</v>
       </c>
       <c r="I116" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J116" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K116" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L116" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>51</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
       </c>
-      <c r="C117" s="3">
-        <v>0</v>
-      </c>
-      <c r="D117" s="3">
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
@@ -4714,25 +5674,33 @@
         <v>0</v>
       </c>
       <c r="I117" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J117" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K117" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L117" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>51</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
       </c>
-      <c r="C118" s="3">
-        <v>0</v>
-      </c>
-      <c r="D118" s="3">
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
@@ -4748,25 +5716,33 @@
         <v>0</v>
       </c>
       <c r="I118" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J118" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K118" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L118" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>51</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="3">
-        <v>0</v>
-      </c>
-      <c r="D119" s="3">
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
@@ -4782,32 +5758,40 @@
         <v>0</v>
       </c>
       <c r="I119" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J119" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K119" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L119" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>51</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120">
         <v>126</v>
       </c>
-      <c r="D120" s="3">
-        <v>166</v>
+      <c r="D120">
+        <v>162</v>
       </c>
       <c r="E120">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F120">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="G120" s="3">
         <v>150</v>
@@ -4816,32 +5800,40 @@
         <v>142</v>
       </c>
       <c r="I120" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-24</v>
       </c>
       <c r="J120" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>20</v>
+      </c>
+      <c r="K120" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-33</v>
+      </c>
+      <c r="L120" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>51</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121">
         <v>184</v>
       </c>
-      <c r="D121" s="3">
-        <v>114</v>
+      <c r="D121">
+        <v>110</v>
       </c>
       <c r="E121">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="F121">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G121" s="3">
         <v>140</v>
@@ -4850,32 +5842,40 @@
         <v>91</v>
       </c>
       <c r="I121" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>44</v>
       </c>
       <c r="J121" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>19</v>
+      </c>
+      <c r="K121" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>74</v>
+      </c>
+      <c r="L121" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>51</v>
       </c>
       <c r="B122" t="s">
         <v>9</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122">
         <v>260</v>
       </c>
-      <c r="D122" s="3">
-        <v>68</v>
+      <c r="D122">
+        <v>66</v>
       </c>
       <c r="E122">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F122">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G122" s="3">
         <v>180</v>
@@ -4884,32 +5884,40 @@
         <v>72</v>
       </c>
       <c r="I122" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>80</v>
       </c>
       <c r="J122" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-6</v>
+      </c>
+      <c r="K122" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>91</v>
+      </c>
+      <c r="L122" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>51</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123">
         <v>198</v>
       </c>
-      <c r="D123" s="3">
-        <v>94</v>
+      <c r="D123">
+        <v>90</v>
       </c>
       <c r="E123">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="F123">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="G123" s="3">
         <v>190</v>
@@ -4918,32 +5926,40 @@
         <v>88</v>
       </c>
       <c r="I123" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>8</v>
       </c>
       <c r="J123" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>2</v>
+      </c>
+      <c r="K123" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>96</v>
+      </c>
+      <c r="L123" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>51</v>
       </c>
       <c r="B124" t="s">
         <v>13</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124">
         <v>197</v>
       </c>
-      <c r="D124" s="3">
-        <v>118</v>
+      <c r="D124">
+        <v>70</v>
       </c>
       <c r="E124">
-        <v>197</v>
+        <v>550</v>
       </c>
       <c r="F124">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="G124" s="3">
         <v>180</v>
@@ -4952,32 +5968,40 @@
         <v>71</v>
       </c>
       <c r="I124" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>17</v>
       </c>
       <c r="J124" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-1</v>
+      </c>
+      <c r="K124" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>370</v>
+      </c>
+      <c r="L124" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>51</v>
       </c>
       <c r="B125" t="s">
         <v>52</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125">
         <v>613</v>
       </c>
-      <c r="D125" s="3">
-        <v>20</v>
+      <c r="D125">
+        <v>18</v>
       </c>
       <c r="E125">
-        <v>613</v>
+        <v>322</v>
       </c>
       <c r="F125">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G125" s="3">
         <v>300</v>
@@ -4986,25 +6010,33 @@
         <v>23</v>
       </c>
       <c r="I125" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>313</v>
       </c>
       <c r="J125" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-5</v>
+      </c>
+      <c r="K125" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>22</v>
+      </c>
+      <c r="L125" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>51</v>
       </c>
       <c r="B126" t="s">
         <v>18</v>
       </c>
-      <c r="C126" s="3">
-        <v>0</v>
-      </c>
-      <c r="D126" s="3">
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
@@ -5020,32 +6052,40 @@
         <v>0</v>
       </c>
       <c r="I126" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J126" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K126" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L126" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>54</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="3">
-        <v>22</v>
-      </c>
-      <c r="D127" s="3">
-        <v>246</v>
+      <c r="C127">
+        <v>33</v>
+      </c>
+      <c r="D127">
+        <v>240</v>
       </c>
       <c r="E127">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F127">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="G127" s="3">
         <v>30</v>
@@ -5055,25 +6095,33 @@
         <v>221.1</v>
       </c>
       <c r="I127" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-8</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>3</v>
       </c>
       <c r="J127" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>24.900000000000006</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>18.900000000000006</v>
+      </c>
+      <c r="K127" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-2</v>
+      </c>
+      <c r="L127" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>44.900000000000006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>54</v>
       </c>
       <c r="B128" t="s">
         <v>55</v>
       </c>
-      <c r="C128" s="3">
-        <v>0</v>
-      </c>
-      <c r="D128" s="3">
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
@@ -5089,32 +6137,40 @@
         <v>0</v>
       </c>
       <c r="I128" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J128" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K128" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L128" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>54</v>
       </c>
       <c r="B129" t="s">
         <v>14</v>
       </c>
-      <c r="C129" s="3">
-        <v>108</v>
-      </c>
-      <c r="D129" s="3">
+      <c r="C129">
+        <v>239</v>
+      </c>
+      <c r="D129">
         <v>56</v>
       </c>
       <c r="E129">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G129" s="3">
         <v>170</v>
@@ -5123,32 +6179,40 @@
         <v>48</v>
       </c>
       <c r="I129" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-62</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>69</v>
       </c>
       <c r="J129" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K129" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-170</v>
+      </c>
+      <c r="L129" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>54</v>
       </c>
       <c r="B130" t="s">
         <v>19</v>
       </c>
-      <c r="C130" s="3">
-        <v>10</v>
-      </c>
-      <c r="D130" s="3">
-        <v>190</v>
+      <c r="C130">
+        <v>15</v>
+      </c>
+      <c r="D130">
+        <v>186</v>
       </c>
       <c r="E130">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F130">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G130" s="3">
         <v>60</v>
@@ -5157,29 +6221,37 @@
         <v>218</v>
       </c>
       <c r="I130" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-50</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-45</v>
       </c>
       <c r="J130" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-28</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-32</v>
+      </c>
+      <c r="K130" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-10</v>
+      </c>
+      <c r="L130" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>54</v>
       </c>
       <c r="B131" t="s">
         <v>49</v>
       </c>
-      <c r="C131" s="3">
-        <v>30</v>
-      </c>
-      <c r="D131" s="3">
+      <c r="C131">
+        <v>74</v>
+      </c>
+      <c r="D131">
         <v>360</v>
       </c>
       <c r="E131">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F131">
         <v>360</v>
@@ -5191,32 +6263,40 @@
         <v>360</v>
       </c>
       <c r="I131" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-80</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-36</v>
       </c>
       <c r="J131" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K131" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-18</v>
+      </c>
+      <c r="L131" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>54</v>
       </c>
       <c r="B132" t="s">
         <v>4</v>
       </c>
-      <c r="C132" s="3">
-        <v>86</v>
-      </c>
-      <c r="D132" s="3">
-        <v>314</v>
+      <c r="C132">
+        <v>198</v>
+      </c>
+      <c r="D132">
+        <v>298</v>
       </c>
       <c r="E132">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="F132">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="G132" s="3">
         <v>110</v>
@@ -5226,32 +6306,40 @@
         <v>233.5</v>
       </c>
       <c r="I132" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-24</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>88</v>
       </c>
       <c r="J132" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>80.5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>64.5</v>
+      </c>
+      <c r="K132" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-100</v>
+      </c>
+      <c r="L132" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>54</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
-      <c r="C133" s="3">
-        <v>63</v>
-      </c>
-      <c r="D133" s="3">
+      <c r="C133">
+        <v>126</v>
+      </c>
+      <c r="D133">
         <v>106</v>
       </c>
       <c r="E133">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="F133">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G133" s="3">
         <v>110</v>
@@ -5260,32 +6348,40 @@
         <v>114</v>
       </c>
       <c r="I133" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-47</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>16</v>
       </c>
       <c r="J133" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-8</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K133" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>61</v>
+      </c>
+      <c r="L133" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>54</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
       </c>
-      <c r="C134" s="3">
-        <v>82</v>
-      </c>
-      <c r="D134" s="3">
+      <c r="C134">
+        <v>179</v>
+      </c>
+      <c r="D134">
+        <v>132</v>
+      </c>
+      <c r="E134">
+        <v>63</v>
+      </c>
+      <c r="F134">
         <v>136</v>
-      </c>
-      <c r="E134">
-        <v>179</v>
-      </c>
-      <c r="F134">
-        <v>132</v>
       </c>
       <c r="G134" s="3">
         <v>80</v>
@@ -5294,32 +6390,40 @@
         <v>139</v>
       </c>
       <c r="I134" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>2</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>99</v>
       </c>
       <c r="J134" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-7</v>
+      </c>
+      <c r="K134" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-17</v>
+      </c>
+      <c r="L134" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>54</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
-      <c r="C135" s="3">
-        <v>120</v>
-      </c>
-      <c r="D135" s="3">
-        <v>96</v>
+      <c r="C135">
+        <v>250</v>
+      </c>
+      <c r="D135">
+        <v>94</v>
       </c>
       <c r="E135">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="F135">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G135" s="3">
         <v>110</v>
@@ -5328,32 +6432,40 @@
         <v>102</v>
       </c>
       <c r="I135" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>10</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>140</v>
       </c>
       <c r="J135" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-8</v>
+      </c>
+      <c r="K135" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-39</v>
+      </c>
+      <c r="L135" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>54</v>
       </c>
       <c r="B136" t="s">
         <v>9</v>
       </c>
-      <c r="C136" s="3">
-        <v>92</v>
-      </c>
-      <c r="D136" s="3">
-        <v>212</v>
+      <c r="C136">
+        <v>196</v>
+      </c>
+      <c r="D136">
+        <v>208</v>
       </c>
       <c r="E136">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="F136">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G136" s="3">
         <v>80</v>
@@ -5362,25 +6474,33 @@
         <v>200</v>
       </c>
       <c r="I136" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>12</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>116</v>
       </c>
       <c r="J136" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>8</v>
+      </c>
+      <c r="K136" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L136" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>54</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
       </c>
-      <c r="C137" s="3">
-        <v>0</v>
-      </c>
-      <c r="D137" s="3">
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
@@ -5396,32 +6516,40 @@
         <v>0</v>
       </c>
       <c r="I137" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J137" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K137" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L137" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>54</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
       </c>
-      <c r="C138" s="3">
-        <v>124</v>
-      </c>
-      <c r="D138" s="3">
+      <c r="C138">
+        <v>257</v>
+      </c>
+      <c r="D138">
         <v>84</v>
       </c>
       <c r="E138">
-        <v>257</v>
+        <v>112</v>
       </c>
       <c r="F138">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G138" s="3">
         <v>150</v>
@@ -5430,32 +6558,40 @@
         <v>89</v>
       </c>
       <c r="I138" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-26</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>107</v>
       </c>
       <c r="J138" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-5</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K138" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-38</v>
+      </c>
+      <c r="L138" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>54</v>
       </c>
       <c r="B139" t="s">
         <v>15</v>
       </c>
-      <c r="C139" s="3">
-        <v>86</v>
-      </c>
-      <c r="D139" s="3">
-        <v>98</v>
+      <c r="C139">
+        <v>188</v>
+      </c>
+      <c r="D139">
+        <v>96</v>
       </c>
       <c r="E139">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="G139" s="3">
         <v>110</v>
@@ -5464,59 +6600,78 @@
         <v>82</v>
       </c>
       <c r="I139" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-24</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>78</v>
       </c>
       <c r="J139" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>14</v>
+      </c>
+      <c r="K139" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-110</v>
+      </c>
+      <c r="L139" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-82</v>
+      </c>
+      <c r="M139" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>54</v>
       </c>
       <c r="B140" t="s">
         <v>18</v>
       </c>
-      <c r="C140" s="3">
-        <v>57</v>
-      </c>
-      <c r="D140" s="3">
-        <v>58</v>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>56</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="3">
+        <v>0</v>
+      </c>
+      <c r="I140" s="3">
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J140" s="3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>56</v>
       </c>
-      <c r="G140" s="3">
-        <v>0</v>
-      </c>
-      <c r="H140" s="3">
-        <v>0</v>
-      </c>
-      <c r="I140" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>57</v>
-      </c>
-      <c r="J140" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K140" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L140" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>56</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
       </c>
-      <c r="C141" s="3">
-        <v>0</v>
-      </c>
-      <c r="D141" s="3">
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
         <v>0</v>
       </c>
       <c r="E141">
@@ -5532,25 +6687,33 @@
         <v>0</v>
       </c>
       <c r="I141" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J141" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K141" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L141" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>56</v>
       </c>
       <c r="B142" t="s">
         <v>36</v>
       </c>
-      <c r="C142" s="3">
-        <v>0</v>
-      </c>
-      <c r="D142" s="3">
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
@@ -5566,25 +6729,33 @@
         <v>0</v>
       </c>
       <c r="I142" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J142" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K142" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L142" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>56</v>
       </c>
       <c r="B143" t="s">
         <v>53</v>
       </c>
-      <c r="C143" s="3">
-        <v>0</v>
-      </c>
-      <c r="D143" s="3">
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
         <v>0</v>
       </c>
       <c r="E143">
@@ -5600,25 +6771,33 @@
         <v>0</v>
       </c>
       <c r="I143" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J143" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K143" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L143" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>56</v>
       </c>
       <c r="B144" t="s">
         <v>37</v>
       </c>
-      <c r="C144" s="3">
-        <v>0</v>
-      </c>
-      <c r="D144" s="3">
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
@@ -5634,25 +6813,33 @@
         <v>0</v>
       </c>
       <c r="I144" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J144" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K144" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L144" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>56</v>
       </c>
       <c r="B145" t="s">
         <v>14</v>
       </c>
-      <c r="C145" s="3">
-        <v>0</v>
-      </c>
-      <c r="D145" s="3">
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
@@ -5668,25 +6855,33 @@
         <v>0</v>
       </c>
       <c r="I145" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J145" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K145" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L145" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>56</v>
       </c>
       <c r="B146" t="s">
         <v>61</v>
       </c>
-      <c r="C146" s="3">
-        <v>0</v>
-      </c>
-      <c r="D146" s="3">
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
@@ -5702,25 +6897,33 @@
         <v>0</v>
       </c>
       <c r="I146" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J146" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K146" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L146" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>56</v>
       </c>
       <c r="B147" t="s">
         <v>24</v>
       </c>
-      <c r="C147" s="3">
-        <v>0</v>
-      </c>
-      <c r="D147" s="3">
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
@@ -5736,25 +6939,33 @@
         <v>0</v>
       </c>
       <c r="I147" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J147" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K147" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L147" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>56</v>
       </c>
       <c r="B148" t="s">
         <v>35</v>
       </c>
-      <c r="C148" s="3">
-        <v>0</v>
-      </c>
-      <c r="D148" s="3">
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
@@ -5770,25 +6981,33 @@
         <v>0</v>
       </c>
       <c r="I148" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J148" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K148" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L148" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>56</v>
       </c>
       <c r="B149" t="s">
         <v>19</v>
       </c>
-      <c r="C149" s="3">
-        <v>0</v>
-      </c>
-      <c r="D149" s="3">
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
@@ -5804,25 +7023,33 @@
         <v>0</v>
       </c>
       <c r="I149" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J149" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K149" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L149" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>56</v>
       </c>
       <c r="B150" t="s">
         <v>57</v>
       </c>
-      <c r="C150" s="3">
-        <v>0</v>
-      </c>
-      <c r="D150" s="3">
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
@@ -5838,25 +7065,33 @@
         <v>0</v>
       </c>
       <c r="I150" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J150" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K150" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L150" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>56</v>
       </c>
       <c r="B151" t="s">
         <v>4</v>
       </c>
-      <c r="C151" s="3">
-        <v>0</v>
-      </c>
-      <c r="D151" s="3">
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
@@ -5872,25 +7107,33 @@
         <v>0</v>
       </c>
       <c r="I151" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J151" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K151" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L151" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>56</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
       </c>
-      <c r="C152" s="3">
-        <v>0</v>
-      </c>
-      <c r="D152" s="3">
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
@@ -5906,25 +7149,33 @@
         <v>0</v>
       </c>
       <c r="I152" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J152" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K152" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L152" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>56</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
       </c>
-      <c r="C153" s="3">
-        <v>0</v>
-      </c>
-      <c r="D153" s="3">
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
@@ -5940,25 +7191,33 @@
         <v>0</v>
       </c>
       <c r="I153" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J153" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K153" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L153" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>56</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
       </c>
-      <c r="C154" s="3">
-        <v>0</v>
-      </c>
-      <c r="D154" s="3">
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
@@ -5974,25 +7233,33 @@
         <v>0</v>
       </c>
       <c r="I154" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J154" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K154" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L154" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>56</v>
       </c>
       <c r="B155" t="s">
         <v>9</v>
       </c>
-      <c r="C155" s="3">
-        <v>0</v>
-      </c>
-      <c r="D155" s="3">
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
@@ -6008,32 +7275,40 @@
         <v>0</v>
       </c>
       <c r="I155" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J155" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K155" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L155" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>56</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="3">
-        <v>170</v>
-      </c>
-      <c r="D156" s="3">
-        <v>96</v>
+      <c r="C156">
+        <v>364</v>
+      </c>
+      <c r="D156">
+        <v>94</v>
       </c>
       <c r="E156">
-        <v>364</v>
+        <v>125</v>
       </c>
       <c r="F156">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="G156" s="3">
         <v>120</v>
@@ -6042,32 +7317,40 @@
         <v>105</v>
       </c>
       <c r="I156" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>50</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>244</v>
       </c>
       <c r="J156" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-11</v>
+      </c>
+      <c r="K156" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>5</v>
+      </c>
+      <c r="L156" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>56</v>
       </c>
       <c r="B157" t="s">
         <v>58</v>
       </c>
-      <c r="C157" s="3">
-        <v>142</v>
-      </c>
-      <c r="D157" s="3">
-        <v>132</v>
+      <c r="C157">
+        <v>310</v>
+      </c>
+      <c r="D157">
+        <v>128</v>
       </c>
       <c r="E157">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="F157">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G157" s="3">
         <v>230</v>
@@ -6076,32 +7359,40 @@
         <v>128</v>
       </c>
       <c r="I157" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-88</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>80</v>
       </c>
       <c r="J157" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K157" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>34</v>
+      </c>
+      <c r="L157" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>56</v>
       </c>
       <c r="B158" t="s">
         <v>12</v>
       </c>
-      <c r="C158" s="3">
-        <v>0</v>
-      </c>
-      <c r="D158" s="3">
-        <v>140</v>
+      <c r="C158">
+        <v>15</v>
+      </c>
+      <c r="D158">
+        <v>138</v>
       </c>
       <c r="E158">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="F158">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="G158" s="3">
         <v>140</v>
@@ -6110,32 +7401,40 @@
         <v>123</v>
       </c>
       <c r="I158" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-140</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-125</v>
       </c>
       <c r="J158" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>15</v>
+      </c>
+      <c r="K158" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>115</v>
+      </c>
+      <c r="L158" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>56</v>
       </c>
       <c r="B159" t="s">
         <v>59</v>
       </c>
-      <c r="C159" s="3">
-        <v>227</v>
-      </c>
-      <c r="D159" s="3">
-        <v>102</v>
+      <c r="C159">
+        <v>500</v>
+      </c>
+      <c r="D159">
+        <v>98</v>
       </c>
       <c r="E159">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F159">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G159" s="3">
         <v>210</v>
@@ -6144,25 +7443,33 @@
         <v>87</v>
       </c>
       <c r="I159" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>17</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>290</v>
       </c>
       <c r="J159" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>11</v>
+      </c>
+      <c r="K159" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>40</v>
+      </c>
+      <c r="L159" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>56</v>
       </c>
       <c r="B160" t="s">
         <v>13</v>
       </c>
-      <c r="C160" s="3">
-        <v>0</v>
-      </c>
-      <c r="D160" s="3">
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
@@ -6178,32 +7485,40 @@
         <v>0</v>
       </c>
       <c r="I160" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J160" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K160" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L160" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>56</v>
       </c>
       <c r="B161" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="3">
-        <v>313</v>
-      </c>
-      <c r="D161" s="3">
+      <c r="C161">
+        <v>677</v>
+      </c>
+      <c r="D161">
         <v>64</v>
       </c>
       <c r="E161">
-        <v>677</v>
+        <v>362</v>
       </c>
       <c r="F161">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G161" s="3">
         <v>380</v>
@@ -6212,25 +7527,33 @@
         <v>59</v>
       </c>
       <c r="I161" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-67</v>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>297</v>
       </c>
       <c r="J161" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K161" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-18</v>
+      </c>
+      <c r="L161" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>56</v>
       </c>
       <c r="B162" t="s">
         <v>60</v>
       </c>
-      <c r="C162" s="3">
-        <v>0</v>
-      </c>
-      <c r="D162" s="3">
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
@@ -6246,25 +7569,33 @@
         <v>0</v>
       </c>
       <c r="I162" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J162" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K162" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L162" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>56</v>
       </c>
       <c r="B163" t="s">
         <v>17</v>
       </c>
-      <c r="C163" s="3">
-        <v>0</v>
-      </c>
-      <c r="D163" s="3">
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
         <v>0</v>
       </c>
       <c r="E163">
@@ -6280,11 +7611,19 @@
         <v>0</v>
       </c>
       <c r="I163" s="3">
-        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J163" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic]] - Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K163" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L163" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
     </row>

--- a/code/count-distributions/manual_vs_automatic_fct_arc.xlsx
+++ b/code/count-distributions/manual_vs_automatic_fct_arc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\code\count-distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F308CB4-89EA-48F4-A1F3-602917825124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB17A1D8-CE66-40BC-BC73-F2BD1B09B017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="79">
   <si>
     <t>pullback</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>False Positive (super tiny detected lipid)</t>
+  </si>
+  <si>
+    <t>Check manual measure (maybe wrong)</t>
+  </si>
+  <si>
+    <t>Weird manual measurement</t>
   </si>
 </sst>
 </file>
@@ -741,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H17" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="G166" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,13 +900,13 @@
         <v>61</v>
       </c>
       <c r="D4">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
       <c r="F4">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G4" s="3">
         <v>50</v>
@@ -914,7 +920,7 @@
       </c>
       <c r="J4" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K4" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -922,7 +928,7 @@
       </c>
       <c r="L4" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-12</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -936,13 +942,13 @@
         <v>110</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>134</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G5" s="3">
         <v>60</v>
@@ -956,7 +962,7 @@
       </c>
       <c r="J5" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-17</v>
+        <v>-9</v>
       </c>
       <c r="K5" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -964,7 +970,7 @@
       </c>
       <c r="L5" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-29</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1020,13 +1026,13 @@
         <v>132</v>
       </c>
       <c r="D7">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E7">
         <v>132</v>
       </c>
       <c r="F7">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G7" s="3">
         <v>110</v>
@@ -1040,7 +1046,7 @@
       </c>
       <c r="J7" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>1</v>
+        <v>-15</v>
       </c>
       <c r="K7" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -1048,7 +1054,7 @@
       </c>
       <c r="L7" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1062,13 +1068,13 @@
         <v>255</v>
       </c>
       <c r="D8">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E8">
         <v>514</v>
       </c>
       <c r="F8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3">
         <v>290</v>
@@ -1082,7 +1088,7 @@
       </c>
       <c r="J8" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K8" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -1090,7 +1096,10 @@
       </c>
       <c r="L8" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-33</v>
+        <v>-31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1104,13 +1113,13 @@
         <v>240</v>
       </c>
       <c r="D9">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E9">
         <v>403</v>
       </c>
       <c r="F9">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G9" s="3">
         <v>340</v>
@@ -1124,7 +1133,7 @@
       </c>
       <c r="J9" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K9" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -1132,7 +1141,7 @@
       </c>
       <c r="L9" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-25</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1146,13 +1155,13 @@
         <v>144</v>
       </c>
       <c r="D10">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E10">
         <v>152</v>
       </c>
       <c r="F10">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G10" s="3">
         <v>170</v>
@@ -1166,7 +1175,7 @@
       </c>
       <c r="J10" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K10" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -1174,7 +1183,10 @@
       </c>
       <c r="L10" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1188,13 +1200,13 @@
         <v>102</v>
       </c>
       <c r="D11">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E11">
         <v>112</v>
       </c>
       <c r="F11">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="G11" s="3">
         <v>60</v>
@@ -1208,7 +1220,7 @@
       </c>
       <c r="J11" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="K11" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -1216,7 +1228,7 @@
       </c>
       <c r="L11" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1236,7 +1248,7 @@
         <v>142</v>
       </c>
       <c r="F12">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G12" s="3">
         <v>70</v>
@@ -1258,7 +1270,7 @@
       </c>
       <c r="L12" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1566,7 +1578,7 @@
         <v>45</v>
       </c>
       <c r="D20">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E20">
         <v>86</v>
@@ -1586,7 +1598,7 @@
       </c>
       <c r="J20" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -1614,7 +1626,7 @@
         <v>64</v>
       </c>
       <c r="F21">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G21" s="3">
         <v>70</v>
@@ -1636,7 +1648,7 @@
       </c>
       <c r="L21" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1698,7 +1710,7 @@
         <v>440</v>
       </c>
       <c r="F23">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G23" s="3">
         <v>720</v>
@@ -1720,7 +1732,7 @@
       </c>
       <c r="L23" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1902,7 +1914,7 @@
         <v>197</v>
       </c>
       <c r="D28">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E28">
         <v>382</v>
@@ -1922,7 +1934,7 @@
       </c>
       <c r="J28" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K28" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -1950,7 +1962,7 @@
         <v>485</v>
       </c>
       <c r="F29">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1972,7 +1984,7 @@
       </c>
       <c r="L29" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M29" t="s">
         <v>74</v>
@@ -1989,13 +2001,13 @@
         <v>64</v>
       </c>
       <c r="D30">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E30">
         <v>92</v>
       </c>
       <c r="F30">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="G30" s="3">
         <v>50</v>
@@ -2009,7 +2021,7 @@
       </c>
       <c r="J30" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="K30" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -2017,7 +2029,7 @@
       </c>
       <c r="L30" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-15</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2037,7 +2049,7 @@
         <v>91</v>
       </c>
       <c r="F31">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G31" s="3">
         <v>50</v>
@@ -2059,7 +2071,7 @@
       </c>
       <c r="L31" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-17</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2115,13 +2127,13 @@
         <v>180</v>
       </c>
       <c r="D33">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E33">
         <v>225</v>
       </c>
       <c r="F33">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G33" s="3">
         <v>230</v>
@@ -2136,7 +2148,7 @@
       </c>
       <c r="J33" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>2.4000000000000057</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="K33" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -2144,7 +2156,7 @@
       </c>
       <c r="L33" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-27.599999999999994</v>
+        <v>-21.599999999999994</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2368,16 +2380,16 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D39">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>608</v>
       </c>
       <c r="F39">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G39" s="3">
         <v>570</v>
@@ -2387,11 +2399,11 @@
       </c>
       <c r="I39" s="3">
         <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="J39" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="K39" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -2399,7 +2411,7 @@
       </c>
       <c r="L39" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -2413,13 +2425,13 @@
         <v>340</v>
       </c>
       <c r="D40">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E40">
         <v>212</v>
       </c>
       <c r="F40">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G40" s="3">
         <v>200</v>
@@ -2433,7 +2445,7 @@
       </c>
       <c r="J40" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K40" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -2441,7 +2453,7 @@
       </c>
       <c r="L40" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -2455,13 +2467,13 @@
         <v>375</v>
       </c>
       <c r="D41">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E41">
         <v>345</v>
       </c>
       <c r="F41">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="G41" s="3">
         <v>320</v>
@@ -2475,7 +2487,7 @@
       </c>
       <c r="J41" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-16</v>
+        <v>-4</v>
       </c>
       <c r="K41" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -2483,7 +2495,7 @@
       </c>
       <c r="L41" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -2497,13 +2509,13 @@
         <v>410</v>
       </c>
       <c r="D42">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E42">
         <v>278</v>
       </c>
       <c r="F42">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G42" s="3">
         <v>330</v>
@@ -2518,7 +2530,7 @@
       </c>
       <c r="J42" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-24.599999999999994</v>
+        <v>-14.599999999999994</v>
       </c>
       <c r="K42" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -2526,7 +2538,7 @@
       </c>
       <c r="L42" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-6.5999999999999943</v>
+        <v>-2.5999999999999943</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -2540,13 +2552,13 @@
         <v>205</v>
       </c>
       <c r="D43">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E43">
         <v>252</v>
       </c>
       <c r="F43">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G43" s="3">
         <v>210</v>
@@ -2561,7 +2573,7 @@
       </c>
       <c r="J43" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>7.3000000000000114</v>
+        <v>13.300000000000011</v>
       </c>
       <c r="K43" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -2569,7 +2581,7 @@
       </c>
       <c r="L43" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-6.6999999999999886</v>
+        <v>-0.69999999999998863</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -2583,13 +2595,13 @@
         <v>198</v>
       </c>
       <c r="D44">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E44">
         <v>182</v>
       </c>
       <c r="F44">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G44" s="3">
         <v>150</v>
@@ -2604,7 +2616,7 @@
       </c>
       <c r="J44" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K44" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -2612,7 +2624,7 @@
       </c>
       <c r="L44" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-21</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -2626,13 +2638,13 @@
         <v>345</v>
       </c>
       <c r="D45">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E45">
         <v>354</v>
       </c>
       <c r="F45">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G45" s="3">
         <v>290</v>
@@ -2646,7 +2658,7 @@
       </c>
       <c r="J45" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="K45" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -2654,7 +2666,7 @@
       </c>
       <c r="L45" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-53</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -2836,13 +2848,13 @@
         <v>67</v>
       </c>
       <c r="D50">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E50">
         <v>67</v>
       </c>
       <c r="F50">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G50" s="3">
         <v>80</v>
@@ -2856,7 +2868,7 @@
       </c>
       <c r="J50" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K50" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -2864,7 +2876,7 @@
       </c>
       <c r="L50" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2878,13 +2890,13 @@
         <v>30</v>
       </c>
       <c r="D51">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G51" s="3">
         <v>30</v>
@@ -2898,7 +2910,7 @@
       </c>
       <c r="J51" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="K51" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -2906,7 +2918,7 @@
       </c>
       <c r="L51" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-12</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2920,13 +2932,13 @@
         <v>70</v>
       </c>
       <c r="D52">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E52">
         <v>45</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G52" s="3">
         <v>60</v>
@@ -2940,7 +2952,7 @@
       </c>
       <c r="J52" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -2948,7 +2960,7 @@
       </c>
       <c r="L52" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -2962,13 +2974,13 @@
         <v>192</v>
       </c>
       <c r="D53">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E53">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F53">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G53" s="3">
         <v>300</v>
@@ -2982,15 +2994,15 @@
       </c>
       <c r="J53" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K53" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L53" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-29</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -3004,13 +3016,13 @@
         <v>443</v>
       </c>
       <c r="D54">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E54">
         <v>326</v>
       </c>
       <c r="F54">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G54" s="3">
         <v>370</v>
@@ -3024,7 +3036,7 @@
       </c>
       <c r="J54" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K54" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -3032,7 +3044,7 @@
       </c>
       <c r="L54" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -3046,13 +3058,13 @@
         <v>158</v>
       </c>
       <c r="D55">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E55">
         <v>184</v>
       </c>
       <c r="F55">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G55" s="3">
         <v>170</v>
@@ -3066,7 +3078,7 @@
       </c>
       <c r="J55" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="K55" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -3074,7 +3086,7 @@
       </c>
       <c r="L55" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -3088,13 +3100,13 @@
         <v>10</v>
       </c>
       <c r="D56">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56">
         <v>71</v>
       </c>
       <c r="F56">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G56" s="3">
         <v>60</v>
@@ -3108,7 +3120,7 @@
       </c>
       <c r="J56" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K56" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -3116,7 +3128,7 @@
       </c>
       <c r="L56" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -3130,13 +3142,13 @@
         <v>189</v>
       </c>
       <c r="D57">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E57">
         <v>163</v>
       </c>
       <c r="F57">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G57" s="3">
         <v>110</v>
@@ -3150,7 +3162,7 @@
       </c>
       <c r="J57" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K57" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -3158,7 +3170,7 @@
       </c>
       <c r="L57" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -3172,13 +3184,13 @@
         <v>337</v>
       </c>
       <c r="D58">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E58">
         <v>140</v>
       </c>
       <c r="F58">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G58" s="3">
         <v>90</v>
@@ -3192,7 +3204,7 @@
       </c>
       <c r="J58" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-46</v>
+        <v>-44</v>
       </c>
       <c r="K58" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -3200,7 +3212,7 @@
       </c>
       <c r="L58" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-10</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -3256,13 +3268,13 @@
         <v>477</v>
       </c>
       <c r="D60">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E60">
         <v>354</v>
       </c>
       <c r="F60">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G60" s="3">
         <v>370</v>
@@ -3276,7 +3288,7 @@
       </c>
       <c r="J60" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -3284,7 +3296,7 @@
       </c>
       <c r="L60" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3298,13 +3310,13 @@
         <v>376</v>
       </c>
       <c r="D61">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E61">
         <v>400</v>
       </c>
       <c r="F61">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G61" s="3">
         <v>370</v>
@@ -3318,7 +3330,7 @@
       </c>
       <c r="J61" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K61" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -3326,7 +3338,7 @@
       </c>
       <c r="L61" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -3340,13 +3352,13 @@
         <v>262</v>
       </c>
       <c r="D62">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E62">
         <v>411</v>
       </c>
       <c r="F62">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G62" s="3">
         <v>350</v>
@@ -3360,15 +3372,15 @@
       </c>
       <c r="J62" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>-8</v>
+      </c>
+      <c r="K62" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>61</v>
+      </c>
+      <c r="L62" s="3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-12</v>
-      </c>
-      <c r="K62" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>61</v>
-      </c>
-      <c r="L62" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-14</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -3760,13 +3772,13 @@
         <v>149</v>
       </c>
       <c r="D72">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E72">
         <v>200</v>
       </c>
       <c r="F72">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G72" s="3">
         <v>160</v>
@@ -3780,7 +3792,7 @@
       </c>
       <c r="J72" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K72" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -3788,7 +3800,7 @@
       </c>
       <c r="L72" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3802,13 +3814,13 @@
         <v>98</v>
       </c>
       <c r="D73">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E73">
         <v>187</v>
       </c>
       <c r="F73">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G73" s="3">
         <v>130</v>
@@ -3822,7 +3834,7 @@
       </c>
       <c r="J73" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K73" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -3830,7 +3842,7 @@
       </c>
       <c r="L73" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3844,13 +3856,13 @@
         <v>160</v>
       </c>
       <c r="D74">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E74">
         <v>190</v>
       </c>
       <c r="F74">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G74" s="3">
         <v>150</v>
@@ -3864,7 +3876,7 @@
       </c>
       <c r="J74" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="K74" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -3872,7 +3884,7 @@
       </c>
       <c r="L74" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3886,13 +3898,13 @@
         <v>89</v>
       </c>
       <c r="D75">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E75">
         <v>120</v>
       </c>
       <c r="F75">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G75" s="3">
         <v>120</v>
@@ -3906,7 +3918,7 @@
       </c>
       <c r="J75" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="K75" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -3914,7 +3926,7 @@
       </c>
       <c r="L75" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-41</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -4012,13 +4024,13 @@
         <v>122</v>
       </c>
       <c r="D78">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E78">
         <v>157</v>
       </c>
       <c r="F78">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G78" s="3">
         <v>150</v>
@@ -4032,7 +4044,7 @@
       </c>
       <c r="J78" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="K78" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -4040,7 +4052,7 @@
       </c>
       <c r="L78" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-16</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -4225,10 +4237,10 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>1162</v>
+        <v>1145</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4246,11 +4258,11 @@
       </c>
       <c r="K83" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>1162</v>
+        <v>1145</v>
       </c>
       <c r="L83" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M83" t="s">
         <v>76</v>
@@ -4267,13 +4279,13 @@
         <v>354</v>
       </c>
       <c r="D84">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E84">
         <v>156</v>
       </c>
       <c r="F84">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G84" s="3">
         <v>140</v>
@@ -4287,7 +4299,7 @@
       </c>
       <c r="J84" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-35</v>
+        <v>-25</v>
       </c>
       <c r="K84" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -4295,7 +4307,7 @@
       </c>
       <c r="L84" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-35</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -4480,10 +4492,10 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="F89">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4501,11 +4513,11 @@
       </c>
       <c r="K89" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="L89" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M89" t="s">
         <v>74</v>
@@ -4648,13 +4660,13 @@
         <v>218</v>
       </c>
       <c r="D93">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E93">
         <v>184</v>
       </c>
       <c r="F93">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G93" s="3">
         <v>200</v>
@@ -4668,7 +4680,7 @@
       </c>
       <c r="J93" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-24</v>
+        <v>-18</v>
       </c>
       <c r="K93" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -4676,7 +4688,7 @@
       </c>
       <c r="L93" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-18</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -4690,13 +4702,13 @@
         <v>134</v>
       </c>
       <c r="D94">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E94">
         <v>140</v>
       </c>
       <c r="F94">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G94" s="3">
         <v>110</v>
@@ -4710,7 +4722,7 @@
       </c>
       <c r="J94" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K94" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -4718,7 +4730,7 @@
       </c>
       <c r="L94" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -4732,13 +4744,13 @@
         <v>172</v>
       </c>
       <c r="D95">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E95">
         <v>170</v>
       </c>
       <c r="F95">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G95" s="3">
         <v>160</v>
@@ -4752,7 +4764,7 @@
       </c>
       <c r="J95" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="K95" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -4760,7 +4772,7 @@
       </c>
       <c r="L95" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-7</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -4774,13 +4786,13 @@
         <v>156</v>
       </c>
       <c r="D96">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E96">
         <v>170</v>
       </c>
       <c r="F96">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G96" s="3">
         <v>160</v>
@@ -4794,7 +4806,7 @@
       </c>
       <c r="J96" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="K96" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -4802,7 +4814,7 @@
       </c>
       <c r="L96" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-21</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
@@ -4816,13 +4828,13 @@
         <v>250</v>
       </c>
       <c r="D97">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E97">
         <v>250</v>
       </c>
       <c r="F97">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G97" s="3">
         <v>210</v>
@@ -4836,7 +4848,7 @@
       </c>
       <c r="J97" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K97" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -4844,7 +4856,7 @@
       </c>
       <c r="L97" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
@@ -5077,7 +5089,7 @@
         <v>90</v>
       </c>
       <c r="F103">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G103" s="3">
         <v>0</v>
@@ -5099,7 +5111,7 @@
       </c>
       <c r="L103" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
@@ -5113,10 +5125,10 @@
         <v>108</v>
       </c>
       <c r="D104">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E104">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="F104">
         <v>30</v>
@@ -5133,11 +5145,11 @@
       </c>
       <c r="J104" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-17</v>
+        <v>-13</v>
       </c>
       <c r="K104" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="L104" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
@@ -5197,13 +5209,13 @@
         <v>189</v>
       </c>
       <c r="D106">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E106">
         <v>264</v>
       </c>
       <c r="F106">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G106" s="3">
         <v>140</v>
@@ -5217,7 +5229,7 @@
       </c>
       <c r="J106" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="K106" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -5225,7 +5237,7 @@
       </c>
       <c r="L106" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-10</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
@@ -5239,13 +5251,13 @@
         <v>202</v>
       </c>
       <c r="D107">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E107">
         <v>219</v>
       </c>
       <c r="F107">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G107" s="3">
         <v>150</v>
@@ -5259,7 +5271,7 @@
       </c>
       <c r="J107" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K107" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -5267,7 +5279,7 @@
       </c>
       <c r="L107" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -5287,7 +5299,7 @@
         <v>158</v>
       </c>
       <c r="F108">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G108" s="3">
         <v>110</v>
@@ -5309,7 +5321,7 @@
       </c>
       <c r="L108" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -5323,13 +5335,13 @@
         <v>168</v>
       </c>
       <c r="D109">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E109">
         <v>246</v>
       </c>
       <c r="F109">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G109" s="3">
         <v>200</v>
@@ -5343,7 +5355,7 @@
       </c>
       <c r="J109" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="K109" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -5351,7 +5363,7 @@
       </c>
       <c r="L109" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-47</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
@@ -5365,13 +5377,13 @@
         <v>121</v>
       </c>
       <c r="D110">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="E110">
         <v>135</v>
       </c>
       <c r="F110">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G110" s="3">
         <v>60</v>
@@ -5385,7 +5397,7 @@
       </c>
       <c r="J110" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-18</v>
+        <v>6</v>
       </c>
       <c r="K110" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -5393,7 +5405,7 @@
       </c>
       <c r="L110" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
@@ -5449,7 +5461,7 @@
         <v>124</v>
       </c>
       <c r="D112">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E112" t="s">
         <v>67</v>
@@ -5469,7 +5481,7 @@
       </c>
       <c r="J112" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K112" s="3" t="e">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -5533,7 +5545,7 @@
         <v>279</v>
       </c>
       <c r="D114">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E114">
         <v>278</v>
@@ -5553,7 +5565,7 @@
       </c>
       <c r="J114" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="K114" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -5785,13 +5797,13 @@
         <v>126</v>
       </c>
       <c r="D120">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E120">
         <v>117</v>
       </c>
       <c r="F120">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G120" s="3">
         <v>150</v>
@@ -5805,7 +5817,7 @@
       </c>
       <c r="J120" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K120" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -5813,7 +5825,7 @@
       </c>
       <c r="L120" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-12</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -5827,13 +5839,13 @@
         <v>184</v>
       </c>
       <c r="D121">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E121">
         <v>214</v>
       </c>
       <c r="F121">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G121" s="3">
         <v>140</v>
@@ -5847,7 +5859,7 @@
       </c>
       <c r="J121" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K121" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -5855,7 +5867,7 @@
       </c>
       <c r="L121" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -5869,7 +5881,7 @@
         <v>260</v>
       </c>
       <c r="D122">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E122">
         <v>271</v>
@@ -5889,7 +5901,7 @@
       </c>
       <c r="J122" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="K122" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -5911,13 +5923,13 @@
         <v>198</v>
       </c>
       <c r="D123">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E123">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="F123">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="G123" s="3">
         <v>190</v>
@@ -5931,15 +5943,15 @@
       </c>
       <c r="J123" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K123" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="L123" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>20</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5953,10 +5965,10 @@
         <v>197</v>
       </c>
       <c r="D124">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E124">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="F124">
         <v>44</v>
@@ -5973,11 +5985,11 @@
       </c>
       <c r="J124" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K124" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="L124" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
@@ -6079,13 +6091,13 @@
         <v>33</v>
       </c>
       <c r="D127">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E127">
         <v>28</v>
       </c>
       <c r="F127">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="G127" s="3">
         <v>30</v>
@@ -6100,7 +6112,7 @@
       </c>
       <c r="J127" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>18.900000000000006</v>
+        <v>22.900000000000006</v>
       </c>
       <c r="K127" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -6108,7 +6120,7 @@
       </c>
       <c r="L127" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>44.900000000000006</v>
+        <v>56.900000000000006</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -6161,10 +6173,10 @@
         <v>14</v>
       </c>
       <c r="C129">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D129">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -6180,11 +6192,11 @@
       </c>
       <c r="I129" s="3">
         <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="J129" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K129" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -6206,13 +6218,13 @@
         <v>15</v>
       </c>
       <c r="D130">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="E130">
         <v>50</v>
       </c>
       <c r="F130">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="G130" s="3">
         <v>60</v>
@@ -6226,7 +6238,7 @@
       </c>
       <c r="J130" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-32</v>
+        <v>-10</v>
       </c>
       <c r="K130" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -6234,7 +6246,7 @@
       </c>
       <c r="L130" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
@@ -6290,13 +6302,13 @@
         <v>198</v>
       </c>
       <c r="D132">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E132">
         <v>10</v>
       </c>
       <c r="F132">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="G132" s="3">
         <v>110</v>
@@ -6311,7 +6323,7 @@
       </c>
       <c r="J132" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>64.5</v>
+        <v>68.5</v>
       </c>
       <c r="K132" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -6319,7 +6331,7 @@
       </c>
       <c r="L132" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>26.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
@@ -6330,7 +6342,7 @@
         <v>5</v>
       </c>
       <c r="C133">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D133">
         <v>106</v>
@@ -6349,7 +6361,7 @@
       </c>
       <c r="I133" s="3">
         <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J133" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
@@ -6375,13 +6387,13 @@
         <v>179</v>
       </c>
       <c r="D134">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E134">
         <v>63</v>
       </c>
       <c r="F134">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G134" s="3">
         <v>80</v>
@@ -6395,7 +6407,7 @@
       </c>
       <c r="J134" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="K134" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -6403,7 +6415,7 @@
       </c>
       <c r="L134" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
@@ -6417,13 +6429,13 @@
         <v>250</v>
       </c>
       <c r="D135">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E135">
         <v>71</v>
       </c>
       <c r="F135">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G135" s="3">
         <v>110</v>
@@ -6437,7 +6449,7 @@
       </c>
       <c r="J135" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="K135" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -6445,7 +6457,7 @@
       </c>
       <c r="L135" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
@@ -6459,13 +6471,13 @@
         <v>196</v>
       </c>
       <c r="D136">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E136">
         <v>80</v>
       </c>
       <c r="F136">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G136" s="3">
         <v>80</v>
@@ -6479,7 +6491,7 @@
       </c>
       <c r="J136" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K136" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -6487,7 +6499,7 @@
       </c>
       <c r="L136" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
@@ -6543,7 +6555,7 @@
         <v>257</v>
       </c>
       <c r="D138">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E138">
         <v>112</v>
@@ -6563,7 +6575,7 @@
       </c>
       <c r="J138" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="K138" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -7308,7 +7320,7 @@
         <v>125</v>
       </c>
       <c r="F156">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G156" s="3">
         <v>120</v>
@@ -7330,7 +7342,7 @@
       </c>
       <c r="L156" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -7344,13 +7356,13 @@
         <v>310</v>
       </c>
       <c r="D157">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E157">
         <v>264</v>
       </c>
       <c r="F157">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G157" s="3">
         <v>230</v>
@@ -7364,7 +7376,7 @@
       </c>
       <c r="J157" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K157" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -7372,7 +7384,7 @@
       </c>
       <c r="L157" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-20</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -7386,13 +7398,13 @@
         <v>15</v>
       </c>
       <c r="D158">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E158">
         <v>255</v>
       </c>
       <c r="F158">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G158" s="3">
         <v>140</v>
@@ -7406,7 +7418,7 @@
       </c>
       <c r="J158" s="3">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K158" s="3">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
@@ -7414,7 +7426,7 @@
       </c>
       <c r="L158" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>-25</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -7518,7 +7530,7 @@
         <v>362</v>
       </c>
       <c r="F161">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G161" s="3">
         <v>380</v>
@@ -7540,7 +7552,7 @@
       </c>
       <c r="L161" s="3">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">

--- a/code/count-distributions/manual_vs_automatic_fct_arc.xlsx
+++ b/code/count-distributions/manual_vs_automatic_fct_arc.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\code\count-distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB17A1D8-CE66-40BC-BC73-F2BD1B09B017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E410A-8291-48B4-B63C-F9CAEE487A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Measurements test set" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="79">
   <si>
     <t>pullback</t>
   </si>
@@ -276,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,13 +297,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -341,10 +353,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -356,8 +369,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -747,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G166" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,88 +905,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>61</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>100</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>82</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>50</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>92</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="6">
         <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>11</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="6">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>8</v>
       </c>
-      <c r="K4" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="K4" s="6">
+        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>110</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>90</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>134</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>76</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>60</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>99</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>50</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-9</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>74</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="6">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-23</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1189,44 +1208,44 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>102</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>238</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>112</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>236</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>60</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>236</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>42</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>2</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>52</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="6">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
@@ -1567,44 +1586,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>45</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>150</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>86</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>140</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="6">
         <v>60</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="6">
         <v>143</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="6">
         <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-15</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="6">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>7</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="6">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>26</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="6">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-3</v>
       </c>
@@ -1990,86 +2009,86 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>64</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>216</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>92</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="5">
         <v>210</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="6">
         <v>50</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="6">
         <v>213</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="6">
         <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>14</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="6">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>3</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="6">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>42</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="6">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>60</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>190</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="5">
         <v>91</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="5">
         <v>182</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="6">
         <v>50</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="6">
         <v>197</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="6">
         <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>10</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="6">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-7</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="6">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>41</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="6">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-15</v>
       </c>
@@ -2879,86 +2898,86 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="5">
         <v>30</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="5">
         <v>130</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="5">
         <v>50</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="5">
         <v>124</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="6">
         <v>30</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="6">
         <v>128</v>
       </c>
-      <c r="I51" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="3">
+      <c r="I51" s="6">
+        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>2</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="6">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>20</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="6">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-4</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="5">
         <v>70</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="5">
         <v>104</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="5">
         <v>45</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="5">
         <v>104</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="6">
         <v>60</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="6">
         <v>101</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="6">
         <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>10</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="6">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>3</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="6">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-15</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="6">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>3</v>
       </c>
@@ -5366,44 +5385,44 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="110" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="5">
         <v>121</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="5">
         <v>236</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="5">
         <v>135</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="5">
         <v>254</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G110" s="6">
         <v>60</v>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="6">
         <v>230</v>
       </c>
-      <c r="I110" s="3">
+      <c r="I110" s="6">
         <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>61</v>
       </c>
-      <c r="J110" s="3">
+      <c r="J110" s="6">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>6</v>
       </c>
-      <c r="K110" s="3">
+      <c r="K110" s="6">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>75</v>
       </c>
-      <c r="L110" s="3">
+      <c r="L110" s="6">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>24</v>
       </c>
@@ -6080,45 +6099,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="127" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="5">
         <v>33</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="5">
         <v>244</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="5">
         <v>28</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="5">
         <v>278</v>
       </c>
-      <c r="G127" s="3">
+      <c r="G127" s="6">
         <v>30</v>
       </c>
-      <c r="H127" s="3">
+      <c r="H127" s="6">
         <f>105.8+115.3</f>
         <v>221.1</v>
       </c>
-      <c r="I127" s="3">
+      <c r="I127" s="6">
         <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>3</v>
       </c>
-      <c r="J127" s="3">
+      <c r="J127" s="6">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>22.900000000000006</v>
       </c>
-      <c r="K127" s="3">
+      <c r="K127" s="6">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-2</v>
       </c>
-      <c r="L127" s="3">
+      <c r="L127" s="6">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>56.900000000000006</v>
       </c>
@@ -6207,44 +6226,44 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="130" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="5">
         <v>15</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="5">
         <v>208</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="5">
         <v>50</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="5">
         <v>222</v>
       </c>
-      <c r="G130" s="3">
+      <c r="G130" s="6">
         <v>60</v>
       </c>
-      <c r="H130" s="3">
+      <c r="H130" s="6">
         <v>218</v>
       </c>
-      <c r="I130" s="3">
+      <c r="I130" s="6">
         <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-45</v>
       </c>
-      <c r="J130" s="3">
+      <c r="J130" s="6">
         <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-10</v>
       </c>
-      <c r="K130" s="3">
+      <c r="K130" s="6">
         <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-10</v>
       </c>
-      <c r="L130" s="3">
+      <c r="L130" s="6">
         <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>4</v>
       </c>

--- a/code/count-distributions/manual_vs_automatic_fct_arc.xlsx
+++ b/code/count-distributions/manual_vs_automatic_fct_arc.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\code\count-distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E410A-8291-48B4-B63C-F9CAEE487A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32811B3E-E5FC-4032-9D30-57C9EA533981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurements test set" sheetId="1" r:id="rId1"/>
+    <sheet name="Plots" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="82">
   <si>
     <t>pullback</t>
   </si>
@@ -230,21 +231,6 @@
     <t>Observation</t>
   </si>
   <si>
-    <t>FCT automatic v2</t>
-  </si>
-  <si>
-    <t>Lipid arc automatic v2</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>FCT model 3 2D v2</t>
-  </si>
-  <si>
-    <t>Lipid arc model 3 2D v2</t>
-  </si>
-  <si>
     <t>Difference FCT (manual segs)</t>
   </si>
   <si>
@@ -270,13 +256,37 @@
   </si>
   <si>
     <t>Weird manual measurement</t>
+  </si>
+  <si>
+    <t>FCT model 3 2D</t>
+  </si>
+  <si>
+    <t>Lipid arc model 3 2D</t>
+  </si>
+  <si>
+    <t>Lipid arc automatic</t>
+  </si>
+  <si>
+    <t>FCT automatic</t>
+  </si>
+  <si>
+    <t>Pearson corr</t>
+  </si>
+  <si>
+    <t>FCT</t>
+  </si>
+  <si>
+    <t>Lipid arc</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +310,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -357,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -371,14 +395,93 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -399,7 +502,10 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -442,8 +548,257 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C52877-32DF-8CE9-07D3-1B24D34D500D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2857500" y="1028700"/>
+          <a:ext cx="4581525" cy="3638550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE617F9-D36A-943C-C1B6-77C94A34E0E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8629650" y="923925"/>
+          <a:ext cx="4581525" cy="3629025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0E688B-C712-31C2-B366-FF04724B38D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3171825" y="4972050"/>
+          <a:ext cx="4581525" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D125392-29C3-FC26-732C-1936CD7D1A0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8772525" y="4991100"/>
+          <a:ext cx="4581525" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{627F69A6-40FB-4B8F-B019-968DD6D0195F}" name="Table1" displayName="Table1" ref="A1:M163" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{627F69A6-40FB-4B8F-B019-968DD6D0195F}" name="Table1" displayName="Table1" ref="A1:M163" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:M163" xr:uid="{627F69A6-40FB-4B8F-B019-968DD6D0195F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B163">
     <sortCondition ref="A2:A163"/>
@@ -452,25 +807,36 @@
   <tableColumns count="13">
     <tableColumn id="2" xr3:uid="{2C0E160C-6798-4885-8731-C625EA9FCD7D}" name="pullback"/>
     <tableColumn id="3" xr3:uid="{44E5B83C-AD90-4B86-865E-DC4CCE862E5A}" name="frame"/>
-    <tableColumn id="8" xr3:uid="{95535434-BD5F-421C-AE0B-1B40C5FD1944}" name="FCT automatic v2" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{D55069E1-AA5A-4AF5-82C8-0FC59C6B41A1}" name="Lipid arc automatic v2" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{6E88408F-7EAE-4D70-BEEC-B7D3D2E6F5DD}" name="FCT model 3 2D v2"/>
-    <tableColumn id="11" xr3:uid="{D0678634-A08B-452E-B25F-2964F18ADA7D}" name="Lipid arc model 3 2D v2"/>
-    <tableColumn id="6" xr3:uid="{647ED19A-12EE-48BA-B5F2-0DA0D312A6EB}" name="FCT manual" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{35F9E1BF-544E-4C84-A267-F8C76EA6A296}" name="Lipid arc manual" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{6C89EED6-A37E-43E0-9D05-325F0FF5B398}" name="Difference FCT (manual segs)" dataDxfId="3">
-      <calculatedColumnFormula>#REF!-Table1[[#This Row],[FCT manual]]</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{C0A74A72-BD89-408E-AD53-F23672A8818A}" name="FCT automatic"/>
+    <tableColumn id="17" xr3:uid="{77D53405-EDB2-43D0-9177-2DB249246817}" name="Lipid arc automatic"/>
+    <tableColumn id="14" xr3:uid="{37865D35-775D-40CA-9A37-5413B7E1EA12}" name="FCT model 3 2D" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{2FF6F639-578D-4C21-BB55-00E4538C1756}" name="Lipid arc model 3 2D" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{647ED19A-12EE-48BA-B5F2-0DA0D312A6EB}" name="FCT manual" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{35F9E1BF-544E-4C84-A267-F8C76EA6A296}" name="Lipid arc manual" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{6C89EED6-A37E-43E0-9D05-325F0FF5B398}" name="Difference FCT (manual segs)" dataDxfId="7">
+      <calculatedColumnFormula>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{C4605D00-0ECB-41CD-B40C-285B95EF7363}" name="Difference lipid arc (manual segs)" dataDxfId="2">
-      <calculatedColumnFormula>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{C4605D00-0ECB-41CD-B40C-285B95EF7363}" name="Difference lipid arc (manual segs)" dataDxfId="6">
+      <calculatedColumnFormula>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{1E93C117-3898-4E2F-90C7-E91EA92F3F14}" name="Difference FCT (model 3 2D)" dataDxfId="1">
-      <calculatedColumnFormula>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{1E93C117-3898-4E2F-90C7-E91EA92F3F14}" name="Difference FCT (model 3 2D)" dataDxfId="5">
+      <calculatedColumnFormula>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A8273017-044D-4278-92CA-38CB7C4F9336}" name="Difference lipid arc (model 3 2D)" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{A8273017-044D-4278-92CA-38CB7C4F9336}" name="Difference lipid arc (model 3 2D)" dataDxfId="4">
+      <calculatedColumnFormula>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{85CE63A1-F429-4A32-B0D4-E639FF525C40}" name="Observation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA7CF5B6-4428-401D-99B2-9E5C17D357AD}" name="Table2" displayName="Table2" ref="B6:C8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="B6:C8" xr:uid="{EA7CF5B6-4428-401D-99B2-9E5C17D357AD}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{67CF5BB4-3446-4CE0-8854-5C073197F0FD}" name="Type" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{6ED93558-D522-470E-9525-213E4C9D3951}" name="Pearson corr" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -763,24 +1129,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" customWidth="1"/>
-    <col min="7" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" customWidth="1"/>
-    <col min="10" max="12" width="32.21875" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" customWidth="1"/>
-    <col min="15" max="15" width="30.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+    <col min="10" max="13" width="32.28515625" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,16 +1153,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
         <v>62</v>
@@ -806,22 +1171,22 @@
         <v>63</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -834,7 +1199,7 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>0</v>
       </c>
       <c r="F2">
@@ -847,23 +1212,23 @@
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K2" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L2" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -876,7 +1241,7 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3">
@@ -889,23 +1254,23 @@
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -918,10 +1283,10 @@
       <c r="D4" s="5">
         <v>100</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="8">
         <v>50</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="10">
         <v>82</v>
       </c>
       <c r="G4" s="6">
@@ -931,23 +1296,23 @@
         <v>92</v>
       </c>
       <c r="I4" s="6">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>11</v>
       </c>
       <c r="J4" s="6">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>8</v>
       </c>
       <c r="K4" s="6">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L4" s="6">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -960,10 +1325,10 @@
       <c r="D5" s="5">
         <v>90</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="8">
         <v>134</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="10">
         <v>76</v>
       </c>
       <c r="G5" s="6">
@@ -973,26 +1338,26 @@
         <v>99</v>
       </c>
       <c r="I5" s="6">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>50</v>
       </c>
       <c r="J5" s="6">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-9</v>
       </c>
       <c r="K5" s="6">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>74</v>
       </c>
       <c r="L5" s="6">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-23</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1005,7 +1370,7 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>0</v>
       </c>
       <c r="F6">
@@ -1018,23 +1383,23 @@
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L6" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1047,10 +1412,10 @@
       <c r="D7">
         <v>234</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>132</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>268</v>
       </c>
       <c r="G7" s="3">
@@ -1060,23 +1425,23 @@
         <v>249</v>
       </c>
       <c r="I7" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>22</v>
       </c>
       <c r="J7" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-15</v>
       </c>
       <c r="K7" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>22</v>
       </c>
       <c r="L7" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1089,10 +1454,10 @@
       <c r="D8">
         <v>106</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>514</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <v>28</v>
       </c>
       <c r="G8" s="3">
@@ -1102,26 +1467,26 @@
         <v>59</v>
       </c>
       <c r="I8" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-35</v>
       </c>
       <c r="J8" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>47</v>
       </c>
       <c r="K8" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>224</v>
       </c>
       <c r="L8" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-31</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1134,10 +1499,10 @@
       <c r="D9">
         <v>148</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>403</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <v>124</v>
       </c>
       <c r="G9" s="3">
@@ -1147,23 +1512,23 @@
         <v>143</v>
       </c>
       <c r="I9" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-100</v>
       </c>
       <c r="J9" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>5</v>
       </c>
       <c r="K9" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>63</v>
       </c>
       <c r="L9" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1176,10 +1541,10 @@
       <c r="D10">
         <v>216</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>152</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <v>192</v>
       </c>
       <c r="G10" s="3">
@@ -1189,26 +1554,26 @@
         <v>165</v>
       </c>
       <c r="I10" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-26</v>
       </c>
       <c r="J10" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>51</v>
       </c>
       <c r="K10" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-18</v>
       </c>
       <c r="L10" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>27</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1221,10 +1586,10 @@
       <c r="D11" s="5">
         <v>238</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="8">
         <v>112</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="10">
         <v>236</v>
       </c>
       <c r="G11" s="6">
@@ -1234,23 +1599,23 @@
         <v>236</v>
       </c>
       <c r="I11" s="6">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>42</v>
       </c>
       <c r="J11" s="6">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>2</v>
       </c>
       <c r="K11" s="6">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>52</v>
       </c>
       <c r="L11" s="6">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1263,10 +1628,10 @@
       <c r="D12">
         <v>130</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>142</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="9">
         <v>112</v>
       </c>
       <c r="G12" s="3">
@@ -1276,23 +1641,23 @@
         <v>119</v>
       </c>
       <c r="I12" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>64</v>
       </c>
       <c r="J12" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>11</v>
       </c>
       <c r="K12" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>72</v>
       </c>
       <c r="L12" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1305,7 +1670,7 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>0</v>
       </c>
       <c r="F13">
@@ -1318,23 +1683,23 @@
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L13" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1347,10 +1712,10 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>273</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="9">
         <v>42</v>
       </c>
       <c r="G14" s="3">
@@ -1360,23 +1725,23 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>273</v>
       </c>
       <c r="L14" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1389,7 +1754,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>0</v>
       </c>
       <c r="F15">
@@ -1402,23 +1767,23 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1431,10 +1796,10 @@
       <c r="D16">
         <v>74</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>394</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="9">
         <v>12</v>
       </c>
       <c r="G16" s="3">
@@ -1444,23 +1809,23 @@
         <v>54</v>
       </c>
       <c r="I16" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>49</v>
       </c>
       <c r="J16" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>20</v>
       </c>
       <c r="K16" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>244</v>
       </c>
       <c r="L16" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-42</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1473,7 +1838,7 @@
       <c r="D17">
         <v>46</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>0</v>
       </c>
       <c r="F17">
@@ -1486,23 +1851,23 @@
         <v>33</v>
       </c>
       <c r="I17" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>111</v>
       </c>
       <c r="J17" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>13</v>
       </c>
       <c r="K17" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-170</v>
       </c>
       <c r="L17" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-33</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1515,7 +1880,7 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>0</v>
       </c>
       <c r="F18">
@@ -1528,23 +1893,23 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1557,7 +1922,7 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>0</v>
       </c>
       <c r="F19">
@@ -1570,23 +1935,23 @@
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K19" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L19" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -1599,10 +1964,10 @@
       <c r="D20" s="5">
         <v>150</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="8">
         <v>86</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="10">
         <v>140</v>
       </c>
       <c r="G20" s="6">
@@ -1612,23 +1977,23 @@
         <v>143</v>
       </c>
       <c r="I20" s="6">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-15</v>
       </c>
       <c r="J20" s="6">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>7</v>
       </c>
       <c r="K20" s="6">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>26</v>
       </c>
       <c r="L20" s="6">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1641,10 +2006,10 @@
       <c r="D21">
         <v>122</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>64</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="9">
         <v>138</v>
       </c>
       <c r="G21" s="3">
@@ -1654,23 +2019,23 @@
         <v>120</v>
       </c>
       <c r="I21" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-3</v>
       </c>
       <c r="J21" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>2</v>
       </c>
       <c r="K21" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-6</v>
       </c>
       <c r="L21" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1683,7 +2048,7 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>0</v>
       </c>
       <c r="F22">
@@ -1696,23 +2061,23 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1725,10 +2090,10 @@
       <c r="D23">
         <v>88</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <v>440</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="9">
         <v>66</v>
       </c>
       <c r="G23" s="3">
@@ -1738,23 +2103,23 @@
         <v>62</v>
       </c>
       <c r="I23" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-184</v>
       </c>
       <c r="J23" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>26</v>
       </c>
       <c r="K23" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-280</v>
       </c>
       <c r="L23" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1767,7 +2132,7 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>0</v>
       </c>
       <c r="F24">
@@ -1780,23 +2145,23 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1809,7 +2174,7 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <v>0</v>
       </c>
       <c r="F25">
@@ -1822,23 +2187,23 @@
         <v>0</v>
       </c>
       <c r="I25" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K25" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L25" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1851,7 +2216,7 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="7">
         <v>0</v>
       </c>
       <c r="F26">
@@ -1864,23 +2229,23 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1893,7 +2258,7 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="7">
         <v>0</v>
       </c>
       <c r="F27">
@@ -1906,23 +2271,23 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1935,10 +2300,10 @@
       <c r="D28">
         <v>108</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="7">
         <v>382</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="9">
         <v>98</v>
       </c>
       <c r="G28" s="3">
@@ -1948,23 +2313,23 @@
         <v>93</v>
       </c>
       <c r="I28" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-83</v>
       </c>
       <c r="J28" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>15</v>
       </c>
       <c r="K28" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>102</v>
       </c>
       <c r="L28" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1977,10 +2342,10 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <v>485</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="9">
         <v>52</v>
       </c>
       <c r="G29" s="3">
@@ -1990,26 +2355,26 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>485</v>
       </c>
       <c r="L29" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>52</v>
       </c>
       <c r="M29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>22</v>
       </c>
@@ -2022,10 +2387,10 @@
       <c r="D30" s="5">
         <v>216</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="8">
         <v>92</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="10">
         <v>210</v>
       </c>
       <c r="G30" s="6">
@@ -2035,23 +2400,23 @@
         <v>213</v>
       </c>
       <c r="I30" s="6">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>14</v>
       </c>
       <c r="J30" s="6">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>3</v>
       </c>
       <c r="K30" s="6">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>42</v>
       </c>
       <c r="L30" s="6">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
@@ -2064,10 +2429,10 @@
       <c r="D31" s="5">
         <v>190</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="8">
         <v>91</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="10">
         <v>182</v>
       </c>
       <c r="G31" s="6">
@@ -2077,23 +2442,23 @@
         <v>197</v>
       </c>
       <c r="I31" s="6">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>10</v>
       </c>
       <c r="J31" s="6">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-7</v>
       </c>
       <c r="K31" s="6">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>41</v>
       </c>
       <c r="L31" s="6">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-15</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2106,7 +2471,7 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="7">
         <v>0</v>
       </c>
       <c r="F32">
@@ -2119,23 +2484,23 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2148,10 +2513,10 @@
       <c r="D33">
         <v>172</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="7">
         <v>225</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="9">
         <v>142</v>
       </c>
       <c r="G33" s="3">
@@ -2162,23 +2527,23 @@
         <v>163.6</v>
       </c>
       <c r="I33" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-50</v>
       </c>
       <c r="J33" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>8.4000000000000057</v>
       </c>
       <c r="K33" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-5</v>
       </c>
       <c r="L33" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-21.599999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -2191,8 +2556,8 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34">
-        <v>0</v>
+      <c r="E34" s="7">
+        <v>239</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2204,23 +2569,23 @@
         <v>0</v>
       </c>
       <c r="I34" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J34" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K34" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>0</v>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>239</v>
       </c>
       <c r="L34" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -2233,7 +2598,7 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="7">
         <v>0</v>
       </c>
       <c r="F35">
@@ -2246,23 +2611,23 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2275,7 +2640,7 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="7">
         <v>0</v>
       </c>
       <c r="F36">
@@ -2288,23 +2653,23 @@
         <v>0</v>
       </c>
       <c r="I36" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J36" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L36" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -2317,7 +2682,7 @@
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="7">
         <v>0</v>
       </c>
       <c r="F37">
@@ -2330,23 +2695,23 @@
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J37" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K37" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L37" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -2359,10 +2724,10 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="7">
         <v>430</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="9">
         <v>52</v>
       </c>
       <c r="G38" s="3">
@@ -2372,26 +2737,26 @@
         <v>0</v>
       </c>
       <c r="I38" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J38" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K38" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>430</v>
       </c>
       <c r="L38" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>52</v>
       </c>
       <c r="M38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -2404,10 +2769,10 @@
       <c r="D39">
         <v>66</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="7">
         <v>608</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="9">
         <v>70</v>
       </c>
       <c r="G39" s="3">
@@ -2417,23 +2782,23 @@
         <v>68</v>
       </c>
       <c r="I39" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-22</v>
       </c>
       <c r="J39" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-2</v>
       </c>
       <c r="K39" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>38</v>
       </c>
       <c r="L39" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -2446,10 +2811,10 @@
       <c r="D40">
         <v>126</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="7">
         <v>212</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="9">
         <v>132</v>
       </c>
       <c r="G40" s="3">
@@ -2459,23 +2824,23 @@
         <v>119</v>
       </c>
       <c r="I40" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>140</v>
       </c>
       <c r="J40" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>7</v>
       </c>
       <c r="K40" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>12</v>
       </c>
       <c r="L40" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -2488,10 +2853,10 @@
       <c r="D41">
         <v>158</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="7">
         <v>345</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="9">
         <v>166</v>
       </c>
       <c r="G41" s="3">
@@ -2501,23 +2866,23 @@
         <v>162</v>
       </c>
       <c r="I41" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>55</v>
       </c>
       <c r="J41" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-4</v>
       </c>
       <c r="K41" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>25</v>
       </c>
       <c r="L41" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -2530,10 +2895,10 @@
       <c r="D42">
         <v>126</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="7">
         <v>278</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="9">
         <v>138</v>
       </c>
       <c r="G42" s="3">
@@ -2544,23 +2909,23 @@
         <v>140.6</v>
       </c>
       <c r="I42" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>80</v>
       </c>
       <c r="J42" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-14.599999999999994</v>
       </c>
       <c r="K42" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-52</v>
       </c>
       <c r="L42" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-2.5999999999999943</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -2573,10 +2938,10 @@
       <c r="D43">
         <v>154</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="7">
         <v>252</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="9">
         <v>140</v>
       </c>
       <c r="G43" s="3">
@@ -2587,23 +2952,23 @@
         <v>140.69999999999999</v>
       </c>
       <c r="I43" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-5</v>
       </c>
       <c r="J43" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>13.300000000000011</v>
       </c>
       <c r="K43" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>42</v>
       </c>
       <c r="L43" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-0.69999999999998863</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -2616,10 +2981,10 @@
       <c r="D44">
         <v>130</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="7">
         <v>182</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="9">
         <v>104</v>
       </c>
       <c r="G44" s="3">
@@ -2630,23 +2995,23 @@
         <v>123</v>
       </c>
       <c r="I44" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>48</v>
       </c>
       <c r="J44" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>7</v>
       </c>
       <c r="K44" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>32</v>
       </c>
       <c r="L44" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -2659,10 +3024,10 @@
       <c r="D45">
         <v>160</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="7">
         <v>354</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="9">
         <v>114</v>
       </c>
       <c r="G45" s="3">
@@ -2672,23 +3037,23 @@
         <v>161</v>
       </c>
       <c r="I45" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>55</v>
       </c>
       <c r="J45" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-1</v>
       </c>
       <c r="K45" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>64</v>
       </c>
       <c r="L45" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-47</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -2701,7 +3066,7 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="7">
         <v>0</v>
       </c>
       <c r="F46">
@@ -2714,23 +3079,23 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -2743,7 +3108,7 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="7">
         <v>0</v>
       </c>
       <c r="F47">
@@ -2756,23 +3121,23 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -2785,7 +3150,7 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="7">
         <v>0</v>
       </c>
       <c r="F48">
@@ -2798,23 +3163,23 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -2827,7 +3192,7 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="7">
         <v>0</v>
       </c>
       <c r="F49">
@@ -2840,23 +3205,23 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -2869,10 +3234,10 @@
       <c r="D50">
         <v>108</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="7">
         <v>67</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="9">
         <v>122</v>
       </c>
       <c r="G50" s="3">
@@ -2882,23 +3247,23 @@
         <v>92</v>
       </c>
       <c r="I50" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-13</v>
       </c>
       <c r="J50" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>16</v>
       </c>
       <c r="K50" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-13</v>
       </c>
       <c r="L50" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>34</v>
       </c>
@@ -2911,10 +3276,10 @@
       <c r="D51" s="5">
         <v>130</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="8">
         <v>50</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="10">
         <v>124</v>
       </c>
       <c r="G51" s="6">
@@ -2924,23 +3289,23 @@
         <v>128</v>
       </c>
       <c r="I51" s="6">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J51" s="6">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>2</v>
       </c>
       <c r="K51" s="6">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>20</v>
       </c>
       <c r="L51" s="6">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-4</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>34</v>
       </c>
@@ -2953,10 +3318,10 @@
       <c r="D52" s="5">
         <v>104</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="8">
         <v>45</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="10">
         <v>104</v>
       </c>
       <c r="G52" s="6">
@@ -2966,23 +3331,23 @@
         <v>101</v>
       </c>
       <c r="I52" s="6">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>10</v>
       </c>
       <c r="J52" s="6">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>3</v>
       </c>
       <c r="K52" s="6">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-15</v>
       </c>
       <c r="L52" s="6">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -2995,10 +3360,10 @@
       <c r="D53">
         <v>96</v>
       </c>
-      <c r="E53">
-        <v>418</v>
-      </c>
-      <c r="F53">
+      <c r="E53" s="7">
+        <v>415</v>
+      </c>
+      <c r="F53" s="9">
         <v>64</v>
       </c>
       <c r="G53" s="3">
@@ -3007,24 +3372,24 @@
       <c r="H53" s="3">
         <v>91</v>
       </c>
-      <c r="I53" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+      <c r="I53">
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-108</v>
       </c>
       <c r="J53" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>5</v>
       </c>
       <c r="K53" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>118</v>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>115</v>
       </c>
       <c r="L53" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-27</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -3037,10 +3402,10 @@
       <c r="D54">
         <v>72</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="7">
         <v>326</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="9">
         <v>60</v>
       </c>
       <c r="G54" s="3">
@@ -3050,23 +3415,23 @@
         <v>54</v>
       </c>
       <c r="I54" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>73</v>
       </c>
       <c r="J54" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>18</v>
       </c>
       <c r="K54" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-44</v>
       </c>
       <c r="L54" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -3079,10 +3444,10 @@
       <c r="D55">
         <v>104</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="7">
         <v>184</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="9">
         <v>118</v>
       </c>
       <c r="G55" s="3">
@@ -3092,23 +3457,23 @@
         <v>106</v>
       </c>
       <c r="I55" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-12</v>
       </c>
       <c r="J55" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-2</v>
       </c>
       <c r="K55" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>14</v>
       </c>
       <c r="L55" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -3121,10 +3486,10 @@
       <c r="D56">
         <v>98</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="7">
         <v>71</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="9">
         <v>88</v>
       </c>
       <c r="G56" s="3">
@@ -3134,23 +3499,23 @@
         <v>88</v>
       </c>
       <c r="I56" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-50</v>
       </c>
       <c r="J56" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>10</v>
       </c>
       <c r="K56" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>11</v>
       </c>
       <c r="L56" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -3163,10 +3528,10 @@
       <c r="D57">
         <v>76</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="7">
         <v>163</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="9">
         <v>72</v>
       </c>
       <c r="G57" s="3">
@@ -3176,23 +3541,23 @@
         <v>75</v>
       </c>
       <c r="I57" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>79</v>
       </c>
       <c r="J57" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>1</v>
       </c>
       <c r="K57" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>53</v>
       </c>
       <c r="L57" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -3205,10 +3570,10 @@
       <c r="D58">
         <v>78</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="7">
         <v>140</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="9">
         <v>116</v>
       </c>
       <c r="G58" s="3">
@@ -3218,23 +3583,23 @@
         <v>122</v>
       </c>
       <c r="I58" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>247</v>
       </c>
       <c r="J58" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-44</v>
       </c>
       <c r="K58" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>50</v>
       </c>
       <c r="L58" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-6</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -3247,10 +3612,10 @@
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="7">
         <v>310</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="9">
         <v>64</v>
       </c>
       <c r="G59" s="3">
@@ -3260,23 +3625,23 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>310</v>
       </c>
       <c r="L59" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -3289,10 +3654,10 @@
       <c r="D60">
         <v>120</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="7">
         <v>354</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="9">
         <v>130</v>
       </c>
       <c r="G60" s="3">
@@ -3302,23 +3667,23 @@
         <v>120</v>
       </c>
       <c r="I60" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>107</v>
       </c>
       <c r="J60" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-16</v>
       </c>
       <c r="L60" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -3331,10 +3696,10 @@
       <c r="D61">
         <v>130</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="7">
         <v>400</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="9">
         <v>128</v>
       </c>
       <c r="G61" s="3">
@@ -3344,23 +3709,23 @@
         <v>124</v>
       </c>
       <c r="I61" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>6</v>
       </c>
       <c r="J61" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>6</v>
       </c>
       <c r="K61" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>30</v>
       </c>
       <c r="L61" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -3373,10 +3738,10 @@
       <c r="D62">
         <v>114</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="7">
         <v>411</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="9">
         <v>110</v>
       </c>
       <c r="G62" s="3">
@@ -3386,23 +3751,23 @@
         <v>122</v>
       </c>
       <c r="I62" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-88</v>
       </c>
       <c r="J62" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-8</v>
       </c>
       <c r="K62" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>61</v>
       </c>
       <c r="L62" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-12</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -3415,7 +3780,7 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="7">
         <v>0</v>
       </c>
       <c r="F63">
@@ -3428,23 +3793,23 @@
         <v>0</v>
       </c>
       <c r="I63" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J63" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K63" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L63" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -3457,7 +3822,7 @@
       <c r="D64">
         <v>0</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="7">
         <v>0</v>
       </c>
       <c r="F64">
@@ -3470,23 +3835,23 @@
         <v>0</v>
       </c>
       <c r="I64" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J64" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K64" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L64" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -3499,7 +3864,7 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="7">
         <v>0</v>
       </c>
       <c r="F65">
@@ -3512,23 +3877,23 @@
         <v>0</v>
       </c>
       <c r="I65" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J65" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K65" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L65" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -3541,7 +3906,7 @@
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="7">
         <v>0</v>
       </c>
       <c r="F66">
@@ -3554,23 +3919,23 @@
         <v>0</v>
       </c>
       <c r="I66" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J66" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L66" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -3583,7 +3948,7 @@
       <c r="D67">
         <v>0</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="7">
         <v>0</v>
       </c>
       <c r="F67">
@@ -3596,23 +3961,23 @@
         <v>0</v>
       </c>
       <c r="I67" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J67" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K67" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L67" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -3625,7 +3990,7 @@
       <c r="D68">
         <v>0</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="7">
         <v>0</v>
       </c>
       <c r="F68">
@@ -3638,23 +4003,23 @@
         <v>0</v>
       </c>
       <c r="I68" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J68" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K68" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L68" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -3667,7 +4032,7 @@
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="7">
         <v>0</v>
       </c>
       <c r="F69">
@@ -3680,23 +4045,23 @@
         <v>0</v>
       </c>
       <c r="I69" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J69" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K69" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L69" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -3709,7 +4074,7 @@
       <c r="D70">
         <v>0</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="7">
         <v>0</v>
       </c>
       <c r="F70">
@@ -3722,23 +4087,23 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -3751,7 +4116,7 @@
       <c r="D71">
         <v>0</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="7">
         <v>0</v>
       </c>
       <c r="F71">
@@ -3764,23 +4129,23 @@
         <v>0</v>
       </c>
       <c r="I71" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J71" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K71" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L71" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -3793,10 +4158,10 @@
       <c r="D72">
         <v>90</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="7">
         <v>200</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="9">
         <v>82</v>
       </c>
       <c r="G72" s="3">
@@ -3806,23 +4171,23 @@
         <v>83</v>
       </c>
       <c r="I72" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-11</v>
       </c>
       <c r="J72" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>7</v>
       </c>
       <c r="K72" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>40</v>
       </c>
       <c r="L72" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -3835,10 +4200,10 @@
       <c r="D73">
         <v>110</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="7">
         <v>187</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="9">
         <v>114</v>
       </c>
       <c r="G73" s="3">
@@ -3848,23 +4213,23 @@
         <v>99</v>
       </c>
       <c r="I73" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-32</v>
       </c>
       <c r="J73" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>11</v>
       </c>
       <c r="K73" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>57</v>
       </c>
       <c r="L73" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -3877,10 +4242,10 @@
       <c r="D74">
         <v>126</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="7">
         <v>190</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="9">
         <v>124</v>
       </c>
       <c r="G74" s="3">
@@ -3890,23 +4255,23 @@
         <v>121</v>
       </c>
       <c r="I74" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>10</v>
       </c>
       <c r="J74" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>5</v>
       </c>
       <c r="K74" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>40</v>
       </c>
       <c r="L74" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -3919,10 +4284,10 @@
       <c r="D75">
         <v>178</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="7">
         <v>120</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="9">
         <v>172</v>
       </c>
       <c r="G75" s="3">
@@ -3932,23 +4297,23 @@
         <v>205</v>
       </c>
       <c r="I75" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-31</v>
       </c>
       <c r="J75" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-27</v>
       </c>
       <c r="K75" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L75" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-33</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -3961,7 +4326,7 @@
       <c r="D76">
         <v>0</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="7">
         <v>0</v>
       </c>
       <c r="F76">
@@ -3974,23 +4339,23 @@
         <v>0</v>
       </c>
       <c r="I76" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L76" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -4003,7 +4368,7 @@
       <c r="D77">
         <v>0</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="7">
         <v>0</v>
       </c>
       <c r="F77">
@@ -4016,23 +4381,23 @@
         <v>0</v>
       </c>
       <c r="I77" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J77" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K77" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L77" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -4045,10 +4410,10 @@
       <c r="D78">
         <v>98</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="7">
         <v>157</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="9">
         <v>86</v>
       </c>
       <c r="G78" s="3">
@@ -4058,23 +4423,23 @@
         <v>98</v>
       </c>
       <c r="I78" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-28</v>
       </c>
       <c r="J78" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K78" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>7</v>
       </c>
       <c r="L78" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-12</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -4087,7 +4452,7 @@
       <c r="D79">
         <v>0</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="7">
         <v>0</v>
       </c>
       <c r="F79">
@@ -4100,23 +4465,23 @@
         <v>0</v>
       </c>
       <c r="I79" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J79" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K79" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L79" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>41</v>
       </c>
@@ -4129,7 +4494,7 @@
       <c r="D80">
         <v>0</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="7">
         <v>0</v>
       </c>
       <c r="F80">
@@ -4142,23 +4507,23 @@
         <v>0</v>
       </c>
       <c r="I80" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J80" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K80" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L80" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -4171,7 +4536,7 @@
       <c r="D81">
         <v>0</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="7">
         <v>0</v>
       </c>
       <c r="F81">
@@ -4184,23 +4549,23 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -4213,7 +4578,7 @@
       <c r="D82">
         <v>0</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="7">
         <v>0</v>
       </c>
       <c r="F82">
@@ -4226,23 +4591,23 @@
         <v>0</v>
       </c>
       <c r="I82" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J82" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K82" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L82" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -4255,10 +4620,10 @@
       <c r="D83">
         <v>0</v>
       </c>
-      <c r="E83">
-        <v>1145</v>
-      </c>
-      <c r="F83">
+      <c r="E83" s="7">
+        <v>1139</v>
+      </c>
+      <c r="F83" s="9">
         <v>8</v>
       </c>
       <c r="G83" s="3">
@@ -4268,26 +4633,26 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>1145</v>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>1139</v>
       </c>
       <c r="L83" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>8</v>
       </c>
       <c r="M83" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -4295,15 +4660,15 @@
         <v>8</v>
       </c>
       <c r="C84">
-        <v>354</v>
+        <v>241</v>
       </c>
       <c r="D84">
         <v>174</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="7">
         <v>156</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="9">
         <v>174</v>
       </c>
       <c r="G84" s="3">
@@ -4313,23 +4678,23 @@
         <v>199</v>
       </c>
       <c r="I84" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>214</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>101</v>
       </c>
       <c r="J84" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-25</v>
       </c>
       <c r="K84" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>16</v>
       </c>
       <c r="L84" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-25</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>44</v>
       </c>
@@ -4342,7 +4707,7 @@
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="7">
         <v>0</v>
       </c>
       <c r="F85">
@@ -4355,23 +4720,23 @@
         <v>0</v>
       </c>
       <c r="I85" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J85" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K85" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L85" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>44</v>
       </c>
@@ -4384,7 +4749,7 @@
       <c r="D86">
         <v>0</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="7">
         <v>0</v>
       </c>
       <c r="F86">
@@ -4397,23 +4762,23 @@
         <v>0</v>
       </c>
       <c r="I86" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J86" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K86" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L86" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -4426,7 +4791,7 @@
       <c r="D87">
         <v>0</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="7">
         <v>0</v>
       </c>
       <c r="F87">
@@ -4439,23 +4804,23 @@
         <v>0</v>
       </c>
       <c r="I87" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J87" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K87" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L87" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -4468,7 +4833,7 @@
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="7">
         <v>0</v>
       </c>
       <c r="F88">
@@ -4481,23 +4846,23 @@
         <v>0</v>
       </c>
       <c r="I88" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J88" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K88" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L88" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -4510,10 +4875,10 @@
       <c r="D89">
         <v>0</v>
       </c>
-      <c r="E89">
-        <v>296</v>
-      </c>
-      <c r="F89">
+      <c r="E89" s="7">
+        <v>269</v>
+      </c>
+      <c r="F89" s="9">
         <v>30</v>
       </c>
       <c r="G89" s="3">
@@ -4523,26 +4888,26 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>296</v>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>269</v>
       </c>
       <c r="L89" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>30</v>
       </c>
       <c r="M89" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>44</v>
       </c>
@@ -4555,7 +4920,7 @@
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="7">
         <v>0</v>
       </c>
       <c r="F90">
@@ -4568,23 +4933,23 @@
         <v>0</v>
       </c>
       <c r="I90" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J90" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K90" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L90" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -4597,7 +4962,7 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="7">
         <v>0</v>
       </c>
       <c r="F91">
@@ -4610,23 +4975,23 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>44</v>
       </c>
@@ -4639,7 +5004,7 @@
       <c r="D92">
         <v>0</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="7">
         <v>0</v>
       </c>
       <c r="F92">
@@ -4652,23 +5017,23 @@
         <v>0</v>
       </c>
       <c r="I92" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J92" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K92" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L92" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>44</v>
       </c>
@@ -4681,10 +5046,10 @@
       <c r="D93">
         <v>192</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="7">
         <v>184</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="9">
         <v>196</v>
       </c>
       <c r="G93" s="3">
@@ -4694,23 +5059,23 @@
         <v>210</v>
       </c>
       <c r="I93" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>18</v>
       </c>
       <c r="J93" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-18</v>
       </c>
       <c r="K93" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-16</v>
       </c>
       <c r="L93" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-14</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>44</v>
       </c>
@@ -4723,10 +5088,10 @@
       <c r="D94">
         <v>204</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="7">
         <v>140</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="9">
         <v>188</v>
       </c>
       <c r="G94" s="3">
@@ -4736,23 +5101,23 @@
         <v>195</v>
       </c>
       <c r="I94" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>24</v>
       </c>
       <c r="J94" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>9</v>
       </c>
       <c r="K94" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>30</v>
       </c>
       <c r="L94" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-7</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>44</v>
       </c>
@@ -4765,10 +5130,10 @@
       <c r="D95">
         <v>188</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="7">
         <v>170</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="9">
         <v>190</v>
       </c>
       <c r="G95" s="3">
@@ -4778,23 +5143,23 @@
         <v>195</v>
       </c>
       <c r="I95" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>12</v>
       </c>
       <c r="J95" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-7</v>
       </c>
       <c r="K95" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>10</v>
       </c>
       <c r="L95" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-5</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>44</v>
       </c>
@@ -4807,10 +5172,10 @@
       <c r="D96">
         <v>206</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="7">
         <v>170</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="9">
         <v>188</v>
       </c>
       <c r="G96" s="3">
@@ -4820,23 +5185,23 @@
         <v>203</v>
       </c>
       <c r="I96" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-4</v>
       </c>
       <c r="J96" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>3</v>
       </c>
       <c r="K96" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>10</v>
       </c>
       <c r="L96" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-15</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>44</v>
       </c>
@@ -4849,10 +5214,10 @@
       <c r="D97">
         <v>128</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="7">
         <v>250</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="9">
         <v>120</v>
       </c>
       <c r="G97" s="3">
@@ -4862,23 +5227,23 @@
         <v>123</v>
       </c>
       <c r="I97" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>40</v>
       </c>
       <c r="J97" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>5</v>
       </c>
       <c r="K97" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>40</v>
       </c>
       <c r="L97" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -4891,7 +5256,7 @@
       <c r="D98">
         <v>0</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="7">
         <v>0</v>
       </c>
       <c r="F98">
@@ -4904,23 +5269,23 @@
         <v>0</v>
       </c>
       <c r="I98" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J98" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K98" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L98" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>46</v>
       </c>
@@ -4933,7 +5298,7 @@
       <c r="D99">
         <v>0</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="7">
         <v>0</v>
       </c>
       <c r="F99">
@@ -4946,23 +5311,23 @@
         <v>0</v>
       </c>
       <c r="I99" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J99" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K99" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L99" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>46</v>
       </c>
@@ -4975,7 +5340,7 @@
       <c r="D100">
         <v>0</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="7">
         <v>0</v>
       </c>
       <c r="F100">
@@ -4988,23 +5353,23 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>46</v>
       </c>
@@ -5017,7 +5382,7 @@
       <c r="D101">
         <v>0</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="7">
         <v>0</v>
       </c>
       <c r="F101">
@@ -5030,23 +5395,23 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L101" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>46</v>
       </c>
@@ -5059,10 +5424,10 @@
       <c r="D102">
         <v>0</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="7">
         <v>314</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="9">
         <v>56</v>
       </c>
       <c r="G102" s="3">
@@ -5072,26 +5437,26 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>314</v>
       </c>
       <c r="L102" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>56</v>
       </c>
       <c r="M102" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>48</v>
       </c>
@@ -5104,10 +5469,10 @@
       <c r="D103">
         <v>0</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="7">
         <v>90</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="9">
         <v>42</v>
       </c>
       <c r="G103" s="3">
@@ -5117,23 +5482,23 @@
         <v>0</v>
       </c>
       <c r="I103" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J103" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K103" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>90</v>
       </c>
       <c r="L103" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -5146,10 +5511,10 @@
       <c r="D104">
         <v>90</v>
       </c>
-      <c r="E104">
-        <v>654</v>
-      </c>
-      <c r="F104">
+      <c r="E104" s="7">
+        <v>22</v>
+      </c>
+      <c r="F104" s="9">
         <v>30</v>
       </c>
       <c r="G104" s="3">
@@ -5159,23 +5524,23 @@
         <v>103</v>
       </c>
       <c r="I104" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-52</v>
       </c>
       <c r="J104" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-13</v>
       </c>
       <c r="K104" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>494</v>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-138</v>
       </c>
       <c r="L104" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-73</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>48</v>
       </c>
@@ -5188,7 +5553,7 @@
       <c r="D105">
         <v>0</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="7">
         <v>0</v>
       </c>
       <c r="F105">
@@ -5201,23 +5566,23 @@
         <v>0</v>
       </c>
       <c r="I105" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J105" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K105" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L105" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>48</v>
       </c>
@@ -5230,10 +5595,10 @@
       <c r="D106">
         <v>96</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="7">
         <v>264</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="9">
         <v>96</v>
       </c>
       <c r="G106" s="3">
@@ -5243,23 +5608,23 @@
         <v>98</v>
       </c>
       <c r="I106" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>49</v>
       </c>
       <c r="J106" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-2</v>
       </c>
       <c r="K106" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>124</v>
       </c>
       <c r="L106" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>48</v>
       </c>
@@ -5272,10 +5637,10 @@
       <c r="D107">
         <v>188</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="7">
         <v>219</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="9">
         <v>168</v>
       </c>
       <c r="G107" s="3">
@@ -5285,23 +5650,23 @@
         <v>147</v>
       </c>
       <c r="I107" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>52</v>
       </c>
       <c r="J107" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>41</v>
       </c>
       <c r="K107" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>69</v>
       </c>
       <c r="L107" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -5314,10 +5679,10 @@
       <c r="D108">
         <v>162</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="7">
         <v>158</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="9">
         <v>152</v>
       </c>
       <c r="G108" s="3">
@@ -5327,23 +5692,23 @@
         <v>83</v>
       </c>
       <c r="I108" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>2</v>
       </c>
       <c r="J108" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>79</v>
       </c>
       <c r="K108" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>48</v>
       </c>
       <c r="L108" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>48</v>
       </c>
@@ -5356,10 +5721,10 @@
       <c r="D109">
         <v>148</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="7">
         <v>246</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="9">
         <v>104</v>
       </c>
       <c r="G109" s="3">
@@ -5369,23 +5734,23 @@
         <v>149</v>
       </c>
       <c r="I109" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-32</v>
       </c>
       <c r="J109" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-1</v>
       </c>
       <c r="K109" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>46</v>
       </c>
       <c r="L109" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-45</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>48</v>
       </c>
@@ -5398,10 +5763,10 @@
       <c r="D110" s="5">
         <v>236</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="8">
         <v>135</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F110" s="10">
         <v>254</v>
       </c>
       <c r="G110" s="6">
@@ -5411,23 +5776,23 @@
         <v>230</v>
       </c>
       <c r="I110" s="6">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>61</v>
       </c>
       <c r="J110" s="6">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>6</v>
       </c>
       <c r="K110" s="6">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>75</v>
       </c>
       <c r="L110" s="6">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>48</v>
       </c>
@@ -5440,7 +5805,7 @@
       <c r="D111">
         <v>0</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="7">
         <v>0</v>
       </c>
       <c r="F111">
@@ -5453,23 +5818,23 @@
         <v>0</v>
       </c>
       <c r="I111" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J111" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K111" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L111" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>48</v>
       </c>
@@ -5482,10 +5847,10 @@
       <c r="D112">
         <v>34</v>
       </c>
-      <c r="E112" t="s">
-        <v>67</v>
-      </c>
-      <c r="F112">
+      <c r="E112" s="7">
+        <v>469</v>
+      </c>
+      <c r="F112" s="9">
         <v>24</v>
       </c>
       <c r="G112" s="3">
@@ -5495,23 +5860,23 @@
         <v>30</v>
       </c>
       <c r="I112" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-556</v>
       </c>
       <c r="J112" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>4</v>
       </c>
-      <c r="K112" s="3" t="e">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>#VALUE!</v>
+      <c r="K112" s="3">
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-211</v>
       </c>
       <c r="L112" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-6</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>48</v>
       </c>
@@ -5524,7 +5889,7 @@
       <c r="D113">
         <v>0</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="7">
         <v>0</v>
       </c>
       <c r="F113">
@@ -5537,23 +5902,23 @@
         <v>0</v>
       </c>
       <c r="I113" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J113" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K113" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L113" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>48</v>
       </c>
@@ -5566,10 +5931,10 @@
       <c r="D114">
         <v>118</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="7">
         <v>278</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="9">
         <v>122</v>
       </c>
       <c r="G114" s="3">
@@ -5579,23 +5944,23 @@
         <v>128</v>
       </c>
       <c r="I114" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>99</v>
       </c>
       <c r="J114" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-10</v>
       </c>
       <c r="K114" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>98</v>
       </c>
       <c r="L114" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-6</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>51</v>
       </c>
@@ -5608,7 +5973,7 @@
       <c r="D115">
         <v>0</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="7">
         <v>0</v>
       </c>
       <c r="F115">
@@ -5621,23 +5986,23 @@
         <v>0</v>
       </c>
       <c r="I115" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J115" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K115" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L115" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>51</v>
       </c>
@@ -5650,7 +6015,7 @@
       <c r="D116">
         <v>0</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="7">
         <v>0</v>
       </c>
       <c r="F116">
@@ -5663,23 +6028,23 @@
         <v>0</v>
       </c>
       <c r="I116" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J116" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K116" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L116" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>51</v>
       </c>
@@ -5692,7 +6057,7 @@
       <c r="D117">
         <v>0</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="7">
         <v>0</v>
       </c>
       <c r="F117">
@@ -5705,23 +6070,23 @@
         <v>0</v>
       </c>
       <c r="I117" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J117" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K117" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L117" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>51</v>
       </c>
@@ -5734,7 +6099,7 @@
       <c r="D118">
         <v>0</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="7">
         <v>0</v>
       </c>
       <c r="F118">
@@ -5747,23 +6112,23 @@
         <v>0</v>
       </c>
       <c r="I118" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J118" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K118" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L118" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>51</v>
       </c>
@@ -5776,7 +6141,7 @@
       <c r="D119">
         <v>0</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="7">
         <v>0</v>
       </c>
       <c r="F119">
@@ -5789,23 +6154,23 @@
         <v>0</v>
       </c>
       <c r="I119" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J119" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K119" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L119" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>51</v>
       </c>
@@ -5818,10 +6183,10 @@
       <c r="D120">
         <v>156</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="7">
         <v>117</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="9">
         <v>124</v>
       </c>
       <c r="G120" s="3">
@@ -5831,23 +6196,23 @@
         <v>142</v>
       </c>
       <c r="I120" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-24</v>
       </c>
       <c r="J120" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>14</v>
       </c>
       <c r="K120" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-33</v>
       </c>
       <c r="L120" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-18</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>51</v>
       </c>
@@ -5860,10 +6225,10 @@
       <c r="D121">
         <v>104</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="7">
         <v>214</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="9">
         <v>96</v>
       </c>
       <c r="G121" s="3">
@@ -5873,23 +6238,23 @@
         <v>91</v>
       </c>
       <c r="I121" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>44</v>
       </c>
       <c r="J121" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>13</v>
       </c>
       <c r="K121" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>74</v>
       </c>
       <c r="L121" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>51</v>
       </c>
@@ -5902,10 +6267,10 @@
       <c r="D122">
         <v>64</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="7">
         <v>271</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="9">
         <v>70</v>
       </c>
       <c r="G122" s="3">
@@ -5915,23 +6280,23 @@
         <v>72</v>
       </c>
       <c r="I122" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>80</v>
       </c>
       <c r="J122" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-8</v>
       </c>
       <c r="K122" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>91</v>
       </c>
       <c r="L122" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>51</v>
       </c>
@@ -5944,10 +6309,10 @@
       <c r="D123">
         <v>94</v>
       </c>
-      <c r="E123">
-        <v>369</v>
-      </c>
-      <c r="F123">
+      <c r="E123" s="7">
+        <v>286</v>
+      </c>
+      <c r="F123" s="9">
         <v>76</v>
       </c>
       <c r="G123" s="3">
@@ -5957,23 +6322,23 @@
         <v>88</v>
       </c>
       <c r="I123" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>8</v>
       </c>
       <c r="J123" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>6</v>
       </c>
       <c r="K123" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>179</v>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>96</v>
       </c>
       <c r="L123" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-12</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>51</v>
       </c>
@@ -5986,10 +6351,10 @@
       <c r="D124">
         <v>72</v>
       </c>
-      <c r="E124">
-        <v>560</v>
-      </c>
-      <c r="F124">
+      <c r="E124" s="7">
+        <v>550</v>
+      </c>
+      <c r="F124" s="9">
         <v>44</v>
       </c>
       <c r="G124" s="3">
@@ -5999,23 +6364,23 @@
         <v>71</v>
       </c>
       <c r="I124" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>17</v>
       </c>
       <c r="J124" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>1</v>
       </c>
       <c r="K124" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>380</v>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>370</v>
       </c>
       <c r="L124" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-27</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>51</v>
       </c>
@@ -6028,10 +6393,10 @@
       <c r="D125">
         <v>18</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="7">
         <v>322</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="9">
         <v>30</v>
       </c>
       <c r="G125" s="3">
@@ -6041,23 +6406,23 @@
         <v>23</v>
       </c>
       <c r="I125" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>313</v>
       </c>
       <c r="J125" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-5</v>
       </c>
       <c r="K125" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>22</v>
       </c>
       <c r="L125" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>51</v>
       </c>
@@ -6070,7 +6435,7 @@
       <c r="D126">
         <v>0</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="7">
         <v>0</v>
       </c>
       <c r="F126">
@@ -6083,23 +6448,23 @@
         <v>0</v>
       </c>
       <c r="I126" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J126" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K126" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L126" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>54</v>
       </c>
@@ -6107,15 +6472,15 @@
         <v>3</v>
       </c>
       <c r="C127" s="5">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D127" s="5">
         <v>244</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="8">
         <v>28</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F127" s="10">
         <v>278</v>
       </c>
       <c r="G127" s="6">
@@ -6126,23 +6491,23 @@
         <v>221.1</v>
       </c>
       <c r="I127" s="6">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>3</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-8</v>
       </c>
       <c r="J127" s="6">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>22.900000000000006</v>
       </c>
       <c r="K127" s="6">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-2</v>
       </c>
       <c r="L127" s="6">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>56.900000000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>54</v>
       </c>
@@ -6155,7 +6520,7 @@
       <c r="D128">
         <v>0</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="7">
         <v>0</v>
       </c>
       <c r="F128">
@@ -6168,23 +6533,23 @@
         <v>0</v>
       </c>
       <c r="I128" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J128" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K128" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L128" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>54</v>
       </c>
@@ -6192,12 +6557,12 @@
         <v>14</v>
       </c>
       <c r="C129">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="D129">
         <v>54</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="7">
         <v>0</v>
       </c>
       <c r="F129">
@@ -6210,23 +6575,23 @@
         <v>48</v>
       </c>
       <c r="I129" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>49</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-21</v>
       </c>
       <c r="J129" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>6</v>
       </c>
       <c r="K129" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-170</v>
       </c>
       <c r="L129" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-48</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>54</v>
       </c>
@@ -6234,15 +6599,15 @@
         <v>19</v>
       </c>
       <c r="C130" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D130" s="5">
         <v>208</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E130" s="8">
         <v>50</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F130" s="10">
         <v>222</v>
       </c>
       <c r="G130" s="6">
@@ -6252,23 +6617,23 @@
         <v>218</v>
       </c>
       <c r="I130" s="6">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-45</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-50</v>
       </c>
       <c r="J130" s="6">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-10</v>
       </c>
       <c r="K130" s="6">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-10</v>
       </c>
       <c r="L130" s="6">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>54</v>
       </c>
@@ -6276,15 +6641,15 @@
         <v>49</v>
       </c>
       <c r="C131">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D131">
         <v>360</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="7">
         <v>92</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="9">
         <v>360</v>
       </c>
       <c r="G131" s="3">
@@ -6294,23 +6659,23 @@
         <v>360</v>
       </c>
       <c r="I131" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-36</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-60</v>
       </c>
       <c r="J131" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K131" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-18</v>
       </c>
       <c r="L131" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>54</v>
       </c>
@@ -6318,15 +6683,15 @@
         <v>4</v>
       </c>
       <c r="C132">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="D132">
         <v>302</v>
       </c>
-      <c r="E132">
-        <v>10</v>
-      </c>
-      <c r="F132">
+      <c r="E132" s="7">
+        <v>0</v>
+      </c>
+      <c r="F132" s="9">
         <v>270</v>
       </c>
       <c r="G132" s="3">
@@ -6337,23 +6702,23 @@
         <v>233.5</v>
       </c>
       <c r="I132" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>88</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>25</v>
       </c>
       <c r="J132" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>68.5</v>
       </c>
       <c r="K132" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-100</v>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-110</v>
       </c>
       <c r="L132" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>36.5</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>54</v>
       </c>
@@ -6361,15 +6726,15 @@
         <v>5</v>
       </c>
       <c r="C133">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D133">
         <v>106</v>
       </c>
-      <c r="E133">
-        <v>171</v>
-      </c>
-      <c r="F133">
+      <c r="E133" s="7">
+        <v>94</v>
+      </c>
+      <c r="F133" s="9">
         <v>100</v>
       </c>
       <c r="G133" s="3">
@@ -6379,23 +6744,23 @@
         <v>114</v>
       </c>
       <c r="I133" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>5</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-32</v>
       </c>
       <c r="J133" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-8</v>
       </c>
       <c r="K133" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>61</v>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-16</v>
       </c>
       <c r="L133" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-14</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>54</v>
       </c>
@@ -6403,15 +6768,15 @@
         <v>6</v>
       </c>
       <c r="C134">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D134">
         <v>134</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="7">
         <v>63</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="9">
         <v>138</v>
       </c>
       <c r="G134" s="3">
@@ -6421,23 +6786,23 @@
         <v>139</v>
       </c>
       <c r="I134" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>99</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>42</v>
       </c>
       <c r="J134" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-5</v>
       </c>
       <c r="K134" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-17</v>
       </c>
       <c r="L134" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>54</v>
       </c>
@@ -6445,15 +6810,15 @@
         <v>7</v>
       </c>
       <c r="C135">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="D135">
         <v>98</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="7">
         <v>71</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="9">
         <v>114</v>
       </c>
       <c r="G135" s="3">
@@ -6463,23 +6828,23 @@
         <v>102</v>
       </c>
       <c r="I135" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>140</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>60</v>
       </c>
       <c r="J135" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-4</v>
       </c>
       <c r="K135" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-39</v>
       </c>
       <c r="L135" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>54</v>
       </c>
@@ -6487,15 +6852,15 @@
         <v>9</v>
       </c>
       <c r="C136">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="D136">
         <v>214</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="7">
         <v>80</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="9">
         <v>206</v>
       </c>
       <c r="G136" s="3">
@@ -6505,23 +6870,23 @@
         <v>200</v>
       </c>
       <c r="I136" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>116</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>53</v>
       </c>
       <c r="J136" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>14</v>
       </c>
       <c r="K136" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L136" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>54</v>
       </c>
@@ -6534,7 +6899,7 @@
       <c r="D137">
         <v>0</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="7">
         <v>0</v>
       </c>
       <c r="F137">
@@ -6547,23 +6912,23 @@
         <v>0</v>
       </c>
       <c r="I137" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J137" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K137" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L137" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>54</v>
       </c>
@@ -6571,15 +6936,15 @@
         <v>13</v>
       </c>
       <c r="C138">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="D138">
         <v>86</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="7">
         <v>112</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="9">
         <v>78</v>
       </c>
       <c r="G138" s="3">
@@ -6589,23 +6954,23 @@
         <v>89</v>
       </c>
       <c r="I138" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>107</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>25</v>
       </c>
       <c r="J138" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-3</v>
       </c>
       <c r="K138" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-38</v>
       </c>
       <c r="L138" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-11</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>54</v>
       </c>
@@ -6613,12 +6978,12 @@
         <v>15</v>
       </c>
       <c r="C139">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="D139">
         <v>96</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="7">
         <v>0</v>
       </c>
       <c r="F139">
@@ -6631,26 +6996,26 @@
         <v>82</v>
       </c>
       <c r="I139" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>78</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>18</v>
       </c>
       <c r="J139" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>14</v>
       </c>
       <c r="K139" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-110</v>
       </c>
       <c r="L139" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-82</v>
       </c>
       <c r="M139" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>54</v>
       </c>
@@ -6663,7 +7028,7 @@
       <c r="D140">
         <v>56</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="7">
         <v>0</v>
       </c>
       <c r="F140">
@@ -6676,23 +7041,23 @@
         <v>0</v>
       </c>
       <c r="I140" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J140" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>56</v>
       </c>
       <c r="K140" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L140" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>56</v>
       </c>
@@ -6705,7 +7070,7 @@
       <c r="D141">
         <v>0</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="7">
         <v>0</v>
       </c>
       <c r="F141">
@@ -6718,23 +7083,23 @@
         <v>0</v>
       </c>
       <c r="I141" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J141" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K141" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L141" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>56</v>
       </c>
@@ -6747,7 +7112,7 @@
       <c r="D142">
         <v>0</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="7">
         <v>0</v>
       </c>
       <c r="F142">
@@ -6760,23 +7125,23 @@
         <v>0</v>
       </c>
       <c r="I142" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J142" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K142" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L142" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>56</v>
       </c>
@@ -6789,7 +7154,7 @@
       <c r="D143">
         <v>0</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="7">
         <v>0</v>
       </c>
       <c r="F143">
@@ -6802,23 +7167,23 @@
         <v>0</v>
       </c>
       <c r="I143" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J143" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K143" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L143" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>56</v>
       </c>
@@ -6831,7 +7196,7 @@
       <c r="D144">
         <v>0</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="7">
         <v>0</v>
       </c>
       <c r="F144">
@@ -6844,23 +7209,23 @@
         <v>0</v>
       </c>
       <c r="I144" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J144" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K144" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L144" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>56</v>
       </c>
@@ -6873,7 +7238,7 @@
       <c r="D145">
         <v>0</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="7">
         <v>0</v>
       </c>
       <c r="F145">
@@ -6886,23 +7251,23 @@
         <v>0</v>
       </c>
       <c r="I145" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J145" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K145" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L145" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>56</v>
       </c>
@@ -6915,7 +7280,7 @@
       <c r="D146">
         <v>0</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="7">
         <v>0</v>
       </c>
       <c r="F146">
@@ -6928,23 +7293,23 @@
         <v>0</v>
       </c>
       <c r="I146" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J146" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K146" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L146" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>56</v>
       </c>
@@ -6957,7 +7322,7 @@
       <c r="D147">
         <v>0</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="7">
         <v>0</v>
       </c>
       <c r="F147">
@@ -6970,23 +7335,23 @@
         <v>0</v>
       </c>
       <c r="I147" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J147" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K147" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L147" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>56</v>
       </c>
@@ -6999,7 +7364,7 @@
       <c r="D148">
         <v>0</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="7">
         <v>0</v>
       </c>
       <c r="F148">
@@ -7012,23 +7377,23 @@
         <v>0</v>
       </c>
       <c r="I148" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J148" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K148" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L148" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>56</v>
       </c>
@@ -7041,7 +7406,7 @@
       <c r="D149">
         <v>0</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="7">
         <v>0</v>
       </c>
       <c r="F149">
@@ -7054,23 +7419,23 @@
         <v>0</v>
       </c>
       <c r="I149" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J149" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K149" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L149" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>56</v>
       </c>
@@ -7083,7 +7448,7 @@
       <c r="D150">
         <v>0</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="7">
         <v>0</v>
       </c>
       <c r="F150">
@@ -7096,23 +7461,23 @@
         <v>0</v>
       </c>
       <c r="I150" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J150" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K150" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L150" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>56</v>
       </c>
@@ -7125,7 +7490,7 @@
       <c r="D151">
         <v>0</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="7">
         <v>0</v>
       </c>
       <c r="F151">
@@ -7138,23 +7503,23 @@
         <v>0</v>
       </c>
       <c r="I151" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J151" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K151" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L151" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>56</v>
       </c>
@@ -7167,7 +7532,7 @@
       <c r="D152">
         <v>0</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="7">
         <v>0</v>
       </c>
       <c r="F152">
@@ -7180,23 +7545,23 @@
         <v>0</v>
       </c>
       <c r="I152" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J152" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K152" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L152" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>56</v>
       </c>
@@ -7209,7 +7574,7 @@
       <c r="D153">
         <v>0</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="7">
         <v>0</v>
       </c>
       <c r="F153">
@@ -7222,23 +7587,23 @@
         <v>0</v>
       </c>
       <c r="I153" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J153" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K153" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L153" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>56</v>
       </c>
@@ -7251,7 +7616,7 @@
       <c r="D154">
         <v>0</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="7">
         <v>0</v>
       </c>
       <c r="F154">
@@ -7264,23 +7629,23 @@
         <v>0</v>
       </c>
       <c r="I154" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J154" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K154" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L154" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>56</v>
       </c>
@@ -7293,7 +7658,7 @@
       <c r="D155">
         <v>0</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="7">
         <v>0</v>
       </c>
       <c r="F155">
@@ -7306,23 +7671,23 @@
         <v>0</v>
       </c>
       <c r="I155" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J155" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K155" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L155" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>56</v>
       </c>
@@ -7330,15 +7695,15 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>364</v>
+        <v>247</v>
       </c>
       <c r="D156">
         <v>94</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="7">
         <v>125</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="9">
         <v>114</v>
       </c>
       <c r="G156" s="3">
@@ -7348,23 +7713,23 @@
         <v>105</v>
       </c>
       <c r="I156" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>244</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>127</v>
       </c>
       <c r="J156" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-11</v>
       </c>
       <c r="K156" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>5</v>
       </c>
       <c r="L156" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>56</v>
       </c>
@@ -7372,15 +7737,15 @@
         <v>58</v>
       </c>
       <c r="C157">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="D157">
         <v>134</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="7">
         <v>264</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="9">
         <v>112</v>
       </c>
       <c r="G157" s="3">
@@ -7390,23 +7755,23 @@
         <v>128</v>
       </c>
       <c r="I157" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>80</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-19</v>
       </c>
       <c r="J157" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>6</v>
       </c>
       <c r="K157" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>34</v>
       </c>
       <c r="L157" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-16</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>56</v>
       </c>
@@ -7414,15 +7779,15 @@
         <v>12</v>
       </c>
       <c r="C158">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D158">
         <v>140</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="7">
         <v>255</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="9">
         <v>100</v>
       </c>
       <c r="G158" s="3">
@@ -7432,23 +7797,23 @@
         <v>123</v>
       </c>
       <c r="I158" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>-125</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>-130</v>
       </c>
       <c r="J158" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>17</v>
       </c>
       <c r="K158" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>115</v>
       </c>
       <c r="L158" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>-23</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>56</v>
       </c>
@@ -7456,15 +7821,15 @@
         <v>59</v>
       </c>
       <c r="C159">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="D159">
         <v>98</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="7">
         <v>250</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="9">
         <v>92</v>
       </c>
       <c r="G159" s="3">
@@ -7474,23 +7839,23 @@
         <v>87</v>
       </c>
       <c r="I159" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>290</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>130</v>
       </c>
       <c r="J159" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>11</v>
       </c>
       <c r="K159" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>40</v>
       </c>
       <c r="L159" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>56</v>
       </c>
@@ -7503,7 +7868,7 @@
       <c r="D160">
         <v>0</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="7">
         <v>0</v>
       </c>
       <c r="F160">
@@ -7516,23 +7881,23 @@
         <v>0</v>
       </c>
       <c r="I160" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J160" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K160" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L160" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>56</v>
       </c>
@@ -7540,15 +7905,15 @@
         <v>15</v>
       </c>
       <c r="C161">
-        <v>677</v>
+        <v>461</v>
       </c>
       <c r="D161">
         <v>64</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="7">
         <v>362</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="9">
         <v>60</v>
       </c>
       <c r="G161" s="3">
@@ -7558,23 +7923,23 @@
         <v>59</v>
       </c>
       <c r="I161" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
-        <v>297</v>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
+        <v>81</v>
       </c>
       <c r="J161" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>5</v>
       </c>
       <c r="K161" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>-18</v>
       </c>
       <c r="L161" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>56</v>
       </c>
@@ -7587,7 +7952,7 @@
       <c r="D162">
         <v>0</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="7">
         <v>0</v>
       </c>
       <c r="F162">
@@ -7600,23 +7965,23 @@
         <v>0</v>
       </c>
       <c r="I162" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J162" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K162" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L162" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>56</v>
       </c>
@@ -7629,7 +7994,7 @@
       <c r="D163">
         <v>0</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="7">
         <v>0</v>
       </c>
       <c r="F163">
@@ -7642,19 +8007,19 @@
         <v>0</v>
       </c>
       <c r="I163" s="3">
-        <f>Table1[[#This Row],[FCT automatic v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="J163" s="3">
-        <f>Table1[[#This Row],[Lipid arc automatic v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
       <c r="K163" s="3">
-        <f>Table1[[#This Row],[FCT model 3 2D v2]]-Table1[[#This Row],[FCT manual]]</f>
+        <f>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</f>
         <v>0</v>
       </c>
       <c r="L163" s="3">
-        <f>Table1[[#This Row],[Lipid arc model 3 2D v2]]-Table1[[#This Row],[Lipid arc manual]]</f>
+        <f>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</f>
         <v>0</v>
       </c>
     </row>
@@ -7666,4 +8031,51 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7246808B-2392-4420-A296-1463F1A39F5A}">
+  <dimension ref="B6:C8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/code/count-distributions/manual_vs_automatic_fct_arc.xlsx
+++ b/code/count-distributions/manual_vs_automatic_fct_arc.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\code\count-distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32811B3E-E5FC-4032-9D30-57C9EA533981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F56534-3129-44CA-90EC-E3D596D2A1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Measurements test set" sheetId="1" r:id="rId1"/>
-    <sheet name="Plots" sheetId="2" r:id="rId2"/>
+    <sheet name="Plots" sheetId="2" r:id="rId1"/>
+    <sheet name="Lipid measurements test set" sheetId="1" r:id="rId2"/>
+    <sheet name="Calcium measurements test set" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="95">
   <si>
     <t>pullback</t>
   </si>
@@ -281,6 +282,45 @@
   <si>
     <t>Type</t>
   </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>Depth model 3 2D</t>
+  </si>
+  <si>
+    <t>Arc model 3 2D</t>
+  </si>
+  <si>
+    <t>Depth test set</t>
+  </si>
+  <si>
+    <t>Arc test set</t>
+  </si>
+  <si>
+    <t>Thickness test set</t>
+  </si>
+  <si>
+    <t>Thickness model 3 2D4</t>
+  </si>
+  <si>
+    <t>Depth model 2 2D</t>
+  </si>
+  <si>
+    <t>Thickness model 2 2D</t>
+  </si>
+  <si>
+    <t>Arc model 2 2D</t>
+  </si>
+  <si>
+    <t>Depth model 1 2D</t>
+  </si>
+  <si>
+    <t>Arc model 1 2D</t>
+  </si>
+  <si>
+    <t>Thickness model 1 2D</t>
+  </si>
 </sst>
 </file>
 
@@ -381,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -401,16 +441,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -423,7 +475,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -477,7 +529,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -798,7 +850,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{627F69A6-40FB-4B8F-B019-968DD6D0195F}" name="Table1" displayName="Table1" ref="A1:M163" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA7CF5B6-4428-401D-99B2-9E5C17D357AD}" name="Table2" displayName="Table2" ref="B6:C8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B6:C8" xr:uid="{EA7CF5B6-4428-401D-99B2-9E5C17D357AD}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{67CF5BB4-3446-4CE0-8854-5C073197F0FD}" name="Type" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{6ED93558-D522-470E-9525-213E4C9D3951}" name="Pearson corr" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{627F69A6-40FB-4B8F-B019-968DD6D0195F}" name="Table1" displayName="Table1" ref="A1:M163" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:M163" xr:uid="{627F69A6-40FB-4B8F-B019-968DD6D0195F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B163">
     <sortCondition ref="A2:A163"/>
@@ -809,20 +872,20 @@
     <tableColumn id="3" xr3:uid="{44E5B83C-AD90-4B86-865E-DC4CCE862E5A}" name="frame"/>
     <tableColumn id="16" xr3:uid="{C0A74A72-BD89-408E-AD53-F23672A8818A}" name="FCT automatic"/>
     <tableColumn id="17" xr3:uid="{77D53405-EDB2-43D0-9177-2DB249246817}" name="Lipid arc automatic"/>
-    <tableColumn id="14" xr3:uid="{37865D35-775D-40CA-9A37-5413B7E1EA12}" name="FCT model 3 2D" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{2FF6F639-578D-4C21-BB55-00E4538C1756}" name="Lipid arc model 3 2D" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{647ED19A-12EE-48BA-B5F2-0DA0D312A6EB}" name="FCT manual" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{35F9E1BF-544E-4C84-A267-F8C76EA6A296}" name="Lipid arc manual" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{6C89EED6-A37E-43E0-9D05-325F0FF5B398}" name="Difference FCT (manual segs)" dataDxfId="7">
+    <tableColumn id="14" xr3:uid="{37865D35-775D-40CA-9A37-5413B7E1EA12}" name="FCT model 3 2D" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{2FF6F639-578D-4C21-BB55-00E4538C1756}" name="Lipid arc model 3 2D" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{647ED19A-12EE-48BA-B5F2-0DA0D312A6EB}" name="FCT manual" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{35F9E1BF-544E-4C84-A267-F8C76EA6A296}" name="Lipid arc manual" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{6C89EED6-A37E-43E0-9D05-325F0FF5B398}" name="Difference FCT (manual segs)" dataDxfId="10">
       <calculatedColumnFormula>Table1[[#This Row],[FCT automatic]]-Table1[[#This Row],[FCT manual]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{C4605D00-0ECB-41CD-B40C-285B95EF7363}" name="Difference lipid arc (manual segs)" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{C4605D00-0ECB-41CD-B40C-285B95EF7363}" name="Difference lipid arc (manual segs)" dataDxfId="9">
       <calculatedColumnFormula>Table1[[#This Row],[Lipid arc automatic]]-Table1[[#This Row],[Lipid arc manual]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{1E93C117-3898-4E2F-90C7-E91EA92F3F14}" name="Difference FCT (model 3 2D)" dataDxfId="5">
+    <tableColumn id="12" xr3:uid="{1E93C117-3898-4E2F-90C7-E91EA92F3F14}" name="Difference FCT (model 3 2D)" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[FCT model 3 2D]]-Table1[[#This Row],[FCT manual]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A8273017-044D-4278-92CA-38CB7C4F9336}" name="Difference lipid arc (model 3 2D)" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{A8273017-044D-4278-92CA-38CB7C4F9336}" name="Difference lipid arc (model 3 2D)" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[Lipid arc model 3 2D]]-Table1[[#This Row],[Lipid arc manual]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{85CE63A1-F429-4A32-B0D4-E639FF525C40}" name="Observation"/>
@@ -831,12 +894,24 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA7CF5B6-4428-401D-99B2-9E5C17D357AD}" name="Table2" displayName="Table2" ref="B6:C8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="B6:C8" xr:uid="{EA7CF5B6-4428-401D-99B2-9E5C17D357AD}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{67CF5BB4-3446-4CE0-8854-5C073197F0FD}" name="Type" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{6ED93558-D522-470E-9525-213E4C9D3951}" name="Pearson corr" dataDxfId="2"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2674AAF9-2E3F-4A5A-90D7-0E08C6E287F3}" name="Table3" displayName="Table3" ref="A1:N163" totalsRowShown="0">
+  <autoFilter ref="A1:N163" xr:uid="{2674AAF9-2E3F-4A5A-90D7-0E08C6E287F3}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{2B13533C-4B42-4EF6-AD54-C4D3507DFD69}" name="pullback"/>
+    <tableColumn id="2" xr3:uid="{2500890E-1323-400F-9064-9F6B1606FAF3}" name="frame"/>
+    <tableColumn id="12" xr3:uid="{7DB7B5D9-CD98-490A-B976-9B95457324C5}" name="Depth model 1 2D"/>
+    <tableColumn id="22" xr3:uid="{7747F361-4DE5-48A0-B990-B19731CE8F14}" name="Arc model 1 2D"/>
+    <tableColumn id="23" xr3:uid="{FD255B18-3957-4A51-B2C1-83E81B7DFD08}" name="Thickness model 1 2D"/>
+    <tableColumn id="24" xr3:uid="{1BE4EAFD-F1FC-4D06-B730-8472857FE602}" name="Depth model 2 2D"/>
+    <tableColumn id="25" xr3:uid="{ED1BA508-BFC7-46E2-B71A-310ADFCC8968}" name="Arc model 2 2D"/>
+    <tableColumn id="26" xr3:uid="{6872084D-3753-4EE3-8F10-971CF76CC192}" name="Thickness model 2 2D"/>
+    <tableColumn id="3" xr3:uid="{B6551C68-492C-4695-B005-67784B66074B}" name="Depth model 3 2D" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{617F906D-F20B-47B2-B630-6FE95BAB5AC3}" name="Arc model 3 2D" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{1EF37BFE-2CEA-4553-8995-2575F46AB050}" name="Thickness model 3 2D4" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{DD0FB69F-E6AB-4EFF-BFBB-00CD29BF6D94}" name="Depth test set"/>
+    <tableColumn id="7" xr3:uid="{D64F35FF-7FC7-42FA-B0CF-B9DCDD3F2EB2}" name="Arc test set"/>
+    <tableColumn id="8" xr3:uid="{E8B07CA7-9A23-4FC2-B0EB-EF9E71907565}" name="Thickness test set"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1126,26 +1201,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7246808B-2392-4420-A296-1463F1A39F5A}">
+  <dimension ref="B6:C8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" customWidth="1"/>
-    <col min="10" max="13" width="32.28515625" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" customWidth="1"/>
+    <col min="10" max="13" width="32.33203125" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1308,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1228,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1270,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1286,7 +1408,7 @@
       <c r="E4" s="8">
         <v>50</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>82</v>
       </c>
       <c r="G4" s="6">
@@ -1312,7 +1434,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1328,7 +1450,7 @@
       <c r="E5" s="8">
         <v>134</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>76</v>
       </c>
       <c r="G5" s="6">
@@ -1357,7 +1479,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1399,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1415,7 +1537,7 @@
       <c r="E7" s="7">
         <v>132</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7">
         <v>268</v>
       </c>
       <c r="G7" s="3">
@@ -1441,7 +1563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1579,7 @@
       <c r="E8" s="7">
         <v>514</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8">
         <v>28</v>
       </c>
       <c r="G8" s="3">
@@ -1486,7 +1608,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1502,7 +1624,7 @@
       <c r="E9" s="7">
         <v>403</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9">
         <v>124</v>
       </c>
       <c r="G9" s="3">
@@ -1528,7 +1650,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1544,7 +1666,7 @@
       <c r="E10" s="7">
         <v>152</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10">
         <v>192</v>
       </c>
       <c r="G10" s="3">
@@ -1573,7 +1695,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1589,7 +1711,7 @@
       <c r="E11" s="8">
         <v>112</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>236</v>
       </c>
       <c r="G11" s="6">
@@ -1615,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1631,7 +1753,7 @@
       <c r="E12" s="7">
         <v>142</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12">
         <v>112</v>
       </c>
       <c r="G12" s="3">
@@ -1657,7 +1779,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1699,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1715,7 +1837,7 @@
       <c r="E14" s="7">
         <v>273</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14">
         <v>42</v>
       </c>
       <c r="G14" s="3">
@@ -1741,7 +1863,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1783,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1799,7 +1921,7 @@
       <c r="E16" s="7">
         <v>394</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16">
         <v>12</v>
       </c>
       <c r="G16" s="3">
@@ -1825,7 +1947,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1867,7 +1989,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1909,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1951,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -1967,7 +2089,7 @@
       <c r="E20" s="8">
         <v>86</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>140</v>
       </c>
       <c r="G20" s="6">
@@ -1993,7 +2115,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2009,7 +2131,7 @@
       <c r="E21" s="7">
         <v>64</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21">
         <v>138</v>
       </c>
       <c r="G21" s="3">
@@ -2035,7 +2157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2077,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2093,7 +2215,7 @@
       <c r="E23" s="7">
         <v>440</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23">
         <v>66</v>
       </c>
       <c r="G23" s="3">
@@ -2119,7 +2241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2161,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2203,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2245,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2287,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2303,7 +2425,7 @@
       <c r="E28" s="7">
         <v>382</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28">
         <v>98</v>
       </c>
       <c r="G28" s="3">
@@ -2329,7 +2451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2345,7 +2467,7 @@
       <c r="E29" s="7">
         <v>485</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29">
         <v>52</v>
       </c>
       <c r="G29" s="3">
@@ -2374,7 +2496,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>22</v>
       </c>
@@ -2390,7 +2512,7 @@
       <c r="E30" s="8">
         <v>92</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>210</v>
       </c>
       <c r="G30" s="6">
@@ -2416,7 +2538,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
@@ -2432,7 +2554,7 @@
       <c r="E31" s="8">
         <v>91</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>182</v>
       </c>
       <c r="G31" s="6">
@@ -2458,7 +2580,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2500,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2516,7 +2638,7 @@
       <c r="E33" s="7">
         <v>225</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33">
         <v>142</v>
       </c>
       <c r="G33" s="3">
@@ -2543,7 +2665,7 @@
         <v>-21.599999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -2585,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -2627,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2669,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -2711,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -2727,7 +2849,7 @@
       <c r="E38" s="7">
         <v>430</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38">
         <v>52</v>
       </c>
       <c r="G38" s="3">
@@ -2756,7 +2878,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -2772,7 +2894,7 @@
       <c r="E39" s="7">
         <v>608</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39">
         <v>70</v>
       </c>
       <c r="G39" s="3">
@@ -2798,7 +2920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -2814,7 +2936,7 @@
       <c r="E40" s="7">
         <v>212</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40">
         <v>132</v>
       </c>
       <c r="G40" s="3">
@@ -2840,7 +2962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -2856,7 +2978,7 @@
       <c r="E41" s="7">
         <v>345</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41">
         <v>166</v>
       </c>
       <c r="G41" s="3">
@@ -2882,7 +3004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -2898,7 +3020,7 @@
       <c r="E42" s="7">
         <v>278</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42">
         <v>138</v>
       </c>
       <c r="G42" s="3">
@@ -2925,7 +3047,7 @@
         <v>-2.5999999999999943</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -2941,7 +3063,7 @@
       <c r="E43" s="7">
         <v>252</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43">
         <v>140</v>
       </c>
       <c r="G43" s="3">
@@ -2968,7 +3090,7 @@
         <v>-0.69999999999998863</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -2984,7 +3106,7 @@
       <c r="E44" s="7">
         <v>182</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44">
         <v>104</v>
       </c>
       <c r="G44" s="3">
@@ -3011,7 +3133,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -3027,7 +3149,7 @@
       <c r="E45" s="7">
         <v>354</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45">
         <v>114</v>
       </c>
       <c r="G45" s="3">
@@ -3053,7 +3175,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -3095,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -3137,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3179,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -3221,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -3237,7 +3359,7 @@
       <c r="E50" s="7">
         <v>67</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50">
         <v>122</v>
       </c>
       <c r="G50" s="3">
@@ -3263,7 +3385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>34</v>
       </c>
@@ -3279,7 +3401,7 @@
       <c r="E51" s="8">
         <v>50</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <v>124</v>
       </c>
       <c r="G51" s="6">
@@ -3305,7 +3427,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>34</v>
       </c>
@@ -3321,7 +3443,7 @@
       <c r="E52" s="8">
         <v>45</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="9">
         <v>104</v>
       </c>
       <c r="G52" s="6">
@@ -3347,7 +3469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -3363,7 +3485,7 @@
       <c r="E53" s="7">
         <v>415</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53">
         <v>64</v>
       </c>
       <c r="G53" s="3">
@@ -3389,7 +3511,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -3405,7 +3527,7 @@
       <c r="E54" s="7">
         <v>326</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54">
         <v>60</v>
       </c>
       <c r="G54" s="3">
@@ -3431,7 +3553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -3447,7 +3569,7 @@
       <c r="E55" s="7">
         <v>184</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55">
         <v>118</v>
       </c>
       <c r="G55" s="3">
@@ -3473,7 +3595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -3489,7 +3611,7 @@
       <c r="E56" s="7">
         <v>71</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56">
         <v>88</v>
       </c>
       <c r="G56" s="3">
@@ -3515,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -3531,7 +3653,7 @@
       <c r="E57" s="7">
         <v>163</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57">
         <v>72</v>
       </c>
       <c r="G57" s="3">
@@ -3557,7 +3679,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -3573,7 +3695,7 @@
       <c r="E58" s="7">
         <v>140</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58">
         <v>116</v>
       </c>
       <c r="G58" s="3">
@@ -3599,7 +3721,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -3615,7 +3737,7 @@
       <c r="E59" s="7">
         <v>310</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59">
         <v>64</v>
       </c>
       <c r="G59" s="3">
@@ -3641,7 +3763,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -3657,7 +3779,7 @@
       <c r="E60" s="7">
         <v>354</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60">
         <v>130</v>
       </c>
       <c r="G60" s="3">
@@ -3683,7 +3805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -3699,7 +3821,7 @@
       <c r="E61" s="7">
         <v>400</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61">
         <v>128</v>
       </c>
       <c r="G61" s="3">
@@ -3725,7 +3847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -3741,7 +3863,7 @@
       <c r="E62" s="7">
         <v>411</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62">
         <v>110</v>
       </c>
       <c r="G62" s="3">
@@ -3767,7 +3889,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -3809,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -3851,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -3893,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -3935,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -3977,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -4019,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -4061,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -4103,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -4145,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -4161,7 +4283,7 @@
       <c r="E72" s="7">
         <v>200</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72">
         <v>82</v>
       </c>
       <c r="G72" s="3">
@@ -4187,7 +4309,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -4203,7 +4325,7 @@
       <c r="E73" s="7">
         <v>187</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73">
         <v>114</v>
       </c>
       <c r="G73" s="3">
@@ -4229,7 +4351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -4245,7 +4367,7 @@
       <c r="E74" s="7">
         <v>190</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74">
         <v>124</v>
       </c>
       <c r="G74" s="3">
@@ -4271,7 +4393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -4287,7 +4409,7 @@
       <c r="E75" s="7">
         <v>120</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75">
         <v>172</v>
       </c>
       <c r="G75" s="3">
@@ -4313,7 +4435,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -4355,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -4397,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -4413,7 +4535,7 @@
       <c r="E78" s="7">
         <v>157</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78">
         <v>86</v>
       </c>
       <c r="G78" s="3">
@@ -4439,7 +4561,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -4481,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>41</v>
       </c>
@@ -4523,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -4565,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -4607,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -4623,7 +4745,7 @@
       <c r="E83" s="7">
         <v>1139</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83">
         <v>8</v>
       </c>
       <c r="G83" s="3">
@@ -4652,7 +4774,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -4668,7 +4790,7 @@
       <c r="E84" s="7">
         <v>156</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84">
         <v>174</v>
       </c>
       <c r="G84" s="3">
@@ -4694,7 +4816,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>44</v>
       </c>
@@ -4736,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>44</v>
       </c>
@@ -4778,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -4820,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -4862,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -4878,7 +5000,7 @@
       <c r="E89" s="7">
         <v>269</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89">
         <v>30</v>
       </c>
       <c r="G89" s="3">
@@ -4907,7 +5029,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>44</v>
       </c>
@@ -4949,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -4991,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>44</v>
       </c>
@@ -5033,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>44</v>
       </c>
@@ -5049,7 +5171,7 @@
       <c r="E93" s="7">
         <v>184</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93">
         <v>196</v>
       </c>
       <c r="G93" s="3">
@@ -5075,7 +5197,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>44</v>
       </c>
@@ -5091,7 +5213,7 @@
       <c r="E94" s="7">
         <v>140</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F94">
         <v>188</v>
       </c>
       <c r="G94" s="3">
@@ -5117,7 +5239,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>44</v>
       </c>
@@ -5133,7 +5255,7 @@
       <c r="E95" s="7">
         <v>170</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F95">
         <v>190</v>
       </c>
       <c r="G95" s="3">
@@ -5159,7 +5281,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>44</v>
       </c>
@@ -5175,7 +5297,7 @@
       <c r="E96" s="7">
         <v>170</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F96">
         <v>188</v>
       </c>
       <c r="G96" s="3">
@@ -5201,7 +5323,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>44</v>
       </c>
@@ -5217,7 +5339,7 @@
       <c r="E97" s="7">
         <v>250</v>
       </c>
-      <c r="F97" s="9">
+      <c r="F97">
         <v>120</v>
       </c>
       <c r="G97" s="3">
@@ -5243,7 +5365,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -5285,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>46</v>
       </c>
@@ -5327,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>46</v>
       </c>
@@ -5369,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>46</v>
       </c>
@@ -5411,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>46</v>
       </c>
@@ -5427,7 +5549,7 @@
       <c r="E102" s="7">
         <v>314</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F102">
         <v>56</v>
       </c>
       <c r="G102" s="3">
@@ -5456,7 +5578,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>48</v>
       </c>
@@ -5472,7 +5594,7 @@
       <c r="E103" s="7">
         <v>90</v>
       </c>
-      <c r="F103" s="9">
+      <c r="F103">
         <v>42</v>
       </c>
       <c r="G103" s="3">
@@ -5498,7 +5620,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -5514,7 +5636,7 @@
       <c r="E104" s="7">
         <v>22</v>
       </c>
-      <c r="F104" s="9">
+      <c r="F104">
         <v>30</v>
       </c>
       <c r="G104" s="3">
@@ -5540,7 +5662,7 @@
         <v>-73</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>48</v>
       </c>
@@ -5582,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>48</v>
       </c>
@@ -5598,7 +5720,7 @@
       <c r="E106" s="7">
         <v>264</v>
       </c>
-      <c r="F106" s="9">
+      <c r="F106">
         <v>96</v>
       </c>
       <c r="G106" s="3">
@@ -5624,7 +5746,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>48</v>
       </c>
@@ -5640,7 +5762,7 @@
       <c r="E107" s="7">
         <v>219</v>
       </c>
-      <c r="F107" s="9">
+      <c r="F107">
         <v>168</v>
       </c>
       <c r="G107" s="3">
@@ -5666,7 +5788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -5682,7 +5804,7 @@
       <c r="E108" s="7">
         <v>158</v>
       </c>
-      <c r="F108" s="9">
+      <c r="F108">
         <v>152</v>
       </c>
       <c r="G108" s="3">
@@ -5708,7 +5830,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>48</v>
       </c>
@@ -5724,7 +5846,7 @@
       <c r="E109" s="7">
         <v>246</v>
       </c>
-      <c r="F109" s="9">
+      <c r="F109">
         <v>104</v>
       </c>
       <c r="G109" s="3">
@@ -5750,7 +5872,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>48</v>
       </c>
@@ -5766,7 +5888,7 @@
       <c r="E110" s="8">
         <v>135</v>
       </c>
-      <c r="F110" s="10">
+      <c r="F110" s="9">
         <v>254</v>
       </c>
       <c r="G110" s="6">
@@ -5792,7 +5914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>48</v>
       </c>
@@ -5834,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>48</v>
       </c>
@@ -5850,7 +5972,7 @@
       <c r="E112" s="7">
         <v>469</v>
       </c>
-      <c r="F112" s="9">
+      <c r="F112">
         <v>24</v>
       </c>
       <c r="G112" s="3">
@@ -5876,7 +5998,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>48</v>
       </c>
@@ -5918,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>48</v>
       </c>
@@ -5934,7 +6056,7 @@
       <c r="E114" s="7">
         <v>278</v>
       </c>
-      <c r="F114" s="9">
+      <c r="F114">
         <v>122</v>
       </c>
       <c r="G114" s="3">
@@ -5960,7 +6082,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>51</v>
       </c>
@@ -6002,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>51</v>
       </c>
@@ -6044,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>51</v>
       </c>
@@ -6086,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>51</v>
       </c>
@@ -6128,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>51</v>
       </c>
@@ -6170,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>51</v>
       </c>
@@ -6186,7 +6308,7 @@
       <c r="E120" s="7">
         <v>117</v>
       </c>
-      <c r="F120" s="9">
+      <c r="F120">
         <v>124</v>
       </c>
       <c r="G120" s="3">
@@ -6212,7 +6334,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>51</v>
       </c>
@@ -6228,7 +6350,7 @@
       <c r="E121" s="7">
         <v>214</v>
       </c>
-      <c r="F121" s="9">
+      <c r="F121">
         <v>96</v>
       </c>
       <c r="G121" s="3">
@@ -6254,7 +6376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>51</v>
       </c>
@@ -6270,7 +6392,7 @@
       <c r="E122" s="7">
         <v>271</v>
       </c>
-      <c r="F122" s="9">
+      <c r="F122">
         <v>70</v>
       </c>
       <c r="G122" s="3">
@@ -6296,7 +6418,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>51</v>
       </c>
@@ -6312,7 +6434,7 @@
       <c r="E123" s="7">
         <v>286</v>
       </c>
-      <c r="F123" s="9">
+      <c r="F123">
         <v>76</v>
       </c>
       <c r="G123" s="3">
@@ -6338,7 +6460,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>51</v>
       </c>
@@ -6354,7 +6476,7 @@
       <c r="E124" s="7">
         <v>550</v>
       </c>
-      <c r="F124" s="9">
+      <c r="F124">
         <v>44</v>
       </c>
       <c r="G124" s="3">
@@ -6380,7 +6502,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>51</v>
       </c>
@@ -6396,7 +6518,7 @@
       <c r="E125" s="7">
         <v>322</v>
       </c>
-      <c r="F125" s="9">
+      <c r="F125">
         <v>30</v>
       </c>
       <c r="G125" s="3">
@@ -6422,7 +6544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>51</v>
       </c>
@@ -6464,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>54</v>
       </c>
@@ -6480,7 +6602,7 @@
       <c r="E127" s="8">
         <v>28</v>
       </c>
-      <c r="F127" s="10">
+      <c r="F127" s="9">
         <v>278</v>
       </c>
       <c r="G127" s="6">
@@ -6507,7 +6629,7 @@
         <v>56.900000000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>54</v>
       </c>
@@ -6549,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>54</v>
       </c>
@@ -6591,7 +6713,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>54</v>
       </c>
@@ -6607,7 +6729,7 @@
       <c r="E130" s="8">
         <v>50</v>
       </c>
-      <c r="F130" s="10">
+      <c r="F130" s="9">
         <v>222</v>
       </c>
       <c r="G130" s="6">
@@ -6633,7 +6755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>54</v>
       </c>
@@ -6649,7 +6771,7 @@
       <c r="E131" s="7">
         <v>92</v>
       </c>
-      <c r="F131" s="9">
+      <c r="F131">
         <v>360</v>
       </c>
       <c r="G131" s="3">
@@ -6675,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>54</v>
       </c>
@@ -6691,7 +6813,7 @@
       <c r="E132" s="7">
         <v>0</v>
       </c>
-      <c r="F132" s="9">
+      <c r="F132">
         <v>270</v>
       </c>
       <c r="G132" s="3">
@@ -6718,7 +6840,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>54</v>
       </c>
@@ -6734,7 +6856,7 @@
       <c r="E133" s="7">
         <v>94</v>
       </c>
-      <c r="F133" s="9">
+      <c r="F133">
         <v>100</v>
       </c>
       <c r="G133" s="3">
@@ -6760,7 +6882,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>54</v>
       </c>
@@ -6776,7 +6898,7 @@
       <c r="E134" s="7">
         <v>63</v>
       </c>
-      <c r="F134" s="9">
+      <c r="F134">
         <v>138</v>
       </c>
       <c r="G134" s="3">
@@ -6802,7 +6924,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>54</v>
       </c>
@@ -6818,7 +6940,7 @@
       <c r="E135" s="7">
         <v>71</v>
       </c>
-      <c r="F135" s="9">
+      <c r="F135">
         <v>114</v>
       </c>
       <c r="G135" s="3">
@@ -6844,7 +6966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>54</v>
       </c>
@@ -6860,7 +6982,7 @@
       <c r="E136" s="7">
         <v>80</v>
       </c>
-      <c r="F136" s="9">
+      <c r="F136">
         <v>206</v>
       </c>
       <c r="G136" s="3">
@@ -6886,7 +7008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>54</v>
       </c>
@@ -6928,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>54</v>
       </c>
@@ -6944,7 +7066,7 @@
       <c r="E138" s="7">
         <v>112</v>
       </c>
-      <c r="F138" s="9">
+      <c r="F138">
         <v>78</v>
       </c>
       <c r="G138" s="3">
@@ -6970,7 +7092,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>54</v>
       </c>
@@ -7015,7 +7137,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>54</v>
       </c>
@@ -7057,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>56</v>
       </c>
@@ -7099,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>56</v>
       </c>
@@ -7141,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>56</v>
       </c>
@@ -7183,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>56</v>
       </c>
@@ -7225,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>56</v>
       </c>
@@ -7267,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>56</v>
       </c>
@@ -7309,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>56</v>
       </c>
@@ -7351,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>56</v>
       </c>
@@ -7393,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>56</v>
       </c>
@@ -7435,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>56</v>
       </c>
@@ -7477,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>56</v>
       </c>
@@ -7519,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>56</v>
       </c>
@@ -7561,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>56</v>
       </c>
@@ -7603,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>56</v>
       </c>
@@ -7645,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>56</v>
       </c>
@@ -7687,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>56</v>
       </c>
@@ -7703,7 +7825,7 @@
       <c r="E156" s="7">
         <v>125</v>
       </c>
-      <c r="F156" s="9">
+      <c r="F156">
         <v>114</v>
       </c>
       <c r="G156" s="3">
@@ -7729,7 +7851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>56</v>
       </c>
@@ -7745,7 +7867,7 @@
       <c r="E157" s="7">
         <v>264</v>
       </c>
-      <c r="F157" s="9">
+      <c r="F157">
         <v>112</v>
       </c>
       <c r="G157" s="3">
@@ -7771,7 +7893,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>56</v>
       </c>
@@ -7787,7 +7909,7 @@
       <c r="E158" s="7">
         <v>255</v>
       </c>
-      <c r="F158" s="9">
+      <c r="F158">
         <v>100</v>
       </c>
       <c r="G158" s="3">
@@ -7813,7 +7935,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>56</v>
       </c>
@@ -7829,7 +7951,7 @@
       <c r="E159" s="7">
         <v>250</v>
       </c>
-      <c r="F159" s="9">
+      <c r="F159">
         <v>92</v>
       </c>
       <c r="G159" s="3">
@@ -7855,7 +7977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>56</v>
       </c>
@@ -7897,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>56</v>
       </c>
@@ -7913,7 +8035,7 @@
       <c r="E161" s="7">
         <v>362</v>
       </c>
-      <c r="F161" s="9">
+      <c r="F161">
         <v>60</v>
       </c>
       <c r="G161" s="3">
@@ -7939,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>56</v>
       </c>
@@ -7981,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>56</v>
       </c>
@@ -8033,49 +8155,7209 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7246808B-2392-4420-A296-1463F1A39F5A}">
-  <dimension ref="B6:C8"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672BEF6C-E01E-425E-AD42-A5F2D3A92073}">
+  <dimension ref="A1:N163"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="12">
+        <v>6</v>
+      </c>
+      <c r="H8" s="12">
+        <v>125</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12">
+        <v>175</v>
+      </c>
+      <c r="D10" s="12">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>58</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>316</v>
+      </c>
+      <c r="J10" s="13">
+        <v>20</v>
+      </c>
+      <c r="K10" s="13">
+        <v>64</v>
+      </c>
+      <c r="L10" s="12">
+        <v>80</v>
+      </c>
+      <c r="M10" s="12">
+        <v>48</v>
+      </c>
+      <c r="N10" s="12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12">
+        <v>100</v>
+      </c>
+      <c r="D15" s="12">
+        <v>40</v>
+      </c>
+      <c r="E15" s="12">
+        <v>376</v>
+      </c>
+      <c r="F15" s="12">
+        <v>108</v>
+      </c>
+      <c r="G15" s="12">
+        <v>40</v>
+      </c>
+      <c r="H15" s="12">
+        <v>353</v>
+      </c>
+      <c r="I15" s="13">
+        <v>102</v>
+      </c>
+      <c r="J15" s="13">
+        <v>40</v>
+      </c>
+      <c r="K15" s="13">
+        <v>329</v>
+      </c>
+      <c r="L15" s="12">
+        <v>94</v>
+      </c>
+      <c r="M15" s="12">
+        <v>38</v>
+      </c>
+      <c r="N15" s="12">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="12">
+        <v>102</v>
+      </c>
+      <c r="D19" s="12">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12">
+        <v>20</v>
+      </c>
+      <c r="F19" s="12">
+        <v>10</v>
+      </c>
+      <c r="G19" s="12">
+        <v>24</v>
+      </c>
+      <c r="H19" s="12">
+        <v>316</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>10</v>
+      </c>
+      <c r="E24" s="12">
+        <v>28</v>
+      </c>
+      <c r="F24" s="12">
+        <v>86</v>
+      </c>
+      <c r="G24" s="12">
+        <v>2</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="12">
+        <v>54</v>
+      </c>
+      <c r="D25" s="12">
+        <v>28</v>
+      </c>
+      <c r="E25" s="12">
+        <v>14</v>
+      </c>
+      <c r="F25" s="12">
+        <v>58</v>
+      </c>
+      <c r="G25" s="12">
+        <v>2</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="12">
+        <v>50</v>
+      </c>
+      <c r="D26" s="12">
+        <v>92</v>
+      </c>
+      <c r="E26" s="12">
+        <v>283</v>
+      </c>
+      <c r="F26" s="12">
+        <v>108</v>
+      </c>
+      <c r="G26" s="12">
+        <v>46</v>
+      </c>
+      <c r="H26" s="12">
+        <v>286</v>
+      </c>
+      <c r="I26" s="13">
+        <v>208</v>
+      </c>
+      <c r="J26" s="13">
+        <v>46</v>
+      </c>
+      <c r="K26" s="13">
+        <v>292</v>
+      </c>
+      <c r="L26" s="12">
+        <v>202</v>
+      </c>
+      <c r="M26" s="12">
+        <v>50</v>
+      </c>
+      <c r="N26" s="12">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>40</v>
+      </c>
+      <c r="G27" s="12">
+        <v>70</v>
+      </c>
+      <c r="H27" s="12">
+        <v>14</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="12">
+        <v>192</v>
+      </c>
+      <c r="D29" s="12">
+        <v>40</v>
+      </c>
+      <c r="E29" s="12">
+        <v>262</v>
+      </c>
+      <c r="F29" s="12">
+        <v>310</v>
+      </c>
+      <c r="G29" s="12">
+        <v>30</v>
+      </c>
+      <c r="H29" s="12">
+        <v>102</v>
+      </c>
+      <c r="I29" s="13">
+        <v>204</v>
+      </c>
+      <c r="J29" s="13">
+        <v>32</v>
+      </c>
+      <c r="K29" s="13">
+        <v>250</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12">
+        <v>141</v>
+      </c>
+      <c r="G32" s="12">
+        <v>8</v>
+      </c>
+      <c r="H32" s="12">
+        <v>14</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="12">
+        <v>170</v>
+      </c>
+      <c r="D38" s="12">
+        <v>48</v>
+      </c>
+      <c r="E38" s="12">
+        <v>738</v>
+      </c>
+      <c r="F38" s="12">
+        <v>180</v>
+      </c>
+      <c r="G38" s="12">
+        <v>50</v>
+      </c>
+      <c r="H38" s="12">
+        <v>768</v>
+      </c>
+      <c r="I38" s="13">
+        <v>146</v>
+      </c>
+      <c r="J38" s="13">
+        <v>48</v>
+      </c>
+      <c r="K38" s="13">
+        <v>769</v>
+      </c>
+      <c r="L38" s="12">
+        <v>112</v>
+      </c>
+      <c r="M38" s="12">
+        <v>52</v>
+      </c>
+      <c r="N38" s="12">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="12">
+        <v>236</v>
+      </c>
+      <c r="D39" s="12">
+        <v>62</v>
+      </c>
+      <c r="E39" s="12">
+        <v>616</v>
+      </c>
+      <c r="F39" s="12">
+        <v>222</v>
+      </c>
+      <c r="G39" s="12">
+        <v>64</v>
+      </c>
+      <c r="H39" s="12">
+        <v>616</v>
+      </c>
+      <c r="I39" s="13">
+        <v>191</v>
+      </c>
+      <c r="J39" s="13">
+        <v>62</v>
+      </c>
+      <c r="K39" s="13">
+        <v>666</v>
+      </c>
+      <c r="L39" s="12">
+        <v>180</v>
+      </c>
+      <c r="M39" s="12">
+        <v>64</v>
+      </c>
+      <c r="N39" s="12">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="12">
+        <v>142</v>
+      </c>
+      <c r="D40" s="12">
+        <v>56</v>
+      </c>
+      <c r="E40" s="12">
+        <v>583</v>
+      </c>
+      <c r="F40" s="12">
+        <v>142</v>
+      </c>
+      <c r="G40" s="12">
+        <v>54</v>
+      </c>
+      <c r="H40" s="12">
+        <v>587</v>
+      </c>
+      <c r="I40" s="13">
+        <v>142</v>
+      </c>
+      <c r="J40" s="13">
+        <v>56</v>
+      </c>
+      <c r="K40" s="13">
+        <v>587</v>
+      </c>
+      <c r="L40" s="12">
+        <v>144</v>
+      </c>
+      <c r="M40" s="12">
+        <v>80</v>
+      </c>
+      <c r="N40" s="12">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="12">
+        <v>219</v>
+      </c>
+      <c r="D41" s="12">
+        <v>50</v>
+      </c>
+      <c r="E41" s="12">
+        <v>438</v>
+      </c>
+      <c r="F41" s="12">
+        <v>157</v>
+      </c>
+      <c r="G41" s="12">
+        <v>68</v>
+      </c>
+      <c r="H41" s="12">
+        <v>456</v>
+      </c>
+      <c r="I41" s="13">
+        <v>219</v>
+      </c>
+      <c r="J41" s="13">
+        <v>54</v>
+      </c>
+      <c r="K41" s="13">
+        <v>452</v>
+      </c>
+      <c r="L41" s="12">
+        <v>220</v>
+      </c>
+      <c r="M41" s="12">
+        <v>52</v>
+      </c>
+      <c r="N41" s="12">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="12">
+        <v>10</v>
+      </c>
+      <c r="D45" s="12">
+        <v>96</v>
+      </c>
+      <c r="E45" s="12">
+        <v>762</v>
+      </c>
+      <c r="F45" s="12">
+        <v>14</v>
+      </c>
+      <c r="G45" s="12">
+        <v>108</v>
+      </c>
+      <c r="H45" s="12">
+        <v>762</v>
+      </c>
+      <c r="I45" s="13">
+        <v>10</v>
+      </c>
+      <c r="J45" s="13">
+        <v>110</v>
+      </c>
+      <c r="K45" s="13">
+        <v>767</v>
+      </c>
+      <c r="L45" s="12">
+        <v>10</v>
+      </c>
+      <c r="M45" s="12">
+        <v>154</v>
+      </c>
+      <c r="N45" s="12">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="12">
+        <v>135</v>
+      </c>
+      <c r="D50" s="12">
+        <v>26</v>
+      </c>
+      <c r="E50" s="12">
+        <v>402</v>
+      </c>
+      <c r="F50" s="12">
+        <v>135</v>
+      </c>
+      <c r="G50" s="12">
+        <v>26</v>
+      </c>
+      <c r="H50" s="12">
+        <v>369</v>
+      </c>
+      <c r="I50" s="13">
+        <v>135</v>
+      </c>
+      <c r="J50" s="13">
+        <v>26</v>
+      </c>
+      <c r="K50" s="13">
+        <v>372</v>
+      </c>
+      <c r="L50" s="12">
+        <v>134</v>
+      </c>
+      <c r="M50" s="12">
+        <v>28</v>
+      </c>
+      <c r="N50" s="12">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="12">
+        <v>32</v>
+      </c>
+      <c r="D51" s="12">
+        <v>44</v>
+      </c>
+      <c r="E51" s="12">
+        <v>14</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="12">
+        <v>40</v>
+      </c>
+      <c r="D52" s="12">
+        <v>86</v>
+      </c>
+      <c r="E52" s="12">
+        <v>20</v>
+      </c>
+      <c r="F52" s="12">
+        <v>61</v>
+      </c>
+      <c r="G52" s="12">
+        <v>6</v>
+      </c>
+      <c r="H52" s="12">
+        <v>10</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="12">
+        <v>41</v>
+      </c>
+      <c r="D53" s="12">
+        <v>94</v>
+      </c>
+      <c r="E53" s="12">
+        <v>1224</v>
+      </c>
+      <c r="F53" s="12">
+        <v>36</v>
+      </c>
+      <c r="G53" s="12">
+        <v>82</v>
+      </c>
+      <c r="H53" s="12">
+        <v>1268</v>
+      </c>
+      <c r="I53" s="13">
+        <v>36</v>
+      </c>
+      <c r="J53" s="13">
+        <v>84</v>
+      </c>
+      <c r="K53" s="13">
+        <v>1238</v>
+      </c>
+      <c r="L53" s="12">
+        <v>10</v>
+      </c>
+      <c r="M53" s="12">
+        <v>86</v>
+      </c>
+      <c r="N53" s="12">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="12">
+        <v>28</v>
+      </c>
+      <c r="D54" s="12">
+        <v>98</v>
+      </c>
+      <c r="E54" s="12">
+        <v>1336</v>
+      </c>
+      <c r="F54" s="12">
+        <v>28</v>
+      </c>
+      <c r="G54" s="12">
+        <v>90</v>
+      </c>
+      <c r="H54" s="12">
+        <v>1346</v>
+      </c>
+      <c r="I54" s="13">
+        <v>28</v>
+      </c>
+      <c r="J54" s="13">
+        <v>94</v>
+      </c>
+      <c r="K54" s="13">
+        <v>1346</v>
+      </c>
+      <c r="L54" s="12">
+        <v>14</v>
+      </c>
+      <c r="M54" s="12">
+        <v>126</v>
+      </c>
+      <c r="N54" s="12">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="12">
+        <v>130</v>
+      </c>
+      <c r="D55" s="12">
+        <v>78</v>
+      </c>
+      <c r="E55" s="12">
+        <v>28</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="12">
+        <v>139</v>
+      </c>
+      <c r="D56" s="12">
+        <v>56</v>
+      </c>
+      <c r="E56" s="12">
+        <v>36</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="12">
+        <v>89</v>
+      </c>
+      <c r="D57" s="12">
+        <v>56</v>
+      </c>
+      <c r="E57" s="12">
+        <v>336</v>
+      </c>
+      <c r="F57" s="12">
+        <v>366</v>
+      </c>
+      <c r="G57" s="12">
+        <v>30</v>
+      </c>
+      <c r="H57" s="12">
+        <v>519</v>
+      </c>
+      <c r="I57" s="13">
+        <v>361</v>
+      </c>
+      <c r="J57" s="13">
+        <v>26</v>
+      </c>
+      <c r="K57" s="13">
+        <v>408</v>
+      </c>
+      <c r="L57" s="12">
+        <v>355</v>
+      </c>
+      <c r="M57" s="12">
+        <v>30</v>
+      </c>
+      <c r="N57" s="12">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="12">
+        <v>143</v>
+      </c>
+      <c r="D58" s="12">
+        <v>42</v>
+      </c>
+      <c r="E58" s="12">
+        <v>380</v>
+      </c>
+      <c r="F58" s="12">
+        <v>170</v>
+      </c>
+      <c r="G58" s="12">
+        <v>36</v>
+      </c>
+      <c r="H58" s="12">
+        <v>394</v>
+      </c>
+      <c r="I58" s="13">
+        <v>168</v>
+      </c>
+      <c r="J58" s="13">
+        <v>34</v>
+      </c>
+      <c r="K58" s="13">
+        <v>418</v>
+      </c>
+      <c r="L58" s="12">
+        <v>163</v>
+      </c>
+      <c r="M58" s="12">
+        <v>34</v>
+      </c>
+      <c r="N58" s="12">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <v>0</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0</v>
+      </c>
+      <c r="L59" s="12">
+        <v>250</v>
+      </c>
+      <c r="M59" s="12">
+        <v>32</v>
+      </c>
+      <c r="N59" s="12">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="12">
+        <v>120</v>
+      </c>
+      <c r="D60" s="12">
+        <v>84</v>
+      </c>
+      <c r="E60" s="12">
+        <v>153</v>
+      </c>
+      <c r="F60" s="12">
+        <v>141</v>
+      </c>
+      <c r="G60" s="12">
+        <v>6</v>
+      </c>
+      <c r="H60" s="12">
+        <v>22</v>
+      </c>
+      <c r="I60" s="13">
+        <v>506</v>
+      </c>
+      <c r="J60" s="13">
+        <v>6</v>
+      </c>
+      <c r="K60" s="13">
+        <v>92</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="12">
+        <v>120</v>
+      </c>
+      <c r="D61" s="12">
+        <v>114</v>
+      </c>
+      <c r="E61" s="12">
+        <v>22</v>
+      </c>
+      <c r="F61" s="12">
+        <v>120</v>
+      </c>
+      <c r="G61" s="12">
+        <v>54</v>
+      </c>
+      <c r="H61" s="12">
+        <v>22</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="12">
         <v>81</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D62" s="12">
+        <v>98</v>
+      </c>
+      <c r="E62" s="12">
+        <v>718</v>
+      </c>
+      <c r="F62" s="12">
+        <v>104</v>
+      </c>
+      <c r="G62" s="12">
+        <v>6</v>
+      </c>
+      <c r="H62" s="12">
+        <v>10</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="12">
+        <v>40</v>
+      </c>
+      <c r="D63" s="12">
+        <v>38</v>
+      </c>
+      <c r="E63" s="12">
+        <v>10</v>
+      </c>
+      <c r="F63" s="12">
+        <v>40</v>
+      </c>
+      <c r="G63" s="12">
+        <v>14</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <v>0</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="12">
+        <v>10</v>
+      </c>
+      <c r="D64" s="12">
+        <v>180</v>
+      </c>
+      <c r="E64" s="12">
+        <v>661</v>
+      </c>
+      <c r="F64" s="12">
+        <v>14</v>
+      </c>
+      <c r="G64" s="12">
+        <v>68</v>
+      </c>
+      <c r="H64" s="12">
+        <v>14</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="12">
+        <v>41</v>
+      </c>
+      <c r="D65" s="12">
+        <v>114</v>
+      </c>
+      <c r="E65" s="12">
+        <v>878</v>
+      </c>
+      <c r="F65" s="12">
+        <v>20</v>
+      </c>
+      <c r="G65" s="12">
+        <v>68</v>
+      </c>
+      <c r="H65" s="12">
+        <v>64</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="12">
+        <v>30</v>
+      </c>
+      <c r="D66" s="12">
+        <v>114</v>
+      </c>
+      <c r="E66" s="12">
+        <v>646</v>
+      </c>
+      <c r="F66" s="12">
+        <v>28</v>
+      </c>
+      <c r="G66" s="12">
+        <v>58</v>
+      </c>
+      <c r="H66" s="12">
+        <v>20</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="12">
+        <v>60</v>
+      </c>
+      <c r="D67" s="12">
+        <v>156</v>
+      </c>
+      <c r="E67" s="12">
+        <v>808</v>
+      </c>
+      <c r="F67" s="12">
+        <v>60</v>
+      </c>
+      <c r="G67" s="12">
+        <v>138</v>
+      </c>
+      <c r="H67" s="12">
+        <v>95</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="12">
+        <v>50</v>
+      </c>
+      <c r="D68" s="12">
+        <v>182</v>
+      </c>
+      <c r="E68" s="12">
+        <v>1124</v>
+      </c>
+      <c r="F68" s="12">
+        <v>45</v>
+      </c>
+      <c r="G68" s="12">
+        <v>182</v>
+      </c>
+      <c r="H68" s="12">
+        <v>20</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="12">
+        <v>41</v>
+      </c>
+      <c r="D69" s="12">
+        <v>220</v>
+      </c>
+      <c r="E69" s="12">
+        <v>902</v>
+      </c>
+      <c r="F69" s="12">
+        <v>40</v>
+      </c>
+      <c r="G69" s="12">
+        <v>228</v>
+      </c>
+      <c r="H69" s="12">
+        <v>81</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J69" s="13">
+        <v>8</v>
+      </c>
+      <c r="K69" s="13">
+        <v>610</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="12">
+        <v>32</v>
+      </c>
+      <c r="D70" s="12">
+        <v>236</v>
+      </c>
+      <c r="E70" s="12">
+        <v>283</v>
+      </c>
+      <c r="F70" s="12">
+        <v>30</v>
+      </c>
+      <c r="G70" s="12">
+        <v>208</v>
+      </c>
+      <c r="H70" s="12">
+        <v>22</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7">
+        <v>0</v>
+      </c>
+      <c r="K70" s="7">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="12">
+        <v>50</v>
+      </c>
+      <c r="D71" s="12">
+        <v>122</v>
+      </c>
+      <c r="E71" s="12">
+        <v>100</v>
+      </c>
+      <c r="F71" s="12">
+        <v>50</v>
+      </c>
+      <c r="G71" s="12">
+        <v>86</v>
+      </c>
+      <c r="H71" s="12">
+        <v>22</v>
+      </c>
+      <c r="I71" s="7">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <v>0</v>
+      </c>
+      <c r="K71" s="7">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="12">
+        <v>72</v>
+      </c>
+      <c r="D72" s="12">
+        <v>76</v>
+      </c>
+      <c r="E72" s="12">
+        <v>357</v>
+      </c>
+      <c r="F72" s="12">
+        <v>58</v>
+      </c>
+      <c r="G72" s="12">
+        <v>48</v>
+      </c>
+      <c r="H72" s="12">
+        <v>20</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <v>0</v>
+      </c>
+      <c r="K72" s="7">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="12">
+        <v>70</v>
+      </c>
+      <c r="D73" s="12">
+        <v>134</v>
+      </c>
+      <c r="E73" s="12">
+        <v>434</v>
+      </c>
+      <c r="F73" s="12">
+        <v>67</v>
+      </c>
+      <c r="G73" s="12">
+        <v>86</v>
+      </c>
+      <c r="H73" s="12">
+        <v>14</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7">
+        <v>0</v>
+      </c>
+      <c r="K73" s="7">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="12">
+        <v>81</v>
+      </c>
+      <c r="D74" s="12">
+        <v>10</v>
+      </c>
+      <c r="E74" s="12">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0</v>
+      </c>
+      <c r="J74" s="7">
+        <v>0</v>
+      </c>
+      <c r="K74" s="7">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="12">
+        <v>51</v>
+      </c>
+      <c r="D75" s="12">
+        <v>68</v>
+      </c>
+      <c r="E75" s="12">
+        <v>432</v>
+      </c>
+      <c r="F75" s="12">
+        <v>63</v>
+      </c>
+      <c r="G75" s="12">
+        <v>52</v>
+      </c>
+      <c r="H75" s="12">
+        <v>14</v>
+      </c>
+      <c r="I75" s="7">
+        <v>0</v>
+      </c>
+      <c r="J75" s="7">
+        <v>0</v>
+      </c>
+      <c r="K75" s="7">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="12">
+        <v>36</v>
+      </c>
+      <c r="D76" s="12">
+        <v>96</v>
+      </c>
+      <c r="E76" s="12">
+        <v>764</v>
+      </c>
+      <c r="F76" s="12">
+        <v>32</v>
+      </c>
+      <c r="G76" s="12">
+        <v>106</v>
+      </c>
+      <c r="H76" s="12">
+        <v>164</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
+        <v>0</v>
+      </c>
+      <c r="K76" s="7">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="12">
+        <v>51</v>
+      </c>
+      <c r="D77" s="12">
+        <v>138</v>
+      </c>
+      <c r="E77" s="12">
+        <v>135</v>
+      </c>
+      <c r="F77" s="12">
+        <v>40</v>
+      </c>
+      <c r="G77" s="12">
+        <v>96</v>
+      </c>
+      <c r="H77" s="12">
+        <v>30</v>
+      </c>
+      <c r="I77" s="7">
+        <v>0</v>
+      </c>
+      <c r="J77" s="7">
+        <v>0</v>
+      </c>
+      <c r="K77" s="7">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="12">
+        <v>92</v>
+      </c>
+      <c r="D78" s="12">
+        <v>80</v>
+      </c>
+      <c r="E78" s="12">
+        <v>135</v>
+      </c>
+      <c r="F78" s="12">
+        <v>92</v>
+      </c>
+      <c r="G78" s="12">
+        <v>40</v>
+      </c>
+      <c r="H78" s="12">
+        <v>20</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+      <c r="K78" s="7">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0</v>
+      </c>
+      <c r="J79" s="7">
+        <v>0</v>
+      </c>
+      <c r="K79" s="7">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7">
+        <v>0</v>
+      </c>
+      <c r="K80" s="7">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7">
+        <v>0</v>
+      </c>
+      <c r="K81" s="7">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" s="12">
+        <v>112</v>
+      </c>
+      <c r="G82" s="12">
+        <v>2</v>
+      </c>
+      <c r="H82" s="12">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7">
+        <v>0</v>
+      </c>
+      <c r="K82" s="7">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>0</v>
+      </c>
+      <c r="J83" s="7">
+        <v>0</v>
+      </c>
+      <c r="K83" s="7">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <v>0</v>
+      </c>
+      <c r="K84" s="7">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>0</v>
+      </c>
+      <c r="J85" s="7">
+        <v>0</v>
+      </c>
+      <c r="K85" s="7">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="12">
+        <v>210</v>
+      </c>
+      <c r="D86" s="12">
+        <v>22</v>
+      </c>
+      <c r="E86" s="12">
+        <v>455</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86" s="7">
+        <v>0</v>
+      </c>
+      <c r="K86" s="7">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="12">
+        <v>427</v>
+      </c>
+      <c r="D87" s="12">
+        <v>8</v>
+      </c>
+      <c r="E87" s="12">
+        <v>64</v>
+      </c>
+      <c r="F87" s="12">
+        <v>457</v>
+      </c>
+      <c r="G87" s="12">
+        <v>14</v>
+      </c>
+      <c r="H87" s="12">
+        <v>142</v>
+      </c>
+      <c r="I87" s="13">
+        <v>483</v>
+      </c>
+      <c r="J87" s="13">
+        <v>12</v>
+      </c>
+      <c r="K87" s="13">
+        <v>149</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7">
+        <v>0</v>
+      </c>
+      <c r="K88" s="7">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" s="12">
+        <v>601</v>
+      </c>
+      <c r="G89" s="12">
+        <v>6</v>
+      </c>
+      <c r="H89" s="12">
+        <v>76</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7">
+        <v>0</v>
+      </c>
+      <c r="K89" s="7">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>0</v>
+      </c>
+      <c r="K90" s="7">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>0</v>
+      </c>
+      <c r="J91" s="7">
+        <v>0</v>
+      </c>
+      <c r="K91" s="7">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" s="7">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7">
+        <v>0</v>
+      </c>
+      <c r="K92" s="7">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" s="12">
+        <v>120</v>
+      </c>
+      <c r="G93" s="12">
+        <v>10</v>
+      </c>
+      <c r="H93" s="12">
+        <v>10</v>
+      </c>
+      <c r="I93" s="7">
+        <v>0</v>
+      </c>
+      <c r="J93" s="7">
+        <v>0</v>
+      </c>
+      <c r="K93" s="7">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" s="12">
+        <v>139</v>
+      </c>
+      <c r="G94" s="12">
+        <v>18</v>
+      </c>
+      <c r="H94" s="12">
+        <v>14</v>
+      </c>
+      <c r="I94" s="7">
+        <v>0</v>
+      </c>
+      <c r="J94" s="7">
+        <v>0</v>
+      </c>
+      <c r="K94" s="7">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" s="7">
+        <v>0</v>
+      </c>
+      <c r="J95" s="7">
+        <v>0</v>
+      </c>
+      <c r="K95" s="7">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="12">
+        <v>245</v>
+      </c>
+      <c r="D96" s="12">
+        <v>16</v>
+      </c>
+      <c r="E96" s="12">
+        <v>141</v>
+      </c>
+      <c r="F96" s="12">
+        <v>257</v>
+      </c>
+      <c r="G96" s="12">
+        <v>14</v>
+      </c>
+      <c r="H96" s="12">
+        <v>122</v>
+      </c>
+      <c r="I96" s="13">
+        <v>114</v>
+      </c>
+      <c r="J96" s="13">
+        <v>24</v>
+      </c>
+      <c r="K96" s="13">
+        <v>175</v>
+      </c>
+      <c r="L96" s="12">
+        <v>260</v>
+      </c>
+      <c r="M96" s="12">
+        <v>14</v>
+      </c>
+      <c r="N96" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" s="12">
+        <v>345</v>
+      </c>
+      <c r="G97" s="12">
+        <v>14</v>
+      </c>
+      <c r="H97" s="12">
+        <v>139</v>
+      </c>
+      <c r="I97" s="13">
+        <v>362</v>
+      </c>
+      <c r="J97" s="13">
+        <v>10</v>
+      </c>
+      <c r="K97" s="13">
+        <v>73</v>
+      </c>
+      <c r="L97" s="12">
+        <v>335</v>
+      </c>
+      <c r="M97" s="12">
+        <v>58</v>
+      </c>
+      <c r="N97" s="12">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" s="7">
+        <v>0</v>
+      </c>
+      <c r="J98" s="7">
+        <v>0</v>
+      </c>
+      <c r="K98" s="7">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" s="7">
+        <v>0</v>
+      </c>
+      <c r="J99" s="7">
+        <v>0</v>
+      </c>
+      <c r="K99" s="7">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" s="7">
+        <v>0</v>
+      </c>
+      <c r="J100" s="7">
+        <v>0</v>
+      </c>
+      <c r="K100" s="7">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" s="7">
+        <v>0</v>
+      </c>
+      <c r="J101" s="7">
+        <v>0</v>
+      </c>
+      <c r="K101" s="7">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" s="12">
+        <v>336</v>
+      </c>
+      <c r="G102" s="12">
+        <v>10</v>
+      </c>
+      <c r="H102" s="12">
+        <v>283</v>
+      </c>
+      <c r="I102" s="13">
+        <v>325</v>
+      </c>
+      <c r="J102" s="13">
+        <v>12</v>
+      </c>
+      <c r="K102" s="13">
+        <v>318</v>
+      </c>
+      <c r="L102" s="12">
+        <v>447</v>
+      </c>
+      <c r="M102" s="12">
+        <v>12</v>
+      </c>
+      <c r="N102" s="12">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>48</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" s="7">
+        <v>0</v>
+      </c>
+      <c r="J103" s="7">
+        <v>0</v>
+      </c>
+      <c r="K103" s="7">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="12">
+        <v>198</v>
+      </c>
+      <c r="D104" s="12">
+        <v>26</v>
+      </c>
+      <c r="E104" s="12">
+        <v>386</v>
+      </c>
+      <c r="F104" s="12">
+        <v>205</v>
+      </c>
+      <c r="G104" s="12">
+        <v>26</v>
+      </c>
+      <c r="H104" s="12">
+        <v>447</v>
+      </c>
+      <c r="I104" s="13">
+        <v>205</v>
+      </c>
+      <c r="J104" s="13">
+        <v>26</v>
+      </c>
+      <c r="K104" s="13">
+        <v>455</v>
+      </c>
+      <c r="L104" s="12">
+        <v>198</v>
+      </c>
+      <c r="M104" s="12">
+        <v>26</v>
+      </c>
+      <c r="N104" s="12">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" s="7">
+        <v>0</v>
+      </c>
+      <c r="J105" s="7">
+        <v>0</v>
+      </c>
+      <c r="K105" s="7">
+        <v>0</v>
+      </c>
+      <c r="L105" s="12">
+        <v>320</v>
+      </c>
+      <c r="M105" s="12">
+        <v>6</v>
+      </c>
+      <c r="N105" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" s="12">
+        <v>172</v>
+      </c>
+      <c r="G106" s="12">
+        <v>2</v>
+      </c>
+      <c r="H106" s="12">
+        <v>0</v>
+      </c>
+      <c r="I106" s="7">
+        <v>0</v>
+      </c>
+      <c r="J106" s="7">
+        <v>0</v>
+      </c>
+      <c r="K106" s="7">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="12">
+        <v>158</v>
+      </c>
+      <c r="D107" s="12">
+        <v>46</v>
+      </c>
+      <c r="E107" s="12">
+        <v>20</v>
+      </c>
+      <c r="F107" s="12">
+        <v>161</v>
+      </c>
+      <c r="G107" s="12">
+        <v>28</v>
+      </c>
+      <c r="H107" s="12">
+        <v>14</v>
+      </c>
+      <c r="I107" s="7">
+        <v>0</v>
+      </c>
+      <c r="J107" s="7">
+        <v>0</v>
+      </c>
+      <c r="K107" s="7">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" s="7">
+        <v>0</v>
+      </c>
+      <c r="J108" s="7">
+        <v>0</v>
+      </c>
+      <c r="K108" s="7">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="12">
+        <v>422</v>
+      </c>
+      <c r="D109" s="12">
+        <v>24</v>
+      </c>
+      <c r="E109" s="12">
+        <v>400</v>
+      </c>
+      <c r="F109" s="12">
+        <v>422</v>
+      </c>
+      <c r="G109" s="12">
+        <v>22</v>
+      </c>
+      <c r="H109" s="12">
+        <v>424</v>
+      </c>
+      <c r="I109" s="13">
+        <v>420</v>
+      </c>
+      <c r="J109" s="13">
+        <v>26</v>
+      </c>
+      <c r="K109" s="13">
+        <v>400</v>
+      </c>
+      <c r="L109" s="12">
+        <v>411</v>
+      </c>
+      <c r="M109" s="12">
+        <v>32</v>
+      </c>
+      <c r="N109" s="12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" s="12">
+        <v>112</v>
+      </c>
+      <c r="D110" s="12">
+        <v>44</v>
+      </c>
+      <c r="E110" s="12">
+        <v>581</v>
+      </c>
+      <c r="F110" s="12">
+        <v>120</v>
+      </c>
+      <c r="G110" s="12">
+        <v>40</v>
+      </c>
+      <c r="H110" s="12">
+        <v>571</v>
+      </c>
+      <c r="I110" s="13">
+        <v>117</v>
+      </c>
+      <c r="J110" s="13">
+        <v>40</v>
+      </c>
+      <c r="K110" s="13">
+        <v>582</v>
+      </c>
+      <c r="L110" s="12">
+        <v>103</v>
+      </c>
+      <c r="M110" s="12">
+        <v>44</v>
+      </c>
+      <c r="N110" s="12">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="12">
+        <v>332</v>
+      </c>
+      <c r="D111" s="12">
+        <v>8</v>
+      </c>
+      <c r="E111" s="12">
+        <v>14</v>
+      </c>
+      <c r="F111" s="12">
+        <v>283</v>
+      </c>
+      <c r="G111" s="12">
+        <v>16</v>
+      </c>
+      <c r="H111" s="12">
+        <v>32</v>
+      </c>
+      <c r="I111" s="7">
+        <v>0</v>
+      </c>
+      <c r="J111" s="7">
+        <v>0</v>
+      </c>
+      <c r="K111" s="7">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="12">
+        <v>130</v>
+      </c>
+      <c r="D112" s="12">
+        <v>20</v>
+      </c>
+      <c r="E112" s="12">
+        <v>286</v>
+      </c>
+      <c r="F112" s="12">
+        <v>121</v>
+      </c>
+      <c r="G112" s="12">
+        <v>16</v>
+      </c>
+      <c r="H112" s="12">
+        <v>465</v>
+      </c>
+      <c r="I112" s="13">
+        <v>130</v>
+      </c>
+      <c r="J112" s="13">
+        <v>14</v>
+      </c>
+      <c r="K112" s="13">
+        <v>626</v>
+      </c>
+      <c r="L112" s="12">
+        <v>106</v>
+      </c>
+      <c r="M112" s="12">
+        <v>30</v>
+      </c>
+      <c r="N112" s="12">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" s="7">
+        <v>0</v>
+      </c>
+      <c r="J113" s="7">
+        <v>0</v>
+      </c>
+      <c r="K113" s="7">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="12">
+        <v>73</v>
+      </c>
+      <c r="D114" s="12">
+        <v>96</v>
+      </c>
+      <c r="E114" s="12">
+        <v>791</v>
+      </c>
+      <c r="F114" s="12">
+        <v>32</v>
+      </c>
+      <c r="G114" s="12">
+        <v>116</v>
+      </c>
+      <c r="H114" s="12">
+        <v>712</v>
+      </c>
+      <c r="I114" s="13">
+        <v>32</v>
+      </c>
+      <c r="J114" s="13">
+        <v>112</v>
+      </c>
+      <c r="K114" s="13">
+        <v>859</v>
+      </c>
+      <c r="L114" s="12">
+        <v>14</v>
+      </c>
+      <c r="M114" s="12">
+        <v>120</v>
+      </c>
+      <c r="N114" s="12">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>51</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115" s="7">
+        <v>0</v>
+      </c>
+      <c r="J115" s="7">
+        <v>0</v>
+      </c>
+      <c r="K115" s="7">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" s="7">
+        <v>0</v>
+      </c>
+      <c r="J116" s="7">
+        <v>0</v>
+      </c>
+      <c r="K116" s="7">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117" s="7">
+        <v>0</v>
+      </c>
+      <c r="J117" s="7">
+        <v>0</v>
+      </c>
+      <c r="K117" s="7">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118" s="7">
+        <v>0</v>
+      </c>
+      <c r="J118" s="7">
+        <v>0</v>
+      </c>
+      <c r="K118" s="7">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="12">
+        <v>10</v>
+      </c>
+      <c r="D119" s="12">
+        <v>16</v>
+      </c>
+      <c r="E119" s="12">
+        <v>143</v>
+      </c>
+      <c r="F119" s="12">
+        <v>0</v>
+      </c>
+      <c r="G119" s="12">
+        <v>14</v>
+      </c>
+      <c r="H119" s="12">
+        <v>71</v>
+      </c>
+      <c r="I119" s="13">
+        <v>0</v>
+      </c>
+      <c r="J119" s="13">
+        <v>12</v>
+      </c>
+      <c r="K119" s="13">
+        <v>32</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>51</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120" s="7">
+        <v>0</v>
+      </c>
+      <c r="J120" s="7">
+        <v>0</v>
+      </c>
+      <c r="K120" s="7">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>51</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="12">
+        <v>171</v>
+      </c>
+      <c r="D121" s="12">
+        <v>36</v>
+      </c>
+      <c r="E121" s="12">
+        <v>381</v>
+      </c>
+      <c r="F121" s="12">
+        <v>171</v>
+      </c>
+      <c r="G121" s="12">
+        <v>36</v>
+      </c>
+      <c r="H121" s="12">
+        <v>418</v>
+      </c>
+      <c r="I121" s="13">
+        <v>175</v>
+      </c>
+      <c r="J121" s="13">
+        <v>22</v>
+      </c>
+      <c r="K121" s="13">
+        <v>190</v>
+      </c>
+      <c r="L121" s="12">
+        <v>170</v>
+      </c>
+      <c r="M121" s="12">
+        <v>30</v>
+      </c>
+      <c r="N121" s="12">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>51</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" s="7">
+        <v>0</v>
+      </c>
+      <c r="J122" s="7">
+        <v>0</v>
+      </c>
+      <c r="K122" s="7">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>51</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="12">
+        <v>10</v>
+      </c>
+      <c r="D123" s="12">
+        <v>62</v>
+      </c>
+      <c r="E123" s="12">
+        <v>82</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" s="7">
+        <v>0</v>
+      </c>
+      <c r="J123" s="7">
+        <v>0</v>
+      </c>
+      <c r="K123" s="7">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>51</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="12">
+        <v>800</v>
+      </c>
+      <c r="D124" s="12">
+        <v>8</v>
+      </c>
+      <c r="E124" s="12">
+        <v>104</v>
+      </c>
+      <c r="F124" s="12">
+        <v>857</v>
+      </c>
+      <c r="G124" s="12">
+        <v>18</v>
+      </c>
+      <c r="H124" s="12">
+        <v>175</v>
+      </c>
+      <c r="I124" s="13">
+        <v>446</v>
+      </c>
+      <c r="J124" s="13">
+        <v>26</v>
+      </c>
+      <c r="K124" s="13">
+        <v>576</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>51</v>
+      </c>
+      <c r="B125" t="s">
+        <v>52</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125" s="12">
+        <v>285</v>
+      </c>
+      <c r="G125" s="12">
+        <v>20</v>
+      </c>
+      <c r="H125" s="12">
+        <v>403</v>
+      </c>
+      <c r="I125" s="7">
+        <v>0</v>
+      </c>
+      <c r="J125" s="7">
+        <v>0</v>
+      </c>
+      <c r="K125" s="7">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" s="7">
+        <v>0</v>
+      </c>
+      <c r="J126" s="7">
+        <v>0</v>
+      </c>
+      <c r="K126" s="7">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>54</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127" s="7">
+        <v>0</v>
+      </c>
+      <c r="J127" s="7">
+        <v>0</v>
+      </c>
+      <c r="K127" s="7">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>54</v>
+      </c>
+      <c r="B128" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128" s="7">
+        <v>0</v>
+      </c>
+      <c r="J128" s="7">
+        <v>0</v>
+      </c>
+      <c r="K128" s="7">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>54</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129" s="7">
+        <v>0</v>
+      </c>
+      <c r="J129" s="7">
+        <v>0</v>
+      </c>
+      <c r="K129" s="7">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>54</v>
+      </c>
+      <c r="B130" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130" s="7">
+        <v>0</v>
+      </c>
+      <c r="J130" s="7">
+        <v>0</v>
+      </c>
+      <c r="K130" s="7">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>54</v>
+      </c>
+      <c r="B131" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131" s="7">
+        <v>0</v>
+      </c>
+      <c r="J131" s="7">
+        <v>0</v>
+      </c>
+      <c r="K131" s="7">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>54</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132" s="7">
+        <v>0</v>
+      </c>
+      <c r="J132" s="7">
+        <v>0</v>
+      </c>
+      <c r="K132" s="7">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>54</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133" s="7">
+        <v>0</v>
+      </c>
+      <c r="J133" s="7">
+        <v>0</v>
+      </c>
+      <c r="K133" s="7">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>54</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134" s="7">
+        <v>0</v>
+      </c>
+      <c r="J134" s="7">
+        <v>0</v>
+      </c>
+      <c r="K134" s="7">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>54</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135" s="7">
+        <v>0</v>
+      </c>
+      <c r="J135" s="7">
+        <v>0</v>
+      </c>
+      <c r="K135" s="7">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>54</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="12">
+        <v>197</v>
+      </c>
+      <c r="D136" s="12">
+        <v>8</v>
+      </c>
+      <c r="E136" s="12">
+        <v>42</v>
+      </c>
+      <c r="F136" s="12">
+        <v>181</v>
+      </c>
+      <c r="G136" s="12">
+        <v>12</v>
+      </c>
+      <c r="H136" s="12">
+        <v>81</v>
+      </c>
+      <c r="I136" s="13">
+        <v>202</v>
+      </c>
+      <c r="J136" s="13">
+        <v>8</v>
+      </c>
+      <c r="K136" s="13">
+        <v>42</v>
+      </c>
+      <c r="L136" s="12">
+        <v>269</v>
+      </c>
+      <c r="M136" s="12">
+        <v>16</v>
+      </c>
+      <c r="N136" s="12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>54</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137" s="7">
+        <v>0</v>
+      </c>
+      <c r="J137" s="7">
+        <v>0</v>
+      </c>
+      <c r="K137" s="7">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>54</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="12">
+        <v>189</v>
+      </c>
+      <c r="D138" s="12">
+        <v>16</v>
+      </c>
+      <c r="E138" s="12">
+        <v>412</v>
+      </c>
+      <c r="F138" s="12">
+        <v>255</v>
+      </c>
+      <c r="G138" s="12">
+        <v>16</v>
+      </c>
+      <c r="H138" s="12">
+        <v>349</v>
+      </c>
+      <c r="I138" s="13">
+        <v>163</v>
+      </c>
+      <c r="J138" s="13">
+        <v>16</v>
+      </c>
+      <c r="K138" s="13">
+        <v>443</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>54</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139" s="7">
+        <v>0</v>
+      </c>
+      <c r="J139" s="7">
+        <v>0</v>
+      </c>
+      <c r="K139" s="7">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>54</v>
+      </c>
+      <c r="B140" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140" s="7">
+        <v>0</v>
+      </c>
+      <c r="J140" s="7">
+        <v>0</v>
+      </c>
+      <c r="K140" s="7">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141" s="7">
+        <v>0</v>
+      </c>
+      <c r="J141" s="7">
+        <v>0</v>
+      </c>
+      <c r="K141" s="7">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>56</v>
+      </c>
+      <c r="B142" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142" s="7">
+        <v>0</v>
+      </c>
+      <c r="J142" s="7">
+        <v>0</v>
+      </c>
+      <c r="K142" s="7">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>56</v>
+      </c>
+      <c r="B143" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143" s="7">
+        <v>0</v>
+      </c>
+      <c r="J143" s="7">
+        <v>0</v>
+      </c>
+      <c r="K143" s="7">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>56</v>
+      </c>
+      <c r="B144" t="s">
+        <v>37</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144" s="7">
+        <v>0</v>
+      </c>
+      <c r="J144" s="7">
+        <v>0</v>
+      </c>
+      <c r="K144" s="7">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>56</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145" s="7">
+        <v>0</v>
+      </c>
+      <c r="J145" s="7">
+        <v>0</v>
+      </c>
+      <c r="K145" s="7">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>56</v>
+      </c>
+      <c r="B146" t="s">
+        <v>61</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146" s="7">
+        <v>0</v>
+      </c>
+      <c r="J146" s="7">
+        <v>0</v>
+      </c>
+      <c r="K146" s="7">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>56</v>
+      </c>
+      <c r="B147" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147" s="7">
+        <v>0</v>
+      </c>
+      <c r="J147" s="7">
+        <v>0</v>
+      </c>
+      <c r="K147" s="7">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>56</v>
+      </c>
+      <c r="B148" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148" s="7">
+        <v>0</v>
+      </c>
+      <c r="J148" s="7">
+        <v>0</v>
+      </c>
+      <c r="K148" s="7">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>56</v>
+      </c>
+      <c r="B149" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149" s="7">
+        <v>0</v>
+      </c>
+      <c r="J149" s="7">
+        <v>0</v>
+      </c>
+      <c r="K149" s="7">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>56</v>
+      </c>
+      <c r="B150" t="s">
+        <v>57</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150" s="7">
+        <v>0</v>
+      </c>
+      <c r="J150" s="7">
+        <v>0</v>
+      </c>
+      <c r="K150" s="7">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>56</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151" s="7">
+        <v>0</v>
+      </c>
+      <c r="J151" s="7">
+        <v>0</v>
+      </c>
+      <c r="K151" s="7">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>56</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152" s="7">
+        <v>0</v>
+      </c>
+      <c r="J152" s="7">
+        <v>0</v>
+      </c>
+      <c r="K152" s="7">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>56</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153" s="7">
+        <v>0</v>
+      </c>
+      <c r="J153" s="7">
+        <v>0</v>
+      </c>
+      <c r="K153" s="7">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>56</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154" s="7">
+        <v>0</v>
+      </c>
+      <c r="J154" s="7">
+        <v>0</v>
+      </c>
+      <c r="K154" s="7">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155" s="7">
+        <v>0</v>
+      </c>
+      <c r="J155" s="7">
+        <v>0</v>
+      </c>
+      <c r="K155" s="7">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>56</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156" s="7">
+        <v>0</v>
+      </c>
+      <c r="J156" s="7">
+        <v>0</v>
+      </c>
+      <c r="K156" s="7">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>56</v>
+      </c>
+      <c r="B157" t="s">
+        <v>58</v>
+      </c>
+      <c r="C157" s="12">
+        <v>85</v>
+      </c>
+      <c r="D157" s="12">
+        <v>74</v>
+      </c>
+      <c r="E157" s="12">
+        <v>542</v>
+      </c>
+      <c r="F157" s="12">
+        <v>85</v>
+      </c>
+      <c r="G157" s="12">
+        <v>74</v>
+      </c>
+      <c r="H157" s="12">
+        <v>533</v>
+      </c>
+      <c r="I157" s="13">
+        <v>85</v>
+      </c>
+      <c r="J157" s="13">
+        <v>74</v>
+      </c>
+      <c r="K157" s="13">
+        <v>497</v>
+      </c>
+      <c r="L157" s="12">
+        <v>117</v>
+      </c>
+      <c r="M157" s="12">
+        <v>76</v>
+      </c>
+      <c r="N157" s="12">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>56</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="12">
+        <v>117</v>
+      </c>
+      <c r="D158" s="12">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0.71899999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.95399999999999996</v>
+      <c r="E158" s="12">
+        <v>1035</v>
+      </c>
+      <c r="F158" s="12">
+        <v>117</v>
+      </c>
+      <c r="G158" s="12">
+        <v>78</v>
+      </c>
+      <c r="H158" s="12">
+        <v>1184</v>
+      </c>
+      <c r="I158" s="13">
+        <v>110</v>
+      </c>
+      <c r="J158" s="13">
+        <v>78</v>
+      </c>
+      <c r="K158" s="13">
+        <v>1045</v>
+      </c>
+      <c r="L158" s="12">
+        <v>153</v>
+      </c>
+      <c r="M158" s="12">
+        <v>72</v>
+      </c>
+      <c r="N158" s="12">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>56</v>
+      </c>
+      <c r="B159" t="s">
+        <v>59</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159" s="7">
+        <v>0</v>
+      </c>
+      <c r="J159" s="7">
+        <v>0</v>
+      </c>
+      <c r="K159" s="7">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>56</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="12">
+        <v>215</v>
+      </c>
+      <c r="D160" s="12">
+        <v>48</v>
+      </c>
+      <c r="E160" s="12">
+        <v>632</v>
+      </c>
+      <c r="F160" s="12">
+        <v>218</v>
+      </c>
+      <c r="G160" s="12">
+        <v>46</v>
+      </c>
+      <c r="H160" s="12">
+        <v>767</v>
+      </c>
+      <c r="I160" s="13">
+        <v>218</v>
+      </c>
+      <c r="J160" s="13">
+        <v>50</v>
+      </c>
+      <c r="K160" s="13">
+        <v>842</v>
+      </c>
+      <c r="L160" s="12">
+        <v>320</v>
+      </c>
+      <c r="M160" s="12">
+        <v>42</v>
+      </c>
+      <c r="N160" s="12">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>56</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161" s="7">
+        <v>0</v>
+      </c>
+      <c r="J161" s="7">
+        <v>0</v>
+      </c>
+      <c r="K161" s="7">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>56</v>
+      </c>
+      <c r="B162" t="s">
+        <v>60</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162" s="7">
+        <v>0</v>
+      </c>
+      <c r="J162" s="7">
+        <v>0</v>
+      </c>
+      <c r="K162" s="7">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>56</v>
+      </c>
+      <c r="B163" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163" s="7">
+        <v>0</v>
+      </c>
+      <c r="J163" s="7">
+        <v>0</v>
+      </c>
+      <c r="K163" s="7">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>